--- a/results/PNBSF_reform.xlsx
+++ b/results/PNBSF_reform.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Dropbox\Energy_Reform\SN-Energy-Reform-\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldbankgroup-my.sharepoint.com/personal/dvalderramagonza_worldbank_org/Documents/SenSim Tool/JTR/Energy_reform/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2147618-F753-454F-B002-5D0F0163563F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="129" documentId="8_{C2147618-F753-454F-B002-5D0F0163563F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B532E1C-5DEA-4B9C-9CA4-54CA43D05926}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,11 +19,16 @@
     <sheet name="benefs_by_dep" sheetId="4" r:id="rId4"/>
     <sheet name="benefs_by_decile" sheetId="5" r:id="rId5"/>
     <sheet name="stats" sheetId="6" r:id="rId6"/>
+    <sheet name="poverty_ineq" sheetId="7" r:id="rId7"/>
+    <sheet name="beneficiaries" sheetId="8" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">beneficiaries!$A$1:$D$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">poverty_ineq!$A$1:$F$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">stats!$A$1:$G$21</definedName>
     <definedName name="colcodes">[1]labels!$T$2:$AB$10</definedName>
     <definedName name="colnames">[1]labels!$K$2:$S$10</definedName>
     <definedName name="GDP_2022">'[1]Uprating pmts'!$C$10</definedName>
@@ -34,6 +39,10 @@
     <definedName name="Y_N">[1]labels!$AE$2:$AE$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="100" r:id="rId10"/>
+    <pivotCache cacheId="101" r:id="rId11"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -54,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="148">
   <si>
     <t>Baseline</t>
   </si>
@@ -350,12 +359,6 @@
     <t>hhweight1</t>
   </si>
   <si>
-    <t>_merge</t>
-  </si>
-  <si>
-    <t>Matched (3)</t>
-  </si>
-  <si>
     <t>yd_deciles_pc</t>
   </si>
   <si>
@@ -380,46 +383,7 @@
     <t>gini</t>
   </si>
   <si>
-    <t>theil</t>
-  </si>
-  <si>
     <t>fgt0</t>
-  </si>
-  <si>
-    <t>fgt1</t>
-  </si>
-  <si>
-    <t>fgt2</t>
-  </si>
-  <si>
-    <t>gini</t>
-  </si>
-  <si>
-    <t>theil</t>
-  </si>
-  <si>
-    <t>fgt0</t>
-  </si>
-  <si>
-    <t>fgt1</t>
-  </si>
-  <si>
-    <t>fgt2</t>
-  </si>
-  <si>
-    <t>gini</t>
-  </si>
-  <si>
-    <t>theil</t>
-  </si>
-  <si>
-    <t>fgt0</t>
-  </si>
-  <si>
-    <t>fgt1</t>
-  </si>
-  <si>
-    <t>fgt2</t>
   </si>
   <si>
     <t>gini</t>
@@ -449,9 +413,6 @@
     <t>yd_pc</t>
   </si>
   <si>
-    <t>yd_pc_pnbsf</t>
-  </si>
-  <si>
     <t>yd_pc</t>
   </si>
   <si>
@@ -459,36 +420,6 @@
   </si>
   <si>
     <t>reference</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>zref</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>zref</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>zref</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t/>
@@ -514,17 +445,82 @@
   <si>
     <t>households (using survey)</t>
   </si>
+  <si>
+    <t>yd_pc_0</t>
+  </si>
+  <si>
+    <t>yd_pc_1</t>
+  </si>
+  <si>
+    <t>yd_pc_2</t>
+  </si>
+  <si>
+    <t>yd_pc_3</t>
+  </si>
+  <si>
+    <t>yd_pc_4</t>
+  </si>
+  <si>
+    <t>yd_pc_5</t>
+  </si>
+  <si>
+    <t>yd_deciles_pc_0</t>
+  </si>
+  <si>
+    <t>simulation</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>ben_</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
+  <si>
+    <t>orig_ben</t>
+  </si>
+  <si>
+    <t>Sum of ben_</t>
+  </si>
+  <si>
+    <t>Sum of value</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
-    <numFmt numFmtId="171" formatCode="0.000000"/>
+  <numFmts count="7">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="168" formatCode="0.0000%"/>
+    <numFmt numFmtId="171" formatCode="0.000000%"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -687,10 +683,10 @@
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
@@ -746,7 +742,7 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -757,7 +753,7 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -786,6 +782,23 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -802,25 +815,22 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="171" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="171" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Millares 2" xfId="2" xr:uid="{376AFD77-B6EE-4997-9449-BB610DD78CC6}"/>
+    <cellStyle name="Millares 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 4" xfId="3" xr:uid="{FCE8C554-9325-4365-9698-FEFC489E2216}"/>
-    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
+    <cellStyle name="Normal 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0000"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -836,7 +846,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -954,7 +964,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0.00">
-                  <c:v>38.494498958556932</c:v>
+                  <c:v>38.494498958556925</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>37.875979999999998</c:v>
@@ -1013,10 +1023,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0.00">
-                  <c:v>38.026242249038752</c:v>
+                  <c:v>38.424248549552132</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37.801349999999999</c:v>
+                  <c:v>37.846469999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1072,10 +1082,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0.00">
-                  <c:v>37.68448638204638</c:v>
+                  <c:v>38.424248549552132</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37.611049999999999</c:v>
+                  <c:v>37.846669999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1292,7 +1302,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1380,34 +1390,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.5629358751473741</c:v>
+                  <c:v>10.482988889528526</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.9457466578742277</c:v>
+                  <c:v>16.410492583424482</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.7182223287972356</c:v>
+                  <c:v>12.597624393145665</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.077613252602761</c:v>
+                  <c:v>15.120987085755958</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.8952101192974045</c:v>
+                  <c:v>10.033964653733234</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.819834941949924</c:v>
+                  <c:v>8.6984053882908317</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.3228423555742079</c:v>
+                  <c:v>12.76648820831654</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17.962552205103609</c:v>
+                  <c:v>4.0105156103083681</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.675099414503528</c:v>
+                  <c:v>3.7054093988064394</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14.019942849149732</c:v>
+                  <c:v>6.1731237886899626</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1512,7 +1522,7 @@
                   <c:v>3.56121081167597</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.4528339635476057</c:v>
+                  <c:v>2.4528339635476062</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>6.1040753856311136</c:v>
@@ -1841,7 +1851,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1904,10 +1914,10 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>-0.46825670951817955</c:v>
+                  <c:v>-7.0250409004792402E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-7.4629999999999086E-2</c:v>
+                  <c:v>-2.9510000000001924E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1963,10 +1973,10 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>-0.8100125765105517</c:v>
+                  <c:v>-7.0250409004792402E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.26492999999999967</c:v>
+                  <c:v>-2.931000000000239E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2238,7 +2248,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2476,7 +2486,7 @@
                   <c:v>26423.122377132</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9530.9621896319986</c:v>
+                  <c:v>9530.9621896320004</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4717.9127717279998</c:v>
@@ -2488,7 +2498,7 @@
                   <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10655.304371711998</c:v>
+                  <c:v>10655.304371712</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2151.3855214800001</c:v>
@@ -2500,19 +2510,19 @@
                   <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1791.3798035639998</c:v>
+                  <c:v>1791.379803564</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>3341.6746969320002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7915.801401144</c:v>
+                  <c:v>7915.8014011439982</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6459.5620556999984</c:v>
+                  <c:v>6459.5620556999966</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>7738.5012878159996</c:v>
@@ -2527,22 +2537,22 @@
                   <c:v>1240.0196950439999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>25299.861293304017</c:v>
+                  <c:v>25299.86129330402</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1318.9398674400002</c:v>
+                  <c:v>1318.9398674399999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6871.4604897120007</c:v>
+                  <c:v>6871.4604897120016</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>15831.602802287993</c:v>
+                  <c:v>15831.602802287989</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>13145.073646068</c:v>
+                  <c:v>13145.073646068009</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>1383.8057625599999</c:v>
@@ -2557,31 +2567,31 @@
                   <c:v>9712.5866959680006</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>15755.925924648003</c:v>
+                  <c:v>15755.925924648</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1831.3804388879998</c:v>
+                  <c:v>1831.3804388880001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4070.334918779999</c:v>
+                  <c:v>4070.33491878</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3863.8451526479998</c:v>
+                  <c:v>3863.8451526479989</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>9855.291665232</c:v>
+                  <c:v>9855.2916652319982</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>12155.868745488</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1210.8300422399998</c:v>
+                  <c:v>1210.83004224</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-1</c:v>
@@ -2590,19 +2600,19 @@
                   <c:v>10460.706686351999</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>18215.424447948004</c:v>
+                  <c:v>18215.424447948</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>7574.1743535119995</c:v>
+                  <c:v>7574.1743535119986</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3767.6274082200002</c:v>
+                  <c:v>3767.6274082199998</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2363.2807788719997</c:v>
+                  <c:v>2363.2807788720002</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>0</c:v>
@@ -2611,28 +2621,28 @@
                   <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4683.3176276639988</c:v>
+                  <c:v>4683.3176276640006</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1139.4775576079999</c:v>
+                  <c:v>1139.4775576080001</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>6192.5307874560003</c:v>
+                  <c:v>6192.5307874560021</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3630.3279302159995</c:v>
+                  <c:v>3630.327930215999</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2953.5604244640003</c:v>
+                  <c:v>2953.5604244639999</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2646.5285208959995</c:v>
+                  <c:v>2646.5285208959999</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>3037.8860881199989</c:v>
+                  <c:v>3037.886088119998</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>-1</c:v>
@@ -2954,7 +2964,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3063,76 +3073,76 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="59"/>
                 <c:pt idx="0">
-                  <c:v>4708.1828874599996</c:v>
+                  <c:v>4925.4836361120106</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1656.2425220639998</c:v>
+                  <c:v>1300.5611971559993</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1029.2055359039996</c:v>
+                  <c:v>1335.1563412200003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>464.8722483599995</c:v>
+                  <c:v>1118.93669082</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1835.7048318959951</c:v>
+                  <c:v>1876.7865654720008</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>316.76178783600017</c:v>
+                  <c:v>325.41057385199974</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>872.44628936400113</c:v>
+                  <c:v>922.17680895600097</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>638.9290669320003</c:v>
+                  <c:v>638.92906693200007</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>804.3370994880006</c:v>
+                  <c:v>772.98525018000146</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1296.2368041479995</c:v>
+                  <c:v>1292.9935093920003</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>960.01524777599934</c:v>
+                  <c:v>1027.0433394000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1081.0982519999998</c:v>
+                  <c:v>1370.832583536001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>623.7936914039999</c:v>
+                  <c:v>514.60276795200002</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>131.8939867439999</c:v>
+                  <c:v>131.89398674400013</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4164.3904667040115</c:v>
+                  <c:v>4174.1203509720108</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>314.59959133200005</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1245.4251863040008</c:v>
+                  <c:v>1128.6665750880002</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2565.4461519960041</c:v>
+                  <c:v>2672.474878944</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2499.4991586240012</c:v>
+                  <c:v>2361.1185823680007</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>203.24647137600004</c:v>
@@ -3141,58 +3151,58 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2558.9595624840003</c:v>
+                  <c:v>2901.6677083680006</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1661.6480133239984</c:v>
+                  <c:v>1664.8913080799994</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2620.5821628480007</c:v>
+                  <c:v>2694.0968439839999</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>325.4105738520002</c:v>
+                  <c:v>469.19664136799997</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>391.35756722400083</c:v>
+                  <c:v>704.87606030400048</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>686.49739001999978</c:v>
+                  <c:v>747.03889213200046</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1527.5918300759986</c:v>
+                  <c:v>1527.5918300760022</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2328.685634808</c:v>
+                  <c:v>2321.1179470439893</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>581.63085957600015</c:v>
+                  <c:v>585.95525258399994</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1658.404718568001</c:v>
+                  <c:v>1853.0024039279997</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2960.047013976</c:v>
+                  <c:v>3051.9403653960107</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1174.0727016719984</c:v>
+                  <c:v>1116.7744943159996</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1092.9903327719999</c:v>
+                  <c:v>910.2847281839995</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>446.49357807600018</c:v>
+                  <c:v>540.54912599999989</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>245.409303204</c:v>
@@ -3201,40 +3211,40 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>822.71576977199948</c:v>
+                  <c:v>715.68704282399995</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>234.5983206840001</c:v>
+                  <c:v>221.62514165999983</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1284.3447233760007</c:v>
+                  <c:v>1290.8313128880009</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>571.9009753080004</c:v>
+                  <c:v>762.17426766000062</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>515.68386620400088</c:v>
+                  <c:v>518.92716096000231</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>558.92779628399876</c:v>
+                  <c:v>576.22536831600019</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2069.222054328</c:v>
+                  <c:v>2090.8440193679999</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>195.67878361199996</c:v>
+                  <c:v>175.13791682400006</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>176.21901507600001</c:v>
+                  <c:v>245.40930320400025</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>0</c:v>
@@ -3249,13 +3259,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="59"/>
                 <c:pt idx="0">
-                  <c:v>4925.4836361120142</c:v>
+                  <c:v>4925.4836361120106</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1300.5611971560011</c:v>
+                  <c:v>1300.5611971559993</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1335.1563412200012</c:v>
+                  <c:v>1335.1563412199985</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>654.06444245999955</c:v>
@@ -3264,31 +3274,31 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1876.786565471999</c:v>
+                  <c:v>1876.7865654719899</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>325.41057385199974</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>790.2828222119997</c:v>
+                  <c:v>790.28282221200061</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>638.9290669320003</c:v>
+                  <c:v>638.92906693200007</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>656.2266389639999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1292.9935093919985</c:v>
+                  <c:v>1292.9935093920003</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1027.0433394000001</c:v>
+                  <c:v>1027.0433394000011</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>1071.3683677319987</c:v>
@@ -3303,22 +3313,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4174.120350972029</c:v>
+                  <c:v>4174.1203509720108</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>314.59959133199982</c:v>
+                  <c:v>314.59959133200005</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1128.6665750880002</c:v>
+                  <c:v>1128.6665750879993</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2501.6613551280043</c:v>
+                  <c:v>2501.6613551280007</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2361.1185823680025</c:v>
+                  <c:v>2361.1185823679916</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0</c:v>
@@ -3327,19 +3337,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2901.6677083679897</c:v>
+                  <c:v>2901.6677083680006</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>1664.8913080799994</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2694.0968439839926</c:v>
+                  <c:v>2694.0968439839999</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>353.51912840400018</c:v>
+                  <c:v>353.51912840399996</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>578.38756481999962</c:v>
@@ -3351,10 +3361,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1441.1039699159974</c:v>
+                  <c:v>1441.103969916001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2321.1179470439947</c:v>
+                  <c:v>2321.1179470439893</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>385.95207596399996</c:v>
@@ -3363,19 +3373,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1853.0024039280033</c:v>
+                  <c:v>1853.0024039279997</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3051.9403653960071</c:v>
+                  <c:v>3051.9403653959998</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1116.7744943159987</c:v>
+                  <c:v>1116.7744943159996</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>910.28472818399996</c:v>
+                  <c:v>910.28472818400041</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>540.54912599999989</c:v>
@@ -3387,34 +3397,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>715.68704282400176</c:v>
+                  <c:v>715.68704282399995</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>221.62514166000028</c:v>
+                  <c:v>221.62514165999983</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>1290.831312888</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>621.63149490000023</c:v>
+                  <c:v>621.63149490000069</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>518.92716096000049</c:v>
+                  <c:v>518.92716096000095</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>-9.0949470177292824E-13</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>576.22536831599882</c:v>
+                  <c:v>576.2253683160011</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2090.8440193679908</c:v>
+                  <c:v>2090.8440193679999</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>175.13791682400006</c:v>
@@ -6665,11 +6675,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Electricity -BaU Reform"/>
       <sheetName val="Carburants - BaU Reform"/>
@@ -6682,11 +6689,10 @@
       <sheetName val="elec_pmts_info"/>
       <sheetName val="labels"/>
       <sheetName val="single_policy"/>
-      <sheetName val="GraficasPolicyNote"/>
       <sheetName val="To do"/>
-      <sheetName val="Parameters"/>
       <sheetName val="Uprating pmts"/>
       <sheetName val="PNBSF_deps"/>
+      <sheetName val="Parameters"/>
       <sheetName val="Summary Reforms"/>
       <sheetName val="Elec_Coverage"/>
       <sheetName val="Fuels_Coverage"/>
@@ -6705,6 +6711,7 @@
       <sheetName val="calibdata"/>
       <sheetName val="elec_cost_deciles"/>
       <sheetName val="tab_elec_tranches"/>
+      <sheetName val="GraficasPolicyNote"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -6969,15 +6976,15 @@
       </sheetData>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14">
+      <sheetData sheetId="12">
         <row r="10">
           <cell r="C10">
             <v>16485</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
       <sheetData sheetId="17"/>
@@ -7002,8 +7009,783 @@
 </externalLink>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Daniel Valderrama Gonzalez" refreshedDate="45012.063642939815" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="14" xr:uid="{2458ABA9-CDEB-4051-993C-03EF4733F004}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:F15" sheet="poverty_ineq"/>
+  </cacheSource>
+  <cacheFields count="6">
+    <cacheField name="all" numFmtId="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="1"/>
+    </cacheField>
+    <cacheField name="measure" numFmtId="0">
+      <sharedItems count="2">
+        <s v="gini"/>
+        <s v="fgt0"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="_population" numFmtId="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="17258998.467498779" maxValue="17258998.467498779"/>
+    </cacheField>
+    <cacheField name="value" numFmtId="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="37.590470000000003" maxValue="38.517863561477277"/>
+    </cacheField>
+    <cacheField name="variable" numFmtId="0">
+      <sharedItems count="7">
+        <s v="yd_pc"/>
+        <s v="yd_pc_0"/>
+        <s v="yd_pc_1"/>
+        <s v="yd_pc_2"/>
+        <s v="yd_pc_3"/>
+        <s v="yd_pc_4"/>
+        <s v="yd_pc_5"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="reference" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Daniel Valderrama Gonzalez" refreshedDate="45012.063754282404" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="60" xr:uid="{295BE23B-7A76-4CA7-BF10-77E9A1B4CF8C}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:D61" sheet="beneficiaries"/>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="yd_deciles_pc_0" numFmtId="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="10" count="10">
+        <n v="1"/>
+        <n v="2"/>
+        <n v="3"/>
+        <n v="4"/>
+        <n v="5"/>
+        <n v="6"/>
+        <n v="7"/>
+        <n v="8"/>
+        <n v="9"/>
+        <n v="10"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="simulation" numFmtId="0">
+      <sharedItems count="6">
+        <s v="0"/>
+        <s v="1"/>
+        <s v="2"/>
+        <s v="3"/>
+        <s v="4"/>
+        <s v="5"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="orig_ben" numFmtId="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3.2659978192920001" maxValue="75.180653542331996"/>
+    </cacheField>
+    <cacheField name="ben_" numFmtId="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.584905920532" maxValue="73.094133915972023"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="14">
+  <r>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="17258998.467498779"/>
+    <n v="37.85107"/>
+    <x v="0"/>
+    <s v=""/>
+  </r>
+  <r>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="17258998.467498779"/>
+    <n v="38.494498958556932"/>
+    <x v="0"/>
+    <s v="zref"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="17258998.467498779"/>
+    <n v="37.892769999999999"/>
+    <x v="1"/>
+    <s v=""/>
+  </r>
+  <r>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="17258998.467498779"/>
+    <n v="38.517863561477277"/>
+    <x v="1"/>
+    <s v="zref"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="17258998.467498779"/>
+    <n v="37.878869999999999"/>
+    <x v="2"/>
+    <s v=""/>
+  </r>
+  <r>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="17258998.467498779"/>
+    <n v="38.404654857811309"/>
+    <x v="2"/>
+    <s v="zref"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="17258998.467498779"/>
+    <n v="37.838909999999998"/>
+    <x v="3"/>
+    <s v=""/>
+  </r>
+  <r>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="17258998.467498779"/>
+    <n v="38.387297399405682"/>
+    <x v="3"/>
+    <s v="zref"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="17258998.467498779"/>
+    <n v="37.675579999999997"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="17258998.467498779"/>
+    <n v="38.21461857300848"/>
+    <x v="4"/>
+    <s v="zref"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="17258998.467498779"/>
+    <n v="37.805140000000002"/>
+    <x v="5"/>
+    <s v=""/>
+  </r>
+  <r>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="17258998.467498779"/>
+    <n v="38.35563930121387"/>
+    <x v="5"/>
+    <s v="zref"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="17258998.467498779"/>
+    <n v="37.590470000000003"/>
+    <x v="6"/>
+    <s v=""/>
+  </r>
+  <r>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="17258998.467498779"/>
+    <n v="38.091174541764062"/>
+    <x v="6"/>
+    <s v="zref"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="60">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="75.180653542331996"/>
+    <n v="73.094133915972023"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="75.180653542331996"/>
+    <n v="2.8151798482079999"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="75.180653542331996"/>
+    <n v="10.487734142652"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="75.180653542331996"/>
+    <n v="73.094133915972023"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="75.180653542331996"/>
+    <n v="73.094133915972023"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="75.180653542331996"/>
+    <n v="73.094133915972023"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="56.02899800815198"/>
+    <n v="53.49598480371597"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="56.02899800815198"/>
+    <n v="5.1535953672839998"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="56.02899800815198"/>
+    <n v="16.828375390632001"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="56.02899800815198"/>
+    <n v="53.49598480371597"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="56.02899800815198"/>
+    <n v="53.49598480371597"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="56.02899800815198"/>
+    <n v="53.49598480371597"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="52.102449156888063"/>
+    <n v="49.53700300489205"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="52.102449156888063"/>
+    <n v="5.6736036264959999"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="52.102449156888063"/>
+    <n v="14.040222998723999"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="52.102449156888063"/>
+    <n v="49.53700300489205"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="52.102449156888063"/>
+    <n v="49.53700300489205"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="52.102449156888063"/>
+    <n v="49.53700300489205"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="34.595144063999982"/>
+    <n v="32.189700453299999"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="34.595144063999982"/>
+    <n v="11.06504060922"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="34.595144063999982"/>
+    <n v="13.571026357356001"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="34.595144063999982"/>
+    <n v="32.189700453299999"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="34.595144063999982"/>
+    <n v="32.189700453299999"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="5"/>
+    <n v="34.595144063999982"/>
+    <n v="32.189700453299999"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="28.492344431460001"/>
+    <n v="25.537702908743992"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="28.492344431460001"/>
+    <n v="8.5633792540919984"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <n v="28.492344431460001"/>
+    <n v="11.05206743019599"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="3"/>
+    <n v="28.492344431460001"/>
+    <n v="25.537702908743992"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="28.492344431460001"/>
+    <n v="25.537702908743992"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="5"/>
+    <n v="28.492344431460001"/>
+    <n v="25.537702908743992"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="23.55713091107998"/>
+    <n v="21.637100415527989"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <n v="23.55713091107998"/>
+    <n v="11.505047597783999"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="2"/>
+    <n v="23.55713091107998"/>
+    <n v="8.4952700642160011"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="3"/>
+    <n v="23.55713091107998"/>
+    <n v="21.637100415527989"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="4"/>
+    <n v="23.55713091107998"/>
+    <n v="21.637100415527989"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="23.55713091107998"/>
+    <n v="21.637100415527989"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="19.073816460035989"/>
+    <n v="16.759185102503999"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <n v="19.073816460035989"/>
+    <n v="11.113690030560001"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="2"/>
+    <n v="19.073816460035989"/>
+    <n v="12.354790823856"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="3"/>
+    <n v="19.073816460035989"/>
+    <n v="16.759185102503999"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="4"/>
+    <n v="19.073816460035989"/>
+    <n v="16.759185102503999"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="5"/>
+    <n v="19.073816460035989"/>
+    <n v="16.759185102503999"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="12.214248051096"/>
+    <n v="11.826133778628"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+    <n v="12.214248051096"/>
+    <n v="16.199176207968002"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="12.214248051096"/>
+    <n v="4.2627704076359976"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="3"/>
+    <n v="12.214248051096"/>
+    <n v="11.826133778628"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="4"/>
+    <n v="12.214248051096"/>
+    <n v="11.826133778628"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="5"/>
+    <n v="12.214248051096"/>
+    <n v="11.826133778628"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="0"/>
+    <n v="11.907216147528001"/>
+    <n v="10.542870153503999"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+    <n v="11.907216147528001"/>
+    <n v="12.147219959472"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="2"/>
+    <n v="11.907216147528001"/>
+    <n v="3.7405999519200002"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="3"/>
+    <n v="11.907216147528001"/>
+    <n v="10.542870153503999"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="4"/>
+    <n v="11.907216147528001"/>
+    <n v="10.542870153503999"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="5"/>
+    <n v="11.907216147528001"/>
+    <n v="10.542870153503999"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="0"/>
+    <n v="3.2659978192920001"/>
+    <n v="2.584905920532"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="1"/>
+    <n v="3.2659978192920001"/>
+    <n v="14.819694838416"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="2"/>
+    <n v="3.2659978192920001"/>
+    <n v="4.6184517325439991"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="3"/>
+    <n v="3.2659978192920001"/>
+    <n v="2.584905920532"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="4"/>
+    <n v="3.2659978192920001"/>
+    <n v="2.584905920532"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="5"/>
+    <n v="3.2659978192920001"/>
+    <n v="2.584905920532"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F5B663E9-C0CD-4F2C-846F-1C69DD21ABD3}" name="PivotTable1" cacheId="100" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="K1:M10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField dataField="1" numFmtId="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of value" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="0">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{19D059ED-EC38-45A5-BE3C-6C530D55CE13}" name="PivotTable2" cacheId="101" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="S3:Z15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisRow" numFmtId="1" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField dataField="1" numFmtId="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="11">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of ben_" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -7302,19 +8084,19 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>3</v>
       </c>
@@ -7325,81 +8107,81 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35">
+      <c r="B2" s="28">
         <f>stats!D4*100</f>
-        <v>38.494498958556932</v>
+        <v>38.494498958556925</v>
       </c>
       <c r="C2">
         <f>stats!D2*100</f>
         <v>37.875979999999998</v>
       </c>
       <c r="D2" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="35">
+      <c r="B3" s="28">
         <f>stats!D9*100</f>
-        <v>38.026242249038752</v>
+        <v>38.424248549552132</v>
       </c>
       <c r="C3">
         <f>stats!D7*100</f>
-        <v>37.801349999999999</v>
-      </c>
-      <c r="D3" s="36">
+        <v>37.846469999999997</v>
+      </c>
+      <c r="D3" s="29">
         <f>B3-B$2</f>
-        <v>-0.46825670951817955</v>
-      </c>
-      <c r="E3" s="36">
+        <v>-7.0250409004792402E-2</v>
+      </c>
+      <c r="E3" s="29">
         <f>C3-C$2</f>
-        <v>-7.4629999999999086E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>-2.9510000000001924E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="35">
+      <c r="B4" s="28">
         <f>stats!D19*100</f>
-        <v>37.68448638204638</v>
+        <v>38.424248549552132</v>
       </c>
       <c r="C4">
         <f>stats!D17*100</f>
-        <v>37.611049999999999</v>
-      </c>
-      <c r="D4" s="36">
+        <v>37.846669999999996</v>
+      </c>
+      <c r="D4" s="29">
         <f>B4-B$2</f>
-        <v>-0.8100125765105517</v>
-      </c>
-      <c r="E4" s="36">
+        <v>-7.0250409004792402E-2</v>
+      </c>
+      <c r="E4" s="29">
         <f>C4-C$2</f>
-        <v>-0.26492999999999967</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="28" t="s">
+        <v>-2.931000000000239E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28" t="s">
+      <c r="C8" s="38"/>
+      <c r="D8" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="28"/>
+      <c r="E8" s="38"/>
       <c r="H8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -7422,267 +8204,267 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="B10" s="26">
         <f>benefs_by_decile!B2</f>
-        <v>1927.5981833160001</v>
+        <v>5906.039750676</v>
       </c>
       <c r="C10" s="26">
         <f>benefs_by_decile!C2</f>
         <v>5790.362237712</v>
       </c>
-      <c r="D10" s="37">
+      <c r="D10" s="30">
         <f>B10*100/B$20</f>
-        <v>3.5629358751473741</v>
-      </c>
-      <c r="E10" s="37">
+        <v>10.482988889528526</v>
+      </c>
+      <c r="E10" s="30">
         <f>C10*100/C$20</f>
         <v>10.715643318728368</v>
       </c>
       <c r="G10" t="s">
-        <v>150</v>
-      </c>
-      <c r="H10" s="35">
+        <v>124</v>
+      </c>
+      <c r="H10" s="28">
         <f>SUM(D10:D13)</f>
-        <v>27.304518114421597</v>
-      </c>
-      <c r="I10" s="35">
+        <v>54.612092951854628</v>
+      </c>
+      <c r="I10" s="28">
         <f>SUM(E10:E13)</f>
         <v>55.796970970129834</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
       <c r="B11" s="26">
         <f>benefs_by_decile!B3</f>
-        <v>2675.7181736999996</v>
+        <v>9245.5522511039999</v>
       </c>
       <c r="C11" s="26">
         <f>benefs_by_decile!C3</f>
         <v>9175.2808647239981</v>
       </c>
-      <c r="D11" s="37">
+      <c r="D11" s="30">
         <f t="shared" ref="D11:D19" si="0">B11*100/B$20</f>
-        <v>4.9457466578742277</v>
-      </c>
-      <c r="E11" s="37">
+        <v>16.410492583424482</v>
+      </c>
+      <c r="E11" s="30">
         <f t="shared" ref="E11:E19" si="1">C11*100/C$20</f>
         <v>16.979773122861769</v>
       </c>
       <c r="G11" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="H11" s="26">
         <f>H10*50000/100</f>
-        <v>13652.259057210798</v>
+        <v>27306.046475927313</v>
       </c>
       <c r="I11" s="26">
         <f>I10*50000/100</f>
         <v>27898.485485064917</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3</v>
       </c>
       <c r="B12" s="26">
         <f>benefs_by_decile!B4</f>
-        <v>3634.6523232240002</v>
+        <v>7097.4100243800003</v>
       </c>
       <c r="C12" s="26">
         <f>benefs_by_decile!C4</f>
         <v>7097.4100243800003</v>
       </c>
-      <c r="D12" s="37">
+      <c r="D12" s="30">
         <f t="shared" si="0"/>
-        <v>6.7182223287972356</v>
-      </c>
-      <c r="E12" s="37">
+        <v>12.597624393145665</v>
+      </c>
+      <c r="E12" s="30">
         <f t="shared" si="1"/>
         <v>13.134465718344238</v>
       </c>
       <c r="G12" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="H12" s="26">
         <f>H10*B20/100</f>
-        <v>14772.126515327996</v>
+        <v>30768.056251919999</v>
       </c>
       <c r="I12" s="26">
         <f>I10*C20/100</f>
         <v>30150.749150027998</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>4</v>
       </c>
       <c r="B13" s="26">
         <f>benefs_by_decile!B5</f>
-        <v>6534.157835087999</v>
+        <v>8519.0542257600027</v>
       </c>
       <c r="C13" s="26">
         <f>benefs_by_decile!C5</f>
         <v>8087.6960232120009</v>
       </c>
-      <c r="D13" s="37">
+      <c r="D13" s="30">
         <f t="shared" si="0"/>
-        <v>12.077613252602761</v>
-      </c>
-      <c r="E13" s="37">
+        <v>15.120987085755958</v>
+      </c>
+      <c r="E13" s="30">
         <f t="shared" si="1"/>
         <v>14.967088810195467</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>5</v>
       </c>
       <c r="B14" s="26">
         <f>benefs_by_decile!B6</f>
-        <v>4271.4191936520001</v>
+        <v>5653.0627597079992</v>
       </c>
       <c r="C14" s="26">
         <f>benefs_by_decile!C6</f>
         <v>5653.0627597079992</v>
       </c>
-      <c r="D14" s="37">
+      <c r="D14" s="30">
         <f t="shared" si="0"/>
-        <v>7.8952101192974045</v>
-      </c>
-      <c r="E14" s="37">
+        <v>10.033964653733234</v>
+      </c>
+      <c r="E14" s="30">
         <f t="shared" si="1"/>
         <v>10.46155692935598</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>6</v>
       </c>
       <c r="B15" s="26">
         <f>benefs_by_decile!B7</f>
-        <v>6394.6961605800007</v>
+        <v>4900.6183763160016</v>
       </c>
       <c r="C15" s="26">
         <f>benefs_by_decile!C7</f>
         <v>4697.3719049400006</v>
       </c>
-      <c r="D15" s="37">
+      <c r="D15" s="30">
         <f t="shared" si="0"/>
-        <v>11.819834941949924</v>
-      </c>
-      <c r="E15" s="37">
+        <v>8.6984053882908317</v>
+      </c>
+      <c r="E15" s="30">
         <f t="shared" si="1"/>
         <v>8.6929556049056682</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>7</v>
       </c>
       <c r="B16" s="26">
         <f>benefs_by_decile!B8</f>
-        <v>4502.7742195800001</v>
+        <v>7192.5466705559984</v>
       </c>
       <c r="C16" s="26">
         <f>benefs_by_decile!C8</f>
         <v>6987.1380026759989</v>
       </c>
-      <c r="D16" s="37">
+      <c r="D16" s="30">
         <f t="shared" si="0"/>
-        <v>8.3228423555742079</v>
-      </c>
-      <c r="E16" s="37">
+        <v>12.76648820831654</v>
+      </c>
+      <c r="E16" s="30">
         <f t="shared" si="1"/>
         <v>12.930396334753814</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>8</v>
       </c>
       <c r="B17" s="26">
         <f>benefs_by_decile!B9</f>
-        <v>9717.9921872279974</v>
+        <v>2259.4953466799998</v>
       </c>
       <c r="C17" s="26">
         <f>benefs_by_decile!C9</f>
         <v>1924.3548885600001</v>
       </c>
-      <c r="D17" s="37">
+      <c r="D17" s="30">
         <f t="shared" si="0"/>
-        <v>17.962552205103609</v>
-      </c>
-      <c r="E17" s="37">
+        <v>4.0105156103083681</v>
+      </c>
+      <c r="E17" s="30">
         <f t="shared" si="1"/>
         <v>3.56121081167597</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>9</v>
       </c>
       <c r="B18" s="26">
         <f>benefs_by_decile!B10</f>
-        <v>6857.4062124359989</v>
+        <v>2087.6007246119998</v>
       </c>
       <c r="C18" s="26">
         <f>benefs_by_decile!C10</f>
-        <v>1325.4264569519999</v>
-      </c>
-      <c r="D18" s="37">
+        <v>1325.4264569520001</v>
+      </c>
+      <c r="D18" s="30">
         <f t="shared" si="0"/>
-        <v>12.675099414503528</v>
-      </c>
-      <c r="E18" s="37">
+        <v>3.7054093988064394</v>
+      </c>
+      <c r="E18" s="30">
         <f t="shared" si="1"/>
-        <v>2.4528339635476057</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2.4528339635476062</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>10</v>
       </c>
       <c r="B19" s="26">
         <f>benefs_by_decile!B11</f>
-        <v>7584.9853360320003</v>
+        <v>3477.8930766839999</v>
       </c>
       <c r="C19" s="26">
         <f>benefs_by_decile!C11</f>
-        <v>3298.4307668519996</v>
-      </c>
-      <c r="D19" s="37">
+        <v>3298.430766852</v>
+      </c>
+      <c r="D19" s="30">
         <f t="shared" si="0"/>
-        <v>14.019942849149732</v>
-      </c>
-      <c r="E19" s="37">
+        <v>6.1731237886899626</v>
+      </c>
+      <c r="E19" s="30">
         <f t="shared" si="1"/>
         <v>6.1040753856311136</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" s="26">
         <f>SUM(B10:B19)</f>
-        <v>54101.399824835993</v>
+        <v>56339.273206475998</v>
       </c>
       <c r="C20" s="26">
         <f>SUM(C10:C19)</f>
         <v>54036.533929716003</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" s="27">
         <f>PNBSF_deps!J64</f>
-        <v>54101.399824836008</v>
+        <v>56339.27320647602</v>
       </c>
       <c r="C21" s="27">
         <f>PNBSF_deps!M64</f>
-        <v>54036.533929716024</v>
+        <v>54036.533929716003</v>
       </c>
     </row>
   </sheetData>
@@ -7691,7 +8473,8 @@
     <mergeCell ref="B8:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7704,43 +8487,43 @@
       <selection pane="bottomLeft" activeCell="M5" sqref="M5:M63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="19.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="19.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.6640625" customWidth="1"/>
-    <col min="2" max="2" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.7109375" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.21875" customWidth="1"/>
-    <col min="7" max="12" width="24.109375" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" customWidth="1"/>
+    <col min="7" max="12" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="B2" s="29" t="s">
+    <row r="2" spans="2:13" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B2" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
       <c r="F2" s="18"/>
     </row>
-    <row r="3" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
       <c r="D3" s="1"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="H3" s="30" t="s">
+      <c r="H3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="31"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="30" t="s">
+      <c r="I3" s="41"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="31"/>
-      <c r="M3" s="32"/>
-    </row>
-    <row r="4" spans="2:13" ht="28.2" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="L3" s="41"/>
+      <c r="M3" s="42"/>
+    </row>
+    <row r="4" spans="2:13" ht="43.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
@@ -7778,7 +8561,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
@@ -7797,34 +8580,34 @@
       </c>
       <c r="G5" s="7">
         <f>IFERROR(VLOOKUP(E5,benefs_by_dep!$A$1:$D$46,4,FALSE),"")</f>
-        <v>211550.38704961186</v>
+        <v>211550.38704961209</v>
       </c>
       <c r="H5" s="7">
         <f>IFERROR(VLOOKUP(E5,benefs_by_dep!$A$1:$C$46,2,FALSE),"")</f>
-        <v>31131.305264592</v>
+        <v>31348.606013244011</v>
       </c>
       <c r="I5" s="19">
         <f t="shared" ref="I5:I36" si="0">IFERROR(H5/G5,"")</f>
-        <v>0.14715787429540947</v>
+        <v>0.14818505629059539</v>
       </c>
       <c r="J5" s="7">
         <f t="shared" ref="J5:J8" si="1">IFERROR(H5-F5,0)</f>
-        <v>4708.1828874599996</v>
+        <v>4925.4836361120106</v>
       </c>
       <c r="K5" s="7">
         <f>IFERROR(VLOOKUP(E5,benefs_by_dep!$A$1:$G$46,5,FALSE),"")</f>
-        <v>31348.606013244014</v>
+        <v>31348.606013244011</v>
       </c>
       <c r="L5" s="19">
         <f>IFERROR(K5/G5,"")</f>
-        <v>0.14818505629059558</v>
+        <v>0.14818505629059539</v>
       </c>
       <c r="M5" s="7">
         <f>IFERROR(K5-F5,0)</f>
-        <v>4925.4836361120142</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+        <v>4925.4836361120106</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
@@ -7839,23 +8622,23 @@
       </c>
       <c r="F6" s="9">
         <f>IFERROR(VLOOKUP(E6,benefs_by_dep!$A$1:$D$46,3,FALSE),-1)</f>
-        <v>9530.9621896319986</v>
+        <v>9530.9621896320004</v>
       </c>
       <c r="G6" s="7">
         <f>IFERROR(VLOOKUP(E6,benefs_by_dep!$A$1:$D$46,4,FALSE),"")</f>
-        <v>205313.53123382368</v>
+        <v>205313.53123382371</v>
       </c>
       <c r="H6" s="7">
         <f>IFERROR(VLOOKUP(E6,benefs_by_dep!$A$1:$C$46,2,FALSE),"")</f>
-        <v>11187.204711695998</v>
+        <v>10831.523386788</v>
       </c>
       <c r="I6" s="19">
         <f t="shared" si="0"/>
-        <v>5.4488394624878971E-2</v>
+        <v>5.2756013311428526E-2</v>
       </c>
       <c r="J6" s="7">
         <f t="shared" si="1"/>
-        <v>1656.2425220639998</v>
+        <v>1300.5611971559993</v>
       </c>
       <c r="K6" s="7">
         <f>IFERROR(VLOOKUP(E6,benefs_by_dep!$A$1:$G$46,5,FALSE),"")</f>
@@ -7863,14 +8646,14 @@
       </c>
       <c r="L6" s="19">
         <f t="shared" ref="L6:L63" si="2">IFERROR(K6/G6,"")</f>
-        <v>5.2756013311428533E-2</v>
+        <v>5.2756013311428526E-2</v>
       </c>
       <c r="M6" s="7">
         <f t="shared" ref="M6:M63" si="3">IFERROR(K6-F6,0)</f>
-        <v>1300.5611971560011</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1300.5611971559993</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
@@ -7889,34 +8672,34 @@
       </c>
       <c r="G7" s="7">
         <f>IFERROR(VLOOKUP(E7,benefs_by_dep!$A$1:$D$46,4,FALSE),"")</f>
-        <v>102682.71197496004</v>
+        <v>102682.71197496</v>
       </c>
       <c r="H7" s="7">
         <f>IFERROR(VLOOKUP(E7,benefs_by_dep!$A$1:$C$46,2,FALSE),"")</f>
-        <v>5747.1183076319994</v>
+        <v>6053.0691129480001</v>
       </c>
       <c r="I7" s="19">
         <f t="shared" si="0"/>
-        <v>5.5969677826910903E-2</v>
+        <v>5.8949252474205099E-2</v>
       </c>
       <c r="J7" s="7">
         <f t="shared" si="1"/>
-        <v>1029.2055359039996</v>
+        <v>1335.1563412200003</v>
       </c>
       <c r="K7" s="7">
         <f>IFERROR(VLOOKUP(E7,benefs_by_dep!$A$1:$G$46,5,FALSE),"")</f>
-        <v>6053.069112948001</v>
+        <v>6053.0691129479983</v>
       </c>
       <c r="L7" s="19">
         <f t="shared" si="2"/>
-        <v>5.8949252474205086E-2</v>
+        <v>5.8949252474205079E-2</v>
       </c>
       <c r="M7" s="7">
         <f t="shared" si="3"/>
-        <v>1335.1563412200012</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1335.1563412199985</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
@@ -7935,19 +8718,19 @@
       </c>
       <c r="G8" s="7">
         <f>IFERROR(VLOOKUP(E8,benefs_by_dep!$A$1:$D$46,4,FALSE),"")</f>
-        <v>51166.218070655996</v>
+        <v>51166.218070656003</v>
       </c>
       <c r="H8" s="7">
         <f>IFERROR(VLOOKUP(E8,benefs_by_dep!$A$1:$C$46,2,FALSE),"")</f>
-        <v>7046.5984065359989</v>
+        <v>7700.6628489959994</v>
       </c>
       <c r="I8" s="19">
         <f t="shared" si="0"/>
-        <v>0.13771974306964163</v>
+        <v>0.15050287356321837</v>
       </c>
       <c r="J8" s="7">
         <f t="shared" si="1"/>
-        <v>464.8722483599995</v>
+        <v>1118.93669082</v>
       </c>
       <c r="K8" s="7">
         <f>IFERROR(VLOOKUP(E8,benefs_by_dep!$A$1:$G$46,5,FALSE),"")</f>
@@ -7955,14 +8738,14 @@
       </c>
       <c r="L8" s="19">
         <f t="shared" si="2"/>
-        <v>0.14141734279918863</v>
+        <v>0.14141734279918861</v>
       </c>
       <c r="M8" s="7">
         <f t="shared" si="3"/>
         <v>654.06444245999955</v>
       </c>
     </row>
-    <row r="9" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>17</v>
       </c>
@@ -8006,7 +8789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>18</v>
       </c>
@@ -8021,38 +8804,38 @@
       </c>
       <c r="F10" s="9">
         <f>IFERROR(VLOOKUP(E10,benefs_by_dep!$A$1:$D$46,3,FALSE),-1)</f>
-        <v>10655.304371711998</v>
+        <v>10655.304371712</v>
       </c>
       <c r="G10" s="7">
         <f>IFERROR(VLOOKUP(E10,benefs_by_dep!$A$1:$D$46,4,FALSE),"")</f>
-        <v>38063.307256415974</v>
+        <v>38063.307256416003</v>
       </c>
       <c r="H10" s="7">
         <f>IFERROR(VLOOKUP(E10,benefs_by_dep!$A$1:$C$46,2,FALSE),"")</f>
-        <v>12491.009203607993</v>
+        <v>12532.090937184001</v>
       </c>
       <c r="I10" s="19">
         <f t="shared" si="0"/>
-        <v>0.32816405362417639</v>
+        <v>0.32924335378323105</v>
       </c>
       <c r="J10" s="7">
         <f t="shared" ref="J10:J63" si="4">IFERROR(H10-F10,0)</f>
-        <v>1835.7048318959951</v>
+        <v>1876.7865654720008</v>
       </c>
       <c r="K10" s="7">
         <f>IFERROR(VLOOKUP(E10,benefs_by_dep!$A$1:$G$46,5,FALSE),"")</f>
-        <v>12532.090937183997</v>
+        <v>12532.09093718399</v>
       </c>
       <c r="L10" s="19">
         <f t="shared" si="2"/>
-        <v>0.32924335378323122</v>
+        <v>0.32924335378323077</v>
       </c>
       <c r="M10" s="7">
         <f t="shared" si="3"/>
-        <v>1876.786565471999</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1876.7865654719899</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>19</v>
       </c>
@@ -8071,19 +8854,19 @@
       </c>
       <c r="G11" s="7">
         <f>IFERROR(VLOOKUP(E11,benefs_by_dep!$A$1:$D$46,4,FALSE),"")</f>
-        <v>5967.6623510399968</v>
+        <v>5967.6623510399977</v>
       </c>
       <c r="H11" s="7">
         <f>IFERROR(VLOOKUP(E11,benefs_by_dep!$A$1:$C$46,2,FALSE),"")</f>
-        <v>2468.1473093160002</v>
+        <v>2476.7960953319998</v>
       </c>
       <c r="I11" s="19">
         <f t="shared" si="0"/>
-        <v>0.41358695652173938</v>
+        <v>0.41503623188405808</v>
       </c>
       <c r="J11" s="7">
         <f t="shared" si="4"/>
-        <v>316.76178783600017</v>
+        <v>325.41057385199974</v>
       </c>
       <c r="K11" s="7">
         <f>IFERROR(VLOOKUP(E11,benefs_by_dep!$A$1:$G$46,5,FALSE),"")</f>
@@ -8091,14 +8874,14 @@
       </c>
       <c r="L11" s="19">
         <f t="shared" si="2"/>
-        <v>0.41503623188405814</v>
+        <v>0.41503623188405808</v>
       </c>
       <c r="M11" s="7">
         <f t="shared" si="3"/>
         <v>325.41057385199974</v>
       </c>
     </row>
-    <row r="12" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>20</v>
       </c>
@@ -8117,34 +8900,34 @@
       </c>
       <c r="G12" s="7">
         <f>IFERROR(VLOOKUP(E12,benefs_by_dep!$A$1:$D$46,4,FALSE),"")</f>
-        <v>49765.114736063973</v>
+        <v>49765.114736064002</v>
       </c>
       <c r="H12" s="7">
         <f>IFERROR(VLOOKUP(E12,benefs_by_dep!$A$1:$C$46,2,FALSE),"")</f>
-        <v>5795.7677289720014</v>
+        <v>5845.4982485640012</v>
       </c>
       <c r="I12" s="19">
         <f t="shared" si="0"/>
-        <v>0.11646246089676755</v>
+        <v>0.1174617657281891</v>
       </c>
       <c r="J12" s="7">
         <f t="shared" si="4"/>
-        <v>872.44628936400113</v>
+        <v>922.17680895600097</v>
       </c>
       <c r="K12" s="7">
         <f>IFERROR(VLOOKUP(E12,benefs_by_dep!$A$1:$G$46,5,FALSE),"")</f>
-        <v>5713.6042618199999</v>
+        <v>5713.6042618200008</v>
       </c>
       <c r="L12" s="19">
         <f t="shared" si="2"/>
-        <v>0.11481143552311442</v>
+        <v>0.11481143552311436</v>
       </c>
       <c r="M12" s="7">
         <f t="shared" si="3"/>
-        <v>790.2828222119997</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+        <v>790.28282221200061</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>21</v>
       </c>
@@ -8188,7 +8971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>22</v>
       </c>
@@ -8203,11 +8986,11 @@
       </c>
       <c r="F14" s="9">
         <f>IFERROR(VLOOKUP(E14,benefs_by_dep!$A$1:$D$46,3,FALSE),-1)</f>
-        <v>1791.3798035639998</v>
+        <v>1791.379803564</v>
       </c>
       <c r="G14" s="7">
         <f>IFERROR(VLOOKUP(E14,benefs_by_dep!$A$1:$D$46,4,FALSE),"")</f>
-        <v>30694.541570783993</v>
+        <v>30694.541570783978</v>
       </c>
       <c r="H14" s="7">
         <f>IFERROR(VLOOKUP(E14,benefs_by_dep!$A$1:$C$46,2,FALSE),"")</f>
@@ -8215,11 +8998,11 @@
       </c>
       <c r="I14" s="19">
         <f t="shared" si="0"/>
-        <v>7.9177233023386889E-2</v>
+        <v>7.9177233023386931E-2</v>
       </c>
       <c r="J14" s="7">
         <f t="shared" si="4"/>
-        <v>638.9290669320003</v>
+        <v>638.92906693200007</v>
       </c>
       <c r="K14" s="7">
         <f>IFERROR(VLOOKUP(E14,benefs_by_dep!$A$1:$G$46,5,FALSE),"")</f>
@@ -8227,14 +9010,14 @@
       </c>
       <c r="L14" s="19">
         <f t="shared" si="2"/>
-        <v>7.9177233023386889E-2</v>
+        <v>7.9177233023386931E-2</v>
       </c>
       <c r="M14" s="7">
         <f t="shared" si="3"/>
-        <v>638.9290669320003</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+        <v>638.92906693200007</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>23</v>
       </c>
@@ -8253,19 +9036,19 @@
       </c>
       <c r="G15" s="7">
         <f>IFERROR(VLOOKUP(E15,benefs_by_dep!$A$1:$D$46,4,FALSE),"")</f>
-        <v>33872.970431664005</v>
+        <v>33872.970431664013</v>
       </c>
       <c r="H15" s="7">
         <f>IFERROR(VLOOKUP(E15,benefs_by_dep!$A$1:$C$46,2,FALSE),"")</f>
-        <v>4146.0117964200008</v>
+        <v>4114.6599471120016</v>
       </c>
       <c r="I15" s="19">
         <f t="shared" si="0"/>
-        <v>0.12239882548193541</v>
+        <v>0.12147325418102899</v>
       </c>
       <c r="J15" s="7">
         <f t="shared" si="4"/>
-        <v>804.3370994880006</v>
+        <v>772.98525018000146</v>
       </c>
       <c r="K15" s="7">
         <f>IFERROR(VLOOKUP(E15,benefs_by_dep!$A$1:$G$46,5,FALSE),"")</f>
@@ -8273,14 +9056,14 @@
       </c>
       <c r="L15" s="19">
         <f t="shared" si="2"/>
-        <v>0.11802629899144643</v>
+        <v>0.1180262989914464</v>
       </c>
       <c r="M15" s="7">
         <f t="shared" si="3"/>
         <v>656.2266389639999</v>
       </c>
     </row>
-    <row r="16" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>24</v>
       </c>
@@ -8295,23 +9078,23 @@
       </c>
       <c r="F16" s="9">
         <f>IFERROR(VLOOKUP(E16,benefs_by_dep!$A$1:$D$46,3,FALSE),-1)</f>
-        <v>7915.801401144</v>
+        <v>7915.8014011439982</v>
       </c>
       <c r="G16" s="7">
         <f>IFERROR(VLOOKUP(E16,benefs_by_dep!$A$1:$D$46,4,FALSE),"")</f>
-        <v>133999.96613889604</v>
+        <v>133999.9661388961</v>
       </c>
       <c r="H16" s="7">
         <f>IFERROR(VLOOKUP(E16,benefs_by_dep!$A$1:$C$46,2,FALSE),"")</f>
-        <v>9212.0382052919995</v>
+        <v>9208.7949105359985</v>
       </c>
       <c r="I16" s="19">
         <f t="shared" si="0"/>
-        <v>6.8746571142737259E-2</v>
+        <v>6.8722367444412111E-2</v>
       </c>
       <c r="J16" s="7">
         <f t="shared" si="4"/>
-        <v>1296.2368041479995</v>
+        <v>1292.9935093920003</v>
       </c>
       <c r="K16" s="7">
         <f>IFERROR(VLOOKUP(E16,benefs_by_dep!$A$1:$G$46,5,FALSE),"")</f>
@@ -8319,14 +9102,14 @@
       </c>
       <c r="L16" s="19">
         <f t="shared" si="2"/>
-        <v>6.8722367444412139E-2</v>
+        <v>6.8722367444412111E-2</v>
       </c>
       <c r="M16" s="7">
         <f t="shared" si="3"/>
-        <v>1292.9935093919985</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1292.9935093920003</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>25</v>
       </c>
@@ -8370,7 +9153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>26</v>
       </c>
@@ -8385,27 +9168,27 @@
       </c>
       <c r="F18" s="9">
         <f>IFERROR(VLOOKUP(E18,benefs_by_dep!$A$1:$D$46,3,FALSE),-1)</f>
-        <v>6459.5620556999984</v>
+        <v>6459.5620556999966</v>
       </c>
       <c r="G18" s="7">
         <f>IFERROR(VLOOKUP(E18,benefs_by_dep!$A$1:$D$46,4,FALSE),"")</f>
-        <v>32549.706171216003</v>
+        <v>32549.706171215999</v>
       </c>
       <c r="H18" s="7">
         <f>IFERROR(VLOOKUP(E18,benefs_by_dep!$A$1:$C$46,2,FALSE),"")</f>
-        <v>7419.5773034759977</v>
+        <v>7486.6053950999967</v>
       </c>
       <c r="I18" s="19">
         <f t="shared" si="0"/>
-        <v>0.22794606084761515</v>
+        <v>0.2300053142022053</v>
       </c>
       <c r="J18" s="7">
         <f t="shared" si="4"/>
-        <v>960.01524777599934</v>
+        <v>1027.0433394000001</v>
       </c>
       <c r="K18" s="7">
         <f>IFERROR(VLOOKUP(E18,benefs_by_dep!$A$1:$G$46,5,FALSE),"")</f>
-        <v>7486.6053950999985</v>
+        <v>7486.6053950999976</v>
       </c>
       <c r="L18" s="19">
         <f t="shared" si="2"/>
@@ -8413,10 +9196,10 @@
       </c>
       <c r="M18" s="7">
         <f t="shared" si="3"/>
-        <v>1027.0433394000001</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1027.0433394000011</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>27</v>
       </c>
@@ -8435,19 +9218,19 @@
       </c>
       <c r="G19" s="7">
         <f>IFERROR(VLOOKUP(E19,benefs_by_dep!$A$1:$D$46,4,FALSE),"")</f>
-        <v>46820.203097616031</v>
+        <v>46820.203097616002</v>
       </c>
       <c r="H19" s="7">
         <f>IFERROR(VLOOKUP(E19,benefs_by_dep!$A$1:$C$46,2,FALSE),"")</f>
-        <v>8819.5995398159994</v>
+        <v>9109.3338713520006</v>
       </c>
       <c r="I19" s="19">
         <f t="shared" si="0"/>
-        <v>0.18837166343400744</v>
+        <v>0.19455989655490902</v>
       </c>
       <c r="J19" s="7">
         <f t="shared" si="4"/>
-        <v>1081.0982519999998</v>
+        <v>1370.832583536001</v>
       </c>
       <c r="K19" s="7">
         <f>IFERROR(VLOOKUP(E19,benefs_by_dep!$A$1:$G$46,5,FALSE),"")</f>
@@ -8455,14 +9238,14 @@
       </c>
       <c r="L19" s="19">
         <f t="shared" si="2"/>
-        <v>0.18816384963517116</v>
+        <v>0.1881638496351713</v>
       </c>
       <c r="M19" s="7">
         <f t="shared" si="3"/>
         <v>1071.3683677319987</v>
       </c>
     </row>
-    <row r="20" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>28</v>
       </c>
@@ -8481,19 +9264,19 @@
       </c>
       <c r="G20" s="7">
         <f>IFERROR(VLOOKUP(E20,benefs_by_dep!$A$1:$D$46,4,FALSE),"")</f>
-        <v>37414.648305215975</v>
+        <v>37414.648305215967</v>
       </c>
       <c r="H20" s="7">
         <f>IFERROR(VLOOKUP(E20,benefs_by_dep!$A$1:$C$46,2,FALSE),"")</f>
-        <v>2562.20285724</v>
+        <v>2453.0119337880001</v>
       </c>
       <c r="I20" s="19">
         <f t="shared" si="0"/>
-        <v>6.8481276005547889E-2</v>
+        <v>6.5562875635691228E-2</v>
       </c>
       <c r="J20" s="7">
         <f t="shared" si="4"/>
-        <v>623.7936914039999</v>
+        <v>514.60276795200002</v>
       </c>
       <c r="K20" s="7">
         <f>IFERROR(VLOOKUP(E20,benefs_by_dep!$A$1:$G$46,5,FALSE),"")</f>
@@ -8501,14 +9284,14 @@
       </c>
       <c r="L20" s="19">
         <f t="shared" si="2"/>
-        <v>6.5562875635691215E-2</v>
+        <v>6.5562875635691228E-2</v>
       </c>
       <c r="M20" s="7">
         <f t="shared" si="3"/>
         <v>514.60276795200002</v>
       </c>
     </row>
-    <row r="21" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>29</v>
       </c>
@@ -8552,7 +9335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>30</v>
       </c>
@@ -8571,19 +9354,19 @@
       </c>
       <c r="G22" s="7">
         <f>IFERROR(VLOOKUP(E22,benefs_by_dep!$A$1:$D$46,4,FALSE),"")</f>
-        <v>15074.834025888009</v>
+        <v>15074.834025888</v>
       </c>
       <c r="H22" s="7">
         <f>IFERROR(VLOOKUP(E22,benefs_by_dep!$A$1:$C$46,2,FALSE),"")</f>
-        <v>1371.9136817879998</v>
+        <v>1371.9136817880001</v>
       </c>
       <c r="I22" s="19">
         <f t="shared" si="0"/>
-        <v>9.1006884681583411E-2</v>
+        <v>9.100688468158348E-2</v>
       </c>
       <c r="J22" s="7">
         <f t="shared" si="4"/>
-        <v>131.8939867439999</v>
+        <v>131.89398674400013</v>
       </c>
       <c r="K22" s="7">
         <f>IFERROR(VLOOKUP(E22,benefs_by_dep!$A$1:$G$46,5,FALSE),"")</f>
@@ -8591,14 +9374,14 @@
       </c>
       <c r="L22" s="19">
         <f t="shared" si="2"/>
-        <v>8.2257601835915031E-2</v>
+        <v>8.2257601835915087E-2</v>
       </c>
       <c r="M22" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>31</v>
       </c>
@@ -8613,38 +9396,38 @@
       </c>
       <c r="F23" s="9">
         <f>IFERROR(VLOOKUP(E23,benefs_by_dep!$A$1:$D$46,3,FALSE),-1)</f>
-        <v>25299.861293304017</v>
+        <v>25299.86129330402</v>
       </c>
       <c r="G23" s="7">
         <f>IFERROR(VLOOKUP(E23,benefs_by_dep!$A$1:$D$46,4,FALSE),"")</f>
-        <v>41760.66327825607</v>
+        <v>41760.663278256099</v>
       </c>
       <c r="H23" s="7">
         <f>IFERROR(VLOOKUP(E23,benefs_by_dep!$A$1:$C$46,2,FALSE),"")</f>
-        <v>29464.251760008028</v>
+        <v>29473.981644276031</v>
       </c>
       <c r="I23" s="19">
         <f t="shared" si="0"/>
-        <v>0.70555037796417053</v>
+        <v>0.70578336957647214</v>
       </c>
       <c r="J23" s="7">
         <f t="shared" si="4"/>
-        <v>4164.3904667040115</v>
+        <v>4174.1203509720108</v>
       </c>
       <c r="K23" s="7">
         <f>IFERROR(VLOOKUP(E23,benefs_by_dep!$A$1:$G$46,5,FALSE),"")</f>
-        <v>29473.981644276046</v>
+        <v>29473.981644276031</v>
       </c>
       <c r="L23" s="19">
         <f t="shared" si="2"/>
-        <v>0.70578336957647292</v>
+        <v>0.70578336957647214</v>
       </c>
       <c r="M23" s="7">
         <f t="shared" si="3"/>
-        <v>4174.120350972029</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+        <v>4174.1203509720108</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>32</v>
       </c>
@@ -8659,19 +9442,19 @@
       </c>
       <c r="F24" s="9">
         <f>IFERROR(VLOOKUP(E24,benefs_by_dep!$A$1:$D$46,3,FALSE),-1)</f>
-        <v>1318.9398674400002</v>
+        <v>1318.9398674399999</v>
       </c>
       <c r="G24" s="7">
         <f>IFERROR(VLOOKUP(E24,benefs_by_dep!$A$1:$D$46,4,FALSE),"")</f>
-        <v>10858.550843087995</v>
+        <v>10858.550843088011</v>
       </c>
       <c r="H24" s="7">
         <f>IFERROR(VLOOKUP(E24,benefs_by_dep!$A$1:$C$46,2,FALSE),"")</f>
-        <v>1633.5394587720002</v>
+        <v>1633.539458772</v>
       </c>
       <c r="I24" s="19">
         <f t="shared" si="0"/>
-        <v>0.15043807248108332</v>
+        <v>0.15043807248108307</v>
       </c>
       <c r="J24" s="7">
         <f t="shared" si="4"/>
@@ -8683,14 +9466,14 @@
       </c>
       <c r="L24" s="19">
         <f t="shared" si="2"/>
-        <v>0.15043807248108332</v>
+        <v>0.15043807248108307</v>
       </c>
       <c r="M24" s="7">
         <f t="shared" si="3"/>
-        <v>314.59959133199982</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+        <v>314.59959133200005</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
         <v>33</v>
       </c>
@@ -8705,7 +9488,7 @@
       </c>
       <c r="F25" s="9">
         <f>IFERROR(VLOOKUP(E25,benefs_by_dep!$A$1:$D$46,3,FALSE),-1)</f>
-        <v>6871.4604897120007</v>
+        <v>6871.4604897120016</v>
       </c>
       <c r="G25" s="7">
         <f>IFERROR(VLOOKUP(E25,benefs_by_dep!$A$1:$D$46,4,FALSE),"")</f>
@@ -8713,15 +9496,15 @@
       </c>
       <c r="H25" s="7">
         <f>IFERROR(VLOOKUP(E25,benefs_by_dep!$A$1:$C$46,2,FALSE),"")</f>
-        <v>8116.8856760160015</v>
+        <v>8000.1270648000018</v>
       </c>
       <c r="I25" s="19">
         <f t="shared" si="0"/>
-        <v>0.46277120315581866</v>
+        <v>0.45611439842209084</v>
       </c>
       <c r="J25" s="7">
         <f t="shared" si="4"/>
-        <v>1245.4251863040008</v>
+        <v>1128.6665750880002</v>
       </c>
       <c r="K25" s="7">
         <f>IFERROR(VLOOKUP(E25,benefs_by_dep!$A$1:$G$46,5,FALSE),"")</f>
@@ -8733,10 +9516,10 @@
       </c>
       <c r="M25" s="7">
         <f t="shared" si="3"/>
-        <v>1128.6665750880002</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1128.6665750879993</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
         <v>34</v>
       </c>
@@ -8780,7 +9563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
         <v>35</v>
       </c>
@@ -8795,38 +9578,38 @@
       </c>
       <c r="F27" s="9">
         <f>IFERROR(VLOOKUP(E27,benefs_by_dep!$A$1:$D$46,3,FALSE),-1)</f>
-        <v>15831.602802287993</v>
+        <v>15831.602802287989</v>
       </c>
       <c r="G27" s="7">
         <f>IFERROR(VLOOKUP(E27,benefs_by_dep!$A$1:$D$46,4,FALSE),"")</f>
-        <v>65229.144132671994</v>
+        <v>65229.144132672023</v>
       </c>
       <c r="H27" s="7">
         <f>IFERROR(VLOOKUP(E27,benefs_by_dep!$A$1:$C$46,2,FALSE),"")</f>
-        <v>18397.048954283997</v>
+        <v>18504.077681231989</v>
       </c>
       <c r="I27" s="19">
         <f t="shared" si="0"/>
-        <v>0.2820372580217449</v>
+        <v>0.28367806947759189</v>
       </c>
       <c r="J27" s="7">
         <f t="shared" si="4"/>
-        <v>2565.4461519960041</v>
+        <v>2672.474878944</v>
       </c>
       <c r="K27" s="7">
         <f>IFERROR(VLOOKUP(E27,benefs_by_dep!$A$1:$G$46,5,FALSE),"")</f>
-        <v>18333.264157415997</v>
+        <v>18333.26415741599</v>
       </c>
       <c r="L27" s="19">
         <f t="shared" si="2"/>
-        <v>0.28105940068947227</v>
+        <v>0.28105940068947205</v>
       </c>
       <c r="M27" s="7">
         <f t="shared" si="3"/>
-        <v>2501.6613551280043</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+        <v>2501.6613551280007</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
         <v>36</v>
       </c>
@@ -8841,38 +9624,38 @@
       </c>
       <c r="F28" s="9">
         <f>IFERROR(VLOOKUP(E28,benefs_by_dep!$A$1:$D$46,3,FALSE),-1)</f>
-        <v>13145.073646068</v>
+        <v>13145.073646068009</v>
       </c>
       <c r="G28" s="7">
         <f>IFERROR(VLOOKUP(E28,benefs_by_dep!$A$1:$D$46,4,FALSE),"")</f>
-        <v>38348.717194944031</v>
+        <v>38348.717194944024</v>
       </c>
       <c r="H28" s="7">
         <f>IFERROR(VLOOKUP(E28,benefs_by_dep!$A$1:$C$46,2,FALSE),"")</f>
-        <v>15644.572804692001</v>
+        <v>15506.19222843601</v>
       </c>
       <c r="I28" s="19">
         <f t="shared" si="0"/>
-        <v>0.40795557059088827</v>
+        <v>0.40434709066305818</v>
       </c>
       <c r="J28" s="7">
         <f t="shared" si="4"/>
-        <v>2499.4991586240012</v>
+        <v>2361.1185823680007</v>
       </c>
       <c r="K28" s="7">
         <f>IFERROR(VLOOKUP(E28,benefs_by_dep!$A$1:$G$46,5,FALSE),"")</f>
-        <v>15506.192228436003</v>
+        <v>15506.192228436001</v>
       </c>
       <c r="L28" s="19">
         <f t="shared" si="2"/>
-        <v>0.40434709066305791</v>
+        <v>0.40434709066305796</v>
       </c>
       <c r="M28" s="7">
         <f t="shared" si="3"/>
-        <v>2361.1185823680025</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+        <v>2361.1185823679916</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
         <v>37</v>
       </c>
@@ -8891,7 +9674,7 @@
       </c>
       <c r="G29" s="7">
         <f>IFERROR(VLOOKUP(E29,benefs_by_dep!$A$1:$D$46,4,FALSE),"")</f>
-        <v>14581.853222975997</v>
+        <v>14581.853222976</v>
       </c>
       <c r="H29" s="7">
         <f>IFERROR(VLOOKUP(E29,benefs_by_dep!$A$1:$C$46,2,FALSE),"")</f>
@@ -8899,7 +9682,7 @@
       </c>
       <c r="I29" s="19">
         <f t="shared" si="0"/>
-        <v>0.10883748517200477</v>
+        <v>0.10883748517200474</v>
       </c>
       <c r="J29" s="7">
         <f t="shared" si="4"/>
@@ -8911,14 +9694,14 @@
       </c>
       <c r="L29" s="19">
         <f t="shared" si="2"/>
-        <v>9.4899169632265731E-2</v>
+        <v>9.4899169632265717E-2</v>
       </c>
       <c r="M29" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
         <v>38</v>
       </c>
@@ -8962,7 +9745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
         <v>39</v>
       </c>
@@ -8981,34 +9764,34 @@
       </c>
       <c r="G31" s="7">
         <f>IFERROR(VLOOKUP(E31,benefs_by_dep!$A$1:$D$46,4,FALSE),"")</f>
-        <v>102643.79243788809</v>
+        <v>102643.792437888</v>
       </c>
       <c r="H31" s="7">
         <f>IFERROR(VLOOKUP(E31,benefs_by_dep!$A$1:$C$46,2,FALSE),"")</f>
-        <v>19506.255760836</v>
+        <v>19848.963906720001</v>
       </c>
       <c r="I31" s="19">
         <f t="shared" si="0"/>
-        <v>0.19003833838894491</v>
+        <v>0.19337714863498484</v>
       </c>
       <c r="J31" s="7">
         <f t="shared" si="4"/>
-        <v>2558.9595624840003</v>
+        <v>2901.6677083680006</v>
       </c>
       <c r="K31" s="7">
         <f>IFERROR(VLOOKUP(E31,benefs_by_dep!$A$1:$G$46,5,FALSE),"")</f>
-        <v>19848.96390671999</v>
+        <v>19848.963906720001</v>
       </c>
       <c r="L31" s="19">
         <f t="shared" si="2"/>
-        <v>0.19337714863498456</v>
+        <v>0.19337714863498484</v>
       </c>
       <c r="M31" s="7">
         <f t="shared" si="3"/>
-        <v>2901.6677083679897</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+        <v>2901.6677083680006</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
         <v>40</v>
       </c>
@@ -9027,19 +9810,19 @@
       </c>
       <c r="G32" s="7">
         <f>IFERROR(VLOOKUP(E32,benefs_by_dep!$A$1:$D$46,4,FALSE),"")</f>
-        <v>81827.245595627988</v>
+        <v>81827.245595627945</v>
       </c>
       <c r="H32" s="7">
         <f>IFERROR(VLOOKUP(E32,benefs_by_dep!$A$1:$C$46,2,FALSE),"")</f>
-        <v>11374.234709291999</v>
+        <v>11377.478004048</v>
       </c>
       <c r="I32" s="19">
         <f t="shared" si="0"/>
-        <v>0.13900302553871766</v>
+        <v>0.13904266141711485</v>
       </c>
       <c r="J32" s="7">
         <f t="shared" si="4"/>
-        <v>1661.6480133239984</v>
+        <v>1664.8913080799994</v>
       </c>
       <c r="K32" s="7">
         <f>IFERROR(VLOOKUP(E32,benefs_by_dep!$A$1:$G$46,5,FALSE),"")</f>
@@ -9047,14 +9830,14 @@
       </c>
       <c r="L32" s="19">
         <f t="shared" si="2"/>
-        <v>0.1390426614171148</v>
+        <v>0.13904266141711485</v>
       </c>
       <c r="M32" s="7">
         <f t="shared" si="3"/>
         <v>1664.8913080799994</v>
       </c>
     </row>
-    <row r="33" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
         <v>41</v>
       </c>
@@ -9069,7 +9852,7 @@
       </c>
       <c r="F33" s="9">
         <f>IFERROR(VLOOKUP(E33,benefs_by_dep!$A$1:$D$46,3,FALSE),-1)</f>
-        <v>15755.925924648003</v>
+        <v>15755.925924648</v>
       </c>
       <c r="G33" s="7">
         <f>IFERROR(VLOOKUP(E33,benefs_by_dep!$A$1:$D$46,4,FALSE),"")</f>
@@ -9077,30 +9860,30 @@
       </c>
       <c r="H33" s="7">
         <f>IFERROR(VLOOKUP(E33,benefs_by_dep!$A$1:$C$46,2,FALSE),"")</f>
-        <v>18376.508087496004</v>
+        <v>18450.022768631999</v>
       </c>
       <c r="I33" s="19">
         <f t="shared" si="0"/>
-        <v>0.33698108718924707</v>
+        <v>0.33832917013599773</v>
       </c>
       <c r="J33" s="7">
         <f t="shared" si="4"/>
-        <v>2620.5821628480007</v>
+        <v>2694.0968439839999</v>
       </c>
       <c r="K33" s="7">
         <f>IFERROR(VLOOKUP(E33,benefs_by_dep!$A$1:$G$46,5,FALSE),"")</f>
-        <v>18450.022768631996</v>
+        <v>18450.022768631999</v>
       </c>
       <c r="L33" s="19">
         <f t="shared" si="2"/>
-        <v>0.33832917013599767</v>
+        <v>0.33832917013599773</v>
       </c>
       <c r="M33" s="7">
         <f t="shared" si="3"/>
-        <v>2694.0968439839926</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+        <v>2694.0968439839999</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
         <v>42</v>
       </c>
@@ -9144,7 +9927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
         <v>43</v>
       </c>
@@ -9159,23 +9942,23 @@
       </c>
       <c r="F35" s="9">
         <f>IFERROR(VLOOKUP(E35,benefs_by_dep!$A$1:$D$46,3,FALSE),-1)</f>
-        <v>1831.3804388879998</v>
+        <v>1831.3804388880001</v>
       </c>
       <c r="G35" s="7">
         <f>IFERROR(VLOOKUP(E35,benefs_by_dep!$A$1:$D$46,4,FALSE),"")</f>
-        <v>28995.055118639993</v>
+        <v>28995.055118640012</v>
       </c>
       <c r="H35" s="7">
         <f>IFERROR(VLOOKUP(E35,benefs_by_dep!$A$1:$C$46,2,FALSE),"")</f>
-        <v>2156.79101274</v>
+        <v>2300.577080256</v>
       </c>
       <c r="I35" s="19">
         <f t="shared" si="0"/>
-        <v>7.4384787472035807E-2</v>
+        <v>7.9343773303504811E-2</v>
       </c>
       <c r="J35" s="7">
         <f t="shared" si="4"/>
-        <v>325.4105738520002</v>
+        <v>469.19664136799997</v>
       </c>
       <c r="K35" s="7">
         <f>IFERROR(VLOOKUP(E35,benefs_by_dep!$A$1:$G$46,5,FALSE),"")</f>
@@ -9183,14 +9966,14 @@
       </c>
       <c r="L35" s="19">
         <f t="shared" si="2"/>
-        <v>7.5354213273676376E-2</v>
+        <v>7.5354213273676335E-2</v>
       </c>
       <c r="M35" s="7">
         <f t="shared" si="3"/>
-        <v>353.51912840400018</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+        <v>353.51912840399996</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
         <v>44</v>
       </c>
@@ -9205,7 +9988,7 @@
       </c>
       <c r="F36" s="9">
         <f>IFERROR(VLOOKUP(E36,benefs_by_dep!$A$1:$D$46,3,FALSE),-1)</f>
-        <v>4070.334918779999</v>
+        <v>4070.33491878</v>
       </c>
       <c r="G36" s="7">
         <f>IFERROR(VLOOKUP(E36,benefs_by_dep!$A$1:$D$46,4,FALSE),"")</f>
@@ -9213,30 +9996,30 @@
       </c>
       <c r="H36" s="7">
         <f>IFERROR(VLOOKUP(E36,benefs_by_dep!$A$1:$C$46,2,FALSE),"")</f>
-        <v>4461.6924860039999</v>
+        <v>4775.2109790840004</v>
       </c>
       <c r="I36" s="19">
         <f t="shared" si="0"/>
-        <v>0.11929124754306854</v>
+        <v>0.12767371950514508</v>
       </c>
       <c r="J36" s="7">
         <f t="shared" si="4"/>
-        <v>391.35756722400083</v>
+        <v>704.87606030400048</v>
       </c>
       <c r="K36" s="7">
         <f>IFERROR(VLOOKUP(E36,benefs_by_dep!$A$1:$G$46,5,FALSE),"")</f>
-        <v>4648.7224835999987</v>
+        <v>4648.7224835999996</v>
       </c>
       <c r="L36" s="19">
         <f t="shared" si="2"/>
-        <v>0.12429182564458313</v>
+        <v>0.12429182564458316</v>
       </c>
       <c r="M36" s="7">
         <f t="shared" si="3"/>
         <v>578.38756481999962</v>
       </c>
     </row>
-    <row r="37" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
         <v>45</v>
       </c>
@@ -9251,38 +10034,38 @@
       </c>
       <c r="F37" s="9">
         <f>IFERROR(VLOOKUP(E37,benefs_by_dep!$A$1:$D$46,3,FALSE),-1)</f>
-        <v>3863.8451526479998</v>
+        <v>3863.8451526479989</v>
       </c>
       <c r="G37" s="7">
         <f>IFERROR(VLOOKUP(E37,benefs_by_dep!$A$1:$D$46,4,FALSE),"")</f>
-        <v>42759.598063104037</v>
+        <v>42759.598063104073</v>
       </c>
       <c r="H37" s="7">
         <f>IFERROR(VLOOKUP(E37,benefs_by_dep!$A$1:$C$46,2,FALSE),"")</f>
-        <v>4550.3425426679996</v>
+        <v>4610.8840447799994</v>
       </c>
       <c r="I37" s="19">
         <f t="shared" ref="I37:I62" si="5">IFERROR(H37/G37,"")</f>
-        <v>0.10641686893203874</v>
+        <v>0.10783272653721664</v>
       </c>
       <c r="J37" s="7">
         <f t="shared" si="4"/>
-        <v>686.49739001999978</v>
+        <v>747.03889213200046</v>
       </c>
       <c r="K37" s="7">
         <f>IFERROR(VLOOKUP(E37,benefs_by_dep!$A$1:$G$46,5,FALSE),"")</f>
-        <v>4496.287630068</v>
+        <v>4496.2876300679991</v>
       </c>
       <c r="L37" s="19">
         <f t="shared" si="2"/>
-        <v>0.10515271035598696</v>
+        <v>0.10515271035598685</v>
       </c>
       <c r="M37" s="7">
         <f t="shared" si="3"/>
         <v>632.44247742000016</v>
       </c>
     </row>
-    <row r="38" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
         <v>46</v>
       </c>
@@ -9326,7 +10109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
         <v>47</v>
       </c>
@@ -9341,38 +10124,38 @@
       </c>
       <c r="F39" s="9">
         <f>IFERROR(VLOOKUP(E39,benefs_by_dep!$A$1:$D$46,3,FALSE),-1)</f>
-        <v>9855.291665232</v>
+        <v>9855.2916652319982</v>
       </c>
       <c r="G39" s="7">
         <f>IFERROR(VLOOKUP(E39,benefs_by_dep!$A$1:$D$46,4,FALSE),"")</f>
-        <v>53298.143823600025</v>
+        <v>53298.143823600047</v>
       </c>
       <c r="H39" s="7">
         <f>IFERROR(VLOOKUP(E39,benefs_by_dep!$A$1:$C$46,2,FALSE),"")</f>
-        <v>11382.883495307999</v>
+        <v>11382.883495308</v>
       </c>
       <c r="I39" s="19">
         <f t="shared" si="5"/>
-        <v>0.21356997971602421</v>
+        <v>0.21356997971602415</v>
       </c>
       <c r="J39" s="7">
         <f t="shared" si="4"/>
-        <v>1527.5918300759986</v>
+        <v>1527.5918300760022</v>
       </c>
       <c r="K39" s="7">
         <f>IFERROR(VLOOKUP(E39,benefs_by_dep!$A$1:$G$46,5,FALSE),"")</f>
-        <v>11296.395635147997</v>
+        <v>11296.395635147999</v>
       </c>
       <c r="L39" s="19">
         <f t="shared" si="2"/>
-        <v>0.21194726166328587</v>
+        <v>0.21194726166328581</v>
       </c>
       <c r="M39" s="7">
         <f t="shared" si="3"/>
-        <v>1441.1039699159974</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1441.103969916001</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
         <v>48</v>
       </c>
@@ -9391,34 +10174,34 @@
       </c>
       <c r="G40" s="7">
         <f>IFERROR(VLOOKUP(E40,benefs_by_dep!$A$1:$D$46,4,FALSE),"")</f>
-        <v>30603.729317615976</v>
+        <v>30603.72931761598</v>
       </c>
       <c r="H40" s="7">
         <f>IFERROR(VLOOKUP(E40,benefs_by_dep!$A$1:$C$46,2,FALSE),"")</f>
-        <v>14484.554380296</v>
+        <v>14476.986692531989</v>
       </c>
       <c r="I40" s="19">
         <f t="shared" si="5"/>
-        <v>0.47329376854599442</v>
+        <v>0.47304648862512361</v>
       </c>
       <c r="J40" s="7">
         <f t="shared" si="4"/>
-        <v>2328.685634808</v>
+        <v>2321.1179470439893</v>
       </c>
       <c r="K40" s="7">
         <f>IFERROR(VLOOKUP(E40,benefs_by_dep!$A$1:$G$46,5,FALSE),"")</f>
-        <v>14476.986692531995</v>
+        <v>14476.986692531989</v>
       </c>
       <c r="L40" s="19">
         <f t="shared" si="2"/>
-        <v>0.47304648862512383</v>
+        <v>0.47304648862512361</v>
       </c>
       <c r="M40" s="7">
         <f t="shared" si="3"/>
-        <v>2321.1179470439947</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+        <v>2321.1179470439893</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B41" s="3" t="s">
         <v>49</v>
       </c>
@@ -9433,38 +10216,38 @@
       </c>
       <c r="F41" s="9">
         <f>IFERROR(VLOOKUP(E41,benefs_by_dep!$A$1:$D$46,3,FALSE),-1)</f>
-        <v>1210.8300422399998</v>
+        <v>1210.83004224</v>
       </c>
       <c r="G41" s="7">
         <f>IFERROR(VLOOKUP(E41,benefs_by_dep!$A$1:$D$46,4,FALSE),"")</f>
-        <v>14218.604210303998</v>
+        <v>14218.604210304</v>
       </c>
       <c r="H41" s="7">
         <f>IFERROR(VLOOKUP(E41,benefs_by_dep!$A$1:$C$46,2,FALSE),"")</f>
-        <v>1792.4609018159999</v>
+        <v>1796.7852948239999</v>
       </c>
       <c r="I41" s="19">
         <f t="shared" si="5"/>
-        <v>0.12606447688564479</v>
+        <v>0.12636861313868614</v>
       </c>
       <c r="J41" s="7">
         <f t="shared" si="4"/>
-        <v>581.63085957600015</v>
+        <v>585.95525258399994</v>
       </c>
       <c r="K41" s="7">
         <f>IFERROR(VLOOKUP(E41,benefs_by_dep!$A$1:$G$46,5,FALSE),"")</f>
-        <v>1596.7821182039997</v>
+        <v>1596.782118204</v>
       </c>
       <c r="L41" s="19">
         <f t="shared" si="2"/>
-        <v>0.11230231143552311</v>
+        <v>0.11230231143552312</v>
       </c>
       <c r="M41" s="7">
         <f t="shared" si="3"/>
         <v>385.95207596399996</v>
       </c>
     </row>
-    <row r="42" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
         <v>50</v>
       </c>
@@ -9508,7 +10291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
         <v>51</v>
       </c>
@@ -9527,34 +10310,34 @@
       </c>
       <c r="G43" s="7">
         <f>IFERROR(VLOOKUP(E43,benefs_by_dep!$A$1:$D$46,4,FALSE),"")</f>
-        <v>38257.904941776003</v>
+        <v>38257.904941775989</v>
       </c>
       <c r="H43" s="7">
         <f>IFERROR(VLOOKUP(E43,benefs_by_dep!$A$1:$C$46,2,FALSE),"")</f>
-        <v>12119.11140492</v>
+        <v>12313.709090279999</v>
       </c>
       <c r="I43" s="19">
         <f t="shared" si="5"/>
-        <v>0.31677404769978523</v>
+        <v>0.32186051768961238</v>
       </c>
       <c r="J43" s="7">
         <f t="shared" si="4"/>
-        <v>1658.404718568001</v>
+        <v>1853.0024039279997</v>
       </c>
       <c r="K43" s="7">
         <f>IFERROR(VLOOKUP(E43,benefs_by_dep!$A$1:$G$46,5,FALSE),"")</f>
-        <v>12313.709090280003</v>
+        <v>12313.709090279999</v>
       </c>
       <c r="L43" s="19">
         <f t="shared" si="2"/>
-        <v>0.32186051768961232</v>
+        <v>0.32186051768961238</v>
       </c>
       <c r="M43" s="7">
         <f t="shared" si="3"/>
-        <v>1853.0024039280033</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1853.0024039279997</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
         <v>52</v>
       </c>
@@ -9569,7 +10352,7 @@
       </c>
       <c r="F44" s="9">
         <f>IFERROR(VLOOKUP(E44,benefs_by_dep!$A$1:$D$46,3,FALSE),-1)</f>
-        <v>18215.424447948004</v>
+        <v>18215.424447948</v>
       </c>
       <c r="G44" s="7">
         <f>IFERROR(VLOOKUP(E44,benefs_by_dep!$A$1:$D$46,4,FALSE),"")</f>
@@ -9577,30 +10360,30 @@
       </c>
       <c r="H44" s="7">
         <f>IFERROR(VLOOKUP(E44,benefs_by_dep!$A$1:$C$46,2,FALSE),"")</f>
-        <v>21175.471461924004</v>
+        <v>21267.364813344011</v>
       </c>
       <c r="I44" s="19">
         <f t="shared" si="5"/>
-        <v>0.59139492753623235</v>
+        <v>0.59396135265700556</v>
       </c>
       <c r="J44" s="7">
         <f t="shared" si="4"/>
-        <v>2960.047013976</v>
+        <v>3051.9403653960107</v>
       </c>
       <c r="K44" s="7">
         <f>IFERROR(VLOOKUP(E44,benefs_by_dep!$A$1:$G$46,5,FALSE),"")</f>
-        <v>21267.364813344011</v>
+        <v>21267.364813344</v>
       </c>
       <c r="L44" s="19">
         <f t="shared" si="2"/>
-        <v>0.59396135265700556</v>
+        <v>0.59396135265700523</v>
       </c>
       <c r="M44" s="7">
         <f t="shared" si="3"/>
-        <v>3051.9403653960071</v>
-      </c>
-    </row>
-    <row r="45" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+        <v>3051.9403653959998</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B45" s="3" t="s">
         <v>53</v>
       </c>
@@ -9615,23 +10398,23 @@
       </c>
       <c r="F45" s="9">
         <f>IFERROR(VLOOKUP(E45,benefs_by_dep!$A$1:$D$46,3,FALSE),-1)</f>
-        <v>7574.1743535119995</v>
+        <v>7574.1743535119986</v>
       </c>
       <c r="G45" s="7">
         <f>IFERROR(VLOOKUP(E45,benefs_by_dep!$A$1:$D$46,4,FALSE),"")</f>
-        <v>13401.293931791997</v>
+        <v>13401.293931792001</v>
       </c>
       <c r="H45" s="7">
         <f>IFERROR(VLOOKUP(E45,benefs_by_dep!$A$1:$C$46,2,FALSE),"")</f>
-        <v>8748.2470551839979</v>
+        <v>8690.9488478279982</v>
       </c>
       <c r="I45" s="19">
         <f t="shared" si="5"/>
-        <v>0.65279122297515324</v>
+        <v>0.64851565020974489</v>
       </c>
       <c r="J45" s="7">
         <f t="shared" si="4"/>
-        <v>1174.0727016719984</v>
+        <v>1116.7744943159996</v>
       </c>
       <c r="K45" s="7">
         <f>IFERROR(VLOOKUP(E45,benefs_by_dep!$A$1:$G$46,5,FALSE),"")</f>
@@ -9639,14 +10422,14 @@
       </c>
       <c r="L45" s="19">
         <f t="shared" si="2"/>
-        <v>0.64851565020974511</v>
+        <v>0.64851565020974489</v>
       </c>
       <c r="M45" s="7">
         <f t="shared" si="3"/>
-        <v>1116.7744943159987</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1116.7744943159996</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
         <v>54</v>
       </c>
@@ -9690,7 +10473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B47" s="3" t="s">
         <v>55</v>
       </c>
@@ -9705,23 +10488,23 @@
       </c>
       <c r="F47" s="9">
         <f>IFERROR(VLOOKUP(E47,benefs_by_dep!$A$1:$D$46,3,FALSE),-1)</f>
-        <v>3767.6274082200002</v>
+        <v>3767.6274082199998</v>
       </c>
       <c r="G47" s="7">
         <f>IFERROR(VLOOKUP(E47,benefs_by_dep!$A$1:$D$46,4,FALSE),"")</f>
-        <v>42902.303032367956</v>
+        <v>42902.303032367978</v>
       </c>
       <c r="H47" s="7">
         <f>IFERROR(VLOOKUP(E47,benefs_by_dep!$A$1:$C$46,2,FALSE),"")</f>
-        <v>4860.6177409920001</v>
+        <v>4677.9121364039993</v>
       </c>
       <c r="I47" s="19">
         <f t="shared" si="5"/>
-        <v>0.11329503074286879</v>
+        <v>0.10903638746094148</v>
       </c>
       <c r="J47" s="7">
         <f t="shared" si="4"/>
-        <v>1092.9903327719999</v>
+        <v>910.2847281839995</v>
       </c>
       <c r="K47" s="7">
         <f>IFERROR(VLOOKUP(E47,benefs_by_dep!$A$1:$G$46,5,FALSE),"")</f>
@@ -9729,14 +10512,14 @@
       </c>
       <c r="L47" s="19">
         <f t="shared" si="2"/>
-        <v>0.10903638746094155</v>
+        <v>0.10903638746094149</v>
       </c>
       <c r="M47" s="7">
         <f t="shared" si="3"/>
-        <v>910.28472818399996</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+        <v>910.28472818400041</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B48" s="3" t="s">
         <v>56</v>
       </c>
@@ -9751,38 +10534,38 @@
       </c>
       <c r="F48" s="9">
         <f>IFERROR(VLOOKUP(E48,benefs_by_dep!$A$1:$D$46,3,FALSE),-1)</f>
-        <v>2363.2807788719997</v>
+        <v>2363.2807788720002</v>
       </c>
       <c r="G48" s="7">
         <f>IFERROR(VLOOKUP(E48,benefs_by_dep!$A$1:$D$46,4,FALSE),"")</f>
-        <v>25103.101411440013</v>
+        <v>25103.10141144002</v>
       </c>
       <c r="H48" s="7">
         <f>IFERROR(VLOOKUP(E48,benefs_by_dep!$A$1:$C$46,2,FALSE),"")</f>
-        <v>2809.7743569479999</v>
+        <v>2903.829904872</v>
       </c>
       <c r="I48" s="19">
         <f t="shared" si="5"/>
-        <v>0.11192937123169674</v>
+        <v>0.11567614125753652</v>
       </c>
       <c r="J48" s="7">
         <f t="shared" si="4"/>
-        <v>446.49357807600018</v>
+        <v>540.54912599999989</v>
       </c>
       <c r="K48" s="7">
         <f>IFERROR(VLOOKUP(E48,benefs_by_dep!$A$1:$G$46,5,FALSE),"")</f>
-        <v>2903.8299048719996</v>
+        <v>2903.829904872</v>
       </c>
       <c r="L48" s="19">
         <f t="shared" si="2"/>
-        <v>0.11567614125753653</v>
+        <v>0.11567614125753652</v>
       </c>
       <c r="M48" s="7">
         <f t="shared" si="3"/>
         <v>540.54912599999989</v>
       </c>
     </row>
-    <row r="49" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B49" s="3" t="s">
         <v>57</v>
       </c>
@@ -9828,7 +10611,7 @@
         <v>245.409303204</v>
       </c>
     </row>
-    <row r="50" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
         <v>58</v>
       </c>
@@ -9872,7 +10655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B51" s="3" t="s">
         <v>59</v>
       </c>
@@ -9887,23 +10670,23 @@
       </c>
       <c r="F51" s="9">
         <f>IFERROR(VLOOKUP(E51,benefs_by_dep!$A$1:$D$46,3,FALSE),-1)</f>
-        <v>4683.3176276639988</v>
+        <v>4683.3176276640006</v>
       </c>
       <c r="G51" s="7">
         <f>IFERROR(VLOOKUP(E51,benefs_by_dep!$A$1:$D$46,4,FALSE),"")</f>
-        <v>29254.518699120032</v>
+        <v>29254.51869912005</v>
       </c>
       <c r="H51" s="7">
         <f>IFERROR(VLOOKUP(E51,benefs_by_dep!$A$1:$C$46,2,FALSE),"")</f>
-        <v>5506.0333974359983</v>
+        <v>5399.0046704880006</v>
       </c>
       <c r="I51" s="19">
         <f t="shared" si="5"/>
-        <v>0.18821138211382088</v>
+        <v>0.184552845528455</v>
       </c>
       <c r="J51" s="7">
         <f t="shared" si="4"/>
-        <v>822.71576977199948</v>
+        <v>715.68704282399995</v>
       </c>
       <c r="K51" s="7">
         <f>IFERROR(VLOOKUP(E51,benefs_by_dep!$A$1:$G$46,5,FALSE),"")</f>
@@ -9911,14 +10694,14 @@
       </c>
       <c r="L51" s="19">
         <f t="shared" si="2"/>
-        <v>0.18455284552845511</v>
+        <v>0.184552845528455</v>
       </c>
       <c r="M51" s="7">
         <f t="shared" si="3"/>
-        <v>715.68704282400176</v>
-      </c>
-    </row>
-    <row r="52" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+        <v>715.68704282399995</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="s">
         <v>60</v>
       </c>
@@ -9933,38 +10716,38 @@
       </c>
       <c r="F52" s="9">
         <f>IFERROR(VLOOKUP(E52,benefs_by_dep!$A$1:$D$46,3,FALSE),-1)</f>
-        <v>1139.4775576079999</v>
+        <v>1139.4775576080001</v>
       </c>
       <c r="G52" s="7">
         <f>IFERROR(VLOOKUP(E52,benefs_by_dep!$A$1:$D$46,4,FALSE),"")</f>
-        <v>12019.650365735995</v>
+        <v>12019.65036573599</v>
       </c>
       <c r="H52" s="7">
         <f>IFERROR(VLOOKUP(E52,benefs_by_dep!$A$1:$C$46,2,FALSE),"")</f>
-        <v>1374.075878292</v>
+        <v>1361.1026992679999</v>
       </c>
       <c r="I52" s="19">
         <f t="shared" si="5"/>
-        <v>0.11431912214427059</v>
+        <v>0.11323979132937588</v>
       </c>
       <c r="J52" s="7">
         <f t="shared" si="4"/>
-        <v>234.5983206840001</v>
+        <v>221.62514165999983</v>
       </c>
       <c r="K52" s="7">
         <f>IFERROR(VLOOKUP(E52,benefs_by_dep!$A$1:$G$46,5,FALSE),"")</f>
-        <v>1361.1026992680002</v>
+        <v>1361.1026992679999</v>
       </c>
       <c r="L52" s="19">
         <f t="shared" si="2"/>
-        <v>0.11323979132937584</v>
+        <v>0.11323979132937588</v>
       </c>
       <c r="M52" s="7">
         <f t="shared" si="3"/>
-        <v>221.62514166000028</v>
-      </c>
-    </row>
-    <row r="53" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+        <v>221.62514165999983</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B53" s="3" t="s">
         <v>61</v>
       </c>
@@ -9979,38 +10762,38 @@
       </c>
       <c r="F53" s="9">
         <f>IFERROR(VLOOKUP(E53,benefs_by_dep!$A$1:$D$46,3,FALSE),-1)</f>
-        <v>6192.5307874560003</v>
+        <v>6192.5307874560021</v>
       </c>
       <c r="G53" s="7">
         <f>IFERROR(VLOOKUP(E53,benefs_by_dep!$A$1:$D$46,4,FALSE),"")</f>
-        <v>20679.247364256003</v>
+        <v>20679.247364255989</v>
       </c>
       <c r="H53" s="7">
         <f>IFERROR(VLOOKUP(E53,benefs_by_dep!$A$1:$C$46,2,FALSE),"")</f>
-        <v>7476.8755108320011</v>
+        <v>7483.362100344003</v>
       </c>
       <c r="I53" s="19">
         <f t="shared" si="5"/>
-        <v>0.36156419907988291</v>
+        <v>0.361877875365956</v>
       </c>
       <c r="J53" s="7">
         <f t="shared" si="4"/>
-        <v>1284.3447233760007</v>
+        <v>1290.8313128880009</v>
       </c>
       <c r="K53" s="7">
         <f>IFERROR(VLOOKUP(E53,benefs_by_dep!$A$1:$G$46,5,FALSE),"")</f>
-        <v>7483.3621003440003</v>
+        <v>7483.3621003440021</v>
       </c>
       <c r="L53" s="19">
         <f t="shared" si="2"/>
-        <v>0.36187787536595561</v>
+        <v>0.36187787536595595</v>
       </c>
       <c r="M53" s="7">
         <f t="shared" si="3"/>
         <v>1290.831312888</v>
       </c>
     </row>
-    <row r="54" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B54" s="3" t="s">
         <v>62</v>
       </c>
@@ -10025,23 +10808,23 @@
       </c>
       <c r="F54" s="9">
         <f>IFERROR(VLOOKUP(E54,benefs_by_dep!$A$1:$D$46,3,FALSE),-1)</f>
-        <v>3630.3279302159995</v>
+        <v>3630.327930215999</v>
       </c>
       <c r="G54" s="7">
         <f>IFERROR(VLOOKUP(E54,benefs_by_dep!$A$1:$D$46,4,FALSE),"")</f>
-        <v>8523.3786187679998</v>
+        <v>8523.3786187680016</v>
       </c>
       <c r="H54" s="7">
         <f>IFERROR(VLOOKUP(E54,benefs_by_dep!$A$1:$C$46,2,FALSE),"")</f>
-        <v>4202.2289055239999</v>
+        <v>4392.5021978759996</v>
       </c>
       <c r="I54" s="19">
         <f t="shared" si="5"/>
-        <v>0.49302384576357178</v>
+        <v>0.51534753932014188</v>
       </c>
       <c r="J54" s="7">
         <f t="shared" si="4"/>
-        <v>571.9009753080004</v>
+        <v>762.17426766000062</v>
       </c>
       <c r="K54" s="7">
         <f>IFERROR(VLOOKUP(E54,benefs_by_dep!$A$1:$G$46,5,FALSE),"")</f>
@@ -10049,14 +10832,14 @@
       </c>
       <c r="L54" s="19">
         <f t="shared" si="2"/>
-        <v>0.49885844748858443</v>
+        <v>0.49885844748858432</v>
       </c>
       <c r="M54" s="7">
         <f t="shared" si="3"/>
-        <v>621.63149490000023</v>
-      </c>
-    </row>
-    <row r="55" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+        <v>621.63149490000069</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
         <v>63</v>
       </c>
@@ -10100,7 +10883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B56" s="3" t="s">
         <v>64</v>
       </c>
@@ -10115,23 +10898,23 @@
       </c>
       <c r="F56" s="9">
         <f>IFERROR(VLOOKUP(E56,benefs_by_dep!$A$1:$D$46,3,FALSE),-1)</f>
-        <v>2953.5604244640003</v>
+        <v>2953.5604244639999</v>
       </c>
       <c r="G56" s="7">
         <f>IFERROR(VLOOKUP(E56,benefs_by_dep!$A$1:$D$46,4,FALSE),"")</f>
-        <v>15775.385693183975</v>
+        <v>15775.385693183969</v>
       </c>
       <c r="H56" s="7">
         <f>IFERROR(VLOOKUP(E56,benefs_by_dep!$A$1:$C$46,2,FALSE),"")</f>
-        <v>3469.2442906680012</v>
+        <v>3472.4875854240022</v>
       </c>
       <c r="I56" s="19">
         <f t="shared" si="5"/>
-        <v>0.21991502192982498</v>
+        <v>0.22012061403508829</v>
       </c>
       <c r="J56" s="7">
         <f t="shared" si="4"/>
-        <v>515.68386620400088</v>
+        <v>518.92716096000231</v>
       </c>
       <c r="K56" s="7">
         <f>IFERROR(VLOOKUP(E56,benefs_by_dep!$A$1:$G$46,5,FALSE),"")</f>
@@ -10139,14 +10922,14 @@
       </c>
       <c r="L56" s="19">
         <f t="shared" si="2"/>
-        <v>0.22012061403508812</v>
+        <v>0.2201206140350882</v>
       </c>
       <c r="M56" s="7">
         <f t="shared" si="3"/>
-        <v>518.92716096000049</v>
-      </c>
-    </row>
-    <row r="57" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+        <v>518.92716096000095</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B57" s="3" t="s">
         <v>65</v>
       </c>
@@ -10161,15 +10944,15 @@
       </c>
       <c r="F57" s="25">
         <f>IFERROR(VLOOKUP(E57,benefs_by_dep!$A$1:$D$46,3,FALSE),-1)</f>
-        <v>2646.5285208959995</v>
+        <v>2646.5285208959999</v>
       </c>
       <c r="G57" s="7">
         <f>IFERROR(VLOOKUP(E57,benefs_by_dep!$A$1:$D$46,4,FALSE),"")</f>
-        <v>2646.5285208959995</v>
+        <v>2646.5285208959999</v>
       </c>
       <c r="H57" s="7">
         <f>IFERROR(VLOOKUP(E57,benefs_by_dep!$A$1:$C$46,2,FALSE),"")</f>
-        <v>2646.5285208959995</v>
+        <v>2646.5285208959999</v>
       </c>
       <c r="I57" s="19">
         <f t="shared" si="5"/>
@@ -10181,7 +10964,7 @@
       </c>
       <c r="K57" s="7">
         <f>IFERROR(VLOOKUP(E57,benefs_by_dep!$A$1:$G$46,5,FALSE),"")</f>
-        <v>2646.5285208959986</v>
+        <v>2646.528520895999</v>
       </c>
       <c r="L57" s="19">
         <f t="shared" si="2"/>
@@ -10192,7 +10975,7 @@
         <v>-9.0949470177292824E-13</v>
       </c>
     </row>
-    <row r="58" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B58" s="3" t="s">
         <v>66</v>
       </c>
@@ -10207,38 +10990,38 @@
       </c>
       <c r="F58" s="9">
         <f>IFERROR(VLOOKUP(E58,benefs_by_dep!$A$1:$D$46,3,FALSE),-1)</f>
-        <v>3037.8860881199989</v>
+        <v>3037.886088119998</v>
       </c>
       <c r="G58" s="7">
         <f>IFERROR(VLOOKUP(E58,benefs_by_dep!$A$1:$D$46,4,FALSE),"")</f>
-        <v>4761.1567018079977</v>
+        <v>4761.1567018079986</v>
       </c>
       <c r="H58" s="7">
         <f>IFERROR(VLOOKUP(E58,benefs_by_dep!$A$1:$C$46,2,FALSE),"")</f>
-        <v>3596.8138844039977</v>
+        <v>3614.1114564359982</v>
       </c>
       <c r="I58" s="19">
         <f t="shared" si="5"/>
-        <v>0.75544959128065381</v>
+        <v>0.75908265213442305</v>
       </c>
       <c r="J58" s="7">
         <f t="shared" si="4"/>
-        <v>558.92779628399876</v>
+        <v>576.22536831600019</v>
       </c>
       <c r="K58" s="7">
         <f>IFERROR(VLOOKUP(E58,benefs_by_dep!$A$1:$G$46,5,FALSE),"")</f>
-        <v>3614.1114564359978</v>
+        <v>3614.1114564359991</v>
       </c>
       <c r="L58" s="19">
         <f t="shared" si="2"/>
-        <v>0.75908265213442316</v>
+        <v>0.75908265213442327</v>
       </c>
       <c r="M58" s="7">
         <f t="shared" si="3"/>
-        <v>576.22536831599882</v>
-      </c>
-    </row>
-    <row r="59" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+        <v>576.2253683160011</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
         <v>67</v>
       </c>
@@ -10282,7 +11065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B60" s="3" t="s">
         <v>68</v>
       </c>
@@ -10305,30 +11088,30 @@
       </c>
       <c r="H60" s="7">
         <f>IFERROR(VLOOKUP(E60,benefs_by_dep!$A$1:$C$46,2,FALSE),"")</f>
-        <v>14305.092070463999</v>
+        <v>14326.714035503999</v>
       </c>
       <c r="I60" s="19">
         <f t="shared" si="5"/>
-        <v>0.88283960501734715</v>
+        <v>0.88417400587136374</v>
       </c>
       <c r="J60" s="7">
         <f t="shared" si="4"/>
-        <v>2069.222054328</v>
+        <v>2090.8440193679999</v>
       </c>
       <c r="K60" s="7">
         <f>IFERROR(VLOOKUP(E60,benefs_by_dep!$A$1:$G$46,5,FALSE),"")</f>
-        <v>14326.71403550399</v>
+        <v>14326.714035503999</v>
       </c>
       <c r="L60" s="19">
         <f t="shared" si="2"/>
-        <v>0.88417400587136319</v>
+        <v>0.88417400587136374</v>
       </c>
       <c r="M60" s="7">
         <f t="shared" si="3"/>
-        <v>2090.8440193679908</v>
-      </c>
-    </row>
-    <row r="61" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+        <v>2090.8440193679999</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B61" s="3" t="s">
         <v>69</v>
       </c>
@@ -10347,19 +11130,19 @@
       </c>
       <c r="G61" s="7">
         <f>IFERROR(VLOOKUP(E61,benefs_by_dep!$A$1:$D$46,4,FALSE),"")</f>
-        <v>19330.036745759997</v>
+        <v>19330.036745760011</v>
       </c>
       <c r="H61" s="7">
         <f>IFERROR(VLOOKUP(E61,benefs_by_dep!$A$1:$C$46,2,FALSE),"")</f>
-        <v>1224.884319516</v>
+        <v>1204.3434527280001</v>
       </c>
       <c r="I61" s="19">
         <f t="shared" si="5"/>
-        <v>6.3366890380313207E-2</v>
+        <v>6.2304250559284083E-2</v>
       </c>
       <c r="J61" s="7">
         <f t="shared" si="4"/>
-        <v>195.67878361199996</v>
+        <v>175.13791682400006</v>
       </c>
       <c r="K61" s="7">
         <f>IFERROR(VLOOKUP(E61,benefs_by_dep!$A$1:$G$46,5,FALSE),"")</f>
@@ -10367,14 +11150,14 @@
       </c>
       <c r="L61" s="19">
         <f t="shared" si="2"/>
-        <v>6.2304250559284131E-2</v>
+        <v>6.2304250559284083E-2</v>
       </c>
       <c r="M61" s="7">
         <f t="shared" si="3"/>
         <v>175.13791682400006</v>
       </c>
     </row>
-    <row r="62" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B62" s="3" t="s">
         <v>70</v>
       </c>
@@ -10393,19 +11176,19 @@
       </c>
       <c r="G62" s="7">
         <f>IFERROR(VLOOKUP(E62,benefs_by_dep!$A$1:$D$46,4,FALSE),"")</f>
-        <v>17007.837700464002</v>
+        <v>17007.837700463991</v>
       </c>
       <c r="H62" s="7">
         <f>IFERROR(VLOOKUP(E62,benefs_by_dep!$A$1:$C$46,2,FALSE),"")</f>
-        <v>2001.1128644519999</v>
+        <v>2070.3031525800002</v>
       </c>
       <c r="I62" s="19">
         <f t="shared" si="5"/>
-        <v>0.11765827612509533</v>
+        <v>0.12172641749300796</v>
       </c>
       <c r="J62" s="7">
         <f t="shared" si="4"/>
-        <v>176.21901507600001</v>
+        <v>245.40930320400025</v>
       </c>
       <c r="K62" s="7">
         <f>IFERROR(VLOOKUP(E62,benefs_by_dep!$A$1:$G$46,5,FALSE),"")</f>
@@ -10413,14 +11196,14 @@
       </c>
       <c r="L62" s="19">
         <f t="shared" si="2"/>
-        <v>0.12172641749300787</v>
+        <v>0.12172641749300796</v>
       </c>
       <c r="M62" s="7">
         <f t="shared" si="3"/>
         <v>245.40930320400025</v>
       </c>
     </row>
-    <row r="63" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B63" s="11" t="s">
         <v>71</v>
       </c>
@@ -10461,7 +11244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B64" s="13" t="s">
         <v>72</v>
       </c>
@@ -10482,23 +11265,23 @@
       </c>
       <c r="G64" s="14">
         <f>SUM(G5:G63)</f>
-        <v>1937031.8466629516</v>
+        <v>1937031.8466629526</v>
       </c>
       <c r="H64" s="14">
         <f>SUM(H5:H63)</f>
-        <v>370519.39841670002</v>
+        <v>372757.27179833996</v>
       </c>
       <c r="J64" s="14">
         <f>SUM(J5:J63)</f>
-        <v>54101.399824836008</v>
+        <v>56339.27320647602</v>
       </c>
       <c r="K64" s="14">
         <f>SUM(K5:K63)</f>
-        <v>370454.53252158</v>
+        <v>370454.53252157988</v>
       </c>
       <c r="M64" s="14">
         <f>SUM(M5:M63)</f>
-        <v>54036.533929716024</v>
+        <v>54036.533929716003</v>
       </c>
     </row>
   </sheetData>
@@ -10518,20 +11301,20 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>73</v>
       </c>
@@ -10563,7 +11346,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="17">
         <v>1.0269999999999999</v>
       </c>
@@ -10598,6 +11381,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10605,22 +11389,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>91</v>
       </c>
@@ -10643,99 +11425,99 @@
         <v>97</v>
       </c>
       <c r="H1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>11</v>
       </c>
       <c r="B2" s="5">
-        <v>31131.305264592</v>
+        <v>31348.606013244011</v>
       </c>
       <c r="C2" s="5">
         <v>26423.122377132</v>
       </c>
       <c r="D2" s="5">
-        <v>211550.38704961186</v>
+        <v>211550.38704961209</v>
       </c>
       <c r="E2" s="5">
-        <v>31348.606013244014</v>
+        <v>31348.606013244011</v>
       </c>
       <c r="F2" s="5">
-        <v>26423.122377132007</v>
+        <v>26423.122377132</v>
       </c>
       <c r="G2" s="5">
-        <v>211550.38704961189</v>
+        <v>211550.3870496118</v>
       </c>
       <c r="H2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>12</v>
       </c>
       <c r="B3" s="5">
-        <v>11187.204711695998</v>
+        <v>10831.523386788</v>
       </c>
       <c r="C3" s="5">
-        <v>9530.9621896319986</v>
+        <v>9530.9621896320004</v>
       </c>
       <c r="D3" s="5">
-        <v>205313.53123382368</v>
+        <v>205313.53123382371</v>
       </c>
       <c r="E3" s="5">
         <v>10831.523386788</v>
       </c>
       <c r="F3" s="5">
-        <v>9530.9621896319986</v>
+        <v>9530.9621896320004</v>
       </c>
       <c r="G3" s="5">
-        <v>205313.53123382383</v>
+        <v>205313.53123382371</v>
       </c>
       <c r="H3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>13</v>
       </c>
       <c r="B4" s="5">
-        <v>5747.1183076319994</v>
+        <v>6053.0691129480001</v>
       </c>
       <c r="C4" s="5">
         <v>4717.9127717279998</v>
       </c>
       <c r="D4" s="5">
-        <v>102682.71197496004</v>
+        <v>102682.71197496</v>
       </c>
       <c r="E4" s="5">
-        <v>6053.069112948001</v>
+        <v>6053.0691129479983</v>
       </c>
       <c r="F4" s="5">
-        <v>4717.9127717280007</v>
+        <v>4717.9127717279989</v>
       </c>
       <c r="G4" s="5">
-        <v>102682.71197496007</v>
+        <v>102682.71197496</v>
       </c>
       <c r="H4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>14</v>
       </c>
       <c r="B5" s="5">
-        <v>7046.5984065359989</v>
+        <v>7700.6628489959994</v>
       </c>
       <c r="C5" s="5">
         <v>6581.7261581759994</v>
       </c>
       <c r="D5" s="5">
-        <v>51166.218070655996</v>
+        <v>51166.218070656003</v>
       </c>
       <c r="E5" s="5">
         <v>7235.790600635999</v>
@@ -10744,91 +11526,91 @@
         <v>6581.7261581759994</v>
       </c>
       <c r="G5" s="5">
-        <v>51166.21807065601</v>
+        <v>51166.218070655981</v>
       </c>
       <c r="H5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>21</v>
       </c>
       <c r="B6" s="5">
-        <v>12491.009203607993</v>
+        <v>12532.090937184001</v>
       </c>
       <c r="C6" s="5">
-        <v>10655.304371711998</v>
+        <v>10655.304371712</v>
       </c>
       <c r="D6" s="5">
-        <v>38063.307256415974</v>
+        <v>38063.307256416003</v>
       </c>
       <c r="E6" s="5">
-        <v>12532.090937183997</v>
+        <v>12532.09093718399</v>
       </c>
       <c r="F6" s="5">
         <v>10655.304371712</v>
       </c>
       <c r="G6" s="5">
-        <v>38063.307256415996</v>
+        <v>38063.307256415988</v>
       </c>
       <c r="H6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>22</v>
       </c>
       <c r="B7" s="5">
-        <v>2468.1473093160002</v>
+        <v>2476.7960953319998</v>
       </c>
       <c r="C7" s="5">
         <v>2151.3855214800001</v>
       </c>
       <c r="D7" s="5">
-        <v>5967.6623510399968</v>
+        <v>5967.6623510399977</v>
       </c>
       <c r="E7" s="5">
         <v>2476.7960953319998</v>
       </c>
       <c r="F7" s="5">
-        <v>2151.3855214799996</v>
+        <v>2151.3855214800001</v>
       </c>
       <c r="G7" s="5">
-        <v>5967.6623510399986</v>
+        <v>5967.6623510399977</v>
       </c>
       <c r="H7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>23</v>
       </c>
       <c r="B8" s="5">
-        <v>5795.7677289720014</v>
+        <v>5845.4982485640012</v>
       </c>
       <c r="C8" s="5">
         <v>4923.3214396080002</v>
       </c>
       <c r="D8" s="5">
-        <v>49765.114736063973</v>
+        <v>49765.114736064002</v>
       </c>
       <c r="E8" s="5">
-        <v>5713.6042618199999</v>
+        <v>5713.6042618200008</v>
       </c>
       <c r="F8" s="5">
-        <v>4923.3214396079993</v>
+        <v>4923.3214396080002</v>
       </c>
       <c r="G8" s="5">
-        <v>49765.114736063937</v>
+        <v>49765.114736064002</v>
       </c>
       <c r="H8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>31</v>
       </c>
@@ -10836,36 +11618,36 @@
         <v>2430.3088704960001</v>
       </c>
       <c r="C9" s="5">
-        <v>1791.3798035639998</v>
+        <v>1791.379803564</v>
       </c>
       <c r="D9" s="5">
-        <v>30694.541570783993</v>
+        <v>30694.541570783978</v>
       </c>
       <c r="E9" s="5">
         <v>2430.3088704960001</v>
       </c>
       <c r="F9" s="5">
-        <v>1791.3798035639998</v>
+        <v>1791.379803564</v>
       </c>
       <c r="G9" s="5">
-        <v>30694.541570783997</v>
+        <v>30694.541570783978</v>
       </c>
       <c r="H9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>32</v>
       </c>
       <c r="B10" s="5">
-        <v>4146.0117964200008</v>
+        <v>4114.6599471120016</v>
       </c>
       <c r="C10" s="5">
         <v>3341.6746969320002</v>
       </c>
       <c r="D10" s="5">
-        <v>33872.970431664005</v>
+        <v>33872.970431664013</v>
       </c>
       <c r="E10" s="5">
         <v>3997.9013358960001</v>
@@ -10874,76 +11656,76 @@
         <v>3341.6746969320002</v>
       </c>
       <c r="G10" s="5">
-        <v>33872.970431664005</v>
+        <v>33872.970431663991</v>
       </c>
       <c r="H10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>33</v>
       </c>
       <c r="B11" s="5">
-        <v>9212.0382052919995</v>
+        <v>9208.7949105359985</v>
       </c>
       <c r="C11" s="5">
-        <v>7915.801401144</v>
+        <v>7915.8014011439982</v>
       </c>
       <c r="D11" s="5">
-        <v>133999.96613889604</v>
+        <v>133999.9661388961</v>
       </c>
       <c r="E11" s="5">
         <v>9208.7949105359985</v>
       </c>
       <c r="F11" s="5">
-        <v>7915.8014011439982</v>
+        <v>7915.8014011439991</v>
       </c>
       <c r="G11" s="5">
-        <v>133999.96613889601</v>
+        <v>133999.96613889621</v>
       </c>
       <c r="H11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>41</v>
       </c>
       <c r="B12" s="5">
-        <v>7419.5773034759977</v>
+        <v>7486.6053950999967</v>
       </c>
       <c r="C12" s="5">
-        <v>6459.5620556999984</v>
+        <v>6459.5620556999966</v>
       </c>
       <c r="D12" s="5">
-        <v>32549.706171216003</v>
+        <v>32549.706171215999</v>
       </c>
       <c r="E12" s="5">
-        <v>7486.6053950999985</v>
+        <v>7486.6053950999976</v>
       </c>
       <c r="F12" s="5">
         <v>6459.5620556999984</v>
       </c>
       <c r="G12" s="5">
-        <v>32549.706171215985</v>
+        <v>32549.706171215999</v>
       </c>
       <c r="H12" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>42</v>
       </c>
       <c r="B13" s="5">
-        <v>8819.5995398159994</v>
+        <v>9109.3338713520006</v>
       </c>
       <c r="C13" s="5">
         <v>7738.5012878159996</v>
       </c>
       <c r="D13" s="5">
-        <v>46820.203097616031</v>
+        <v>46820.203097616002</v>
       </c>
       <c r="E13" s="5">
         <v>8809.8696555479983</v>
@@ -10952,24 +11734,24 @@
         <v>7738.5012878159996</v>
       </c>
       <c r="G13" s="5">
-        <v>46820.203097616031</v>
+        <v>46820.203097615988</v>
       </c>
       <c r="H13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>43</v>
       </c>
       <c r="B14" s="5">
-        <v>2562.20285724</v>
+        <v>2453.0119337880001</v>
       </c>
       <c r="C14" s="5">
         <v>1938.4091658360001</v>
       </c>
       <c r="D14" s="5">
-        <v>37414.648305215975</v>
+        <v>37414.648305215967</v>
       </c>
       <c r="E14" s="5">
         <v>2453.0119337880001</v>
@@ -10978,24 +11760,24 @@
         <v>1938.4091658360001</v>
       </c>
       <c r="G14" s="5">
-        <v>37414.648305215931</v>
+        <v>37414.648305215953</v>
       </c>
       <c r="H14" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>51</v>
       </c>
       <c r="B15" s="5">
-        <v>1371.9136817879998</v>
+        <v>1371.9136817880001</v>
       </c>
       <c r="C15" s="5">
         <v>1240.0196950439999</v>
       </c>
       <c r="D15" s="5">
-        <v>15074.834025888009</v>
+        <v>15074.834025888</v>
       </c>
       <c r="E15" s="5">
         <v>1240.0196950439999</v>
@@ -11004,50 +11786,50 @@
         <v>1240.0196950439999</v>
       </c>
       <c r="G15" s="5">
-        <v>15074.834025888013</v>
+        <v>15074.834025888</v>
       </c>
       <c r="H15" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>52</v>
       </c>
       <c r="B16" s="5">
-        <v>29464.251760008028</v>
+        <v>29473.981644276031</v>
       </c>
       <c r="C16" s="5">
-        <v>25299.861293304017</v>
+        <v>25299.86129330402</v>
       </c>
       <c r="D16" s="5">
-        <v>41760.66327825607</v>
+        <v>41760.663278256099</v>
       </c>
       <c r="E16" s="5">
-        <v>29473.981644276046</v>
+        <v>29473.981644276031</v>
       </c>
       <c r="F16" s="5">
-        <v>25299.861293304024</v>
+        <v>25299.861293304031</v>
       </c>
       <c r="G16" s="5">
         <v>41760.663278256077</v>
       </c>
       <c r="H16" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>53</v>
       </c>
       <c r="B17" s="5">
-        <v>1633.5394587720002</v>
+        <v>1633.539458772</v>
       </c>
       <c r="C17" s="5">
-        <v>1318.9398674400002</v>
+        <v>1318.9398674399999</v>
       </c>
       <c r="D17" s="5">
-        <v>10858.550843087995</v>
+        <v>10858.550843088011</v>
       </c>
       <c r="E17" s="5">
         <v>1633.539458772</v>
@@ -11056,21 +11838,21 @@
         <v>1318.9398674399999</v>
       </c>
       <c r="G17" s="5">
-        <v>10858.550843088002</v>
+        <v>10858.550843088</v>
       </c>
       <c r="H17" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>54</v>
       </c>
       <c r="B18" s="5">
-        <v>8116.8856760160015</v>
+        <v>8000.1270648000018</v>
       </c>
       <c r="C18" s="5">
-        <v>6871.4604897120007</v>
+        <v>6871.4604897120016</v>
       </c>
       <c r="D18" s="5">
         <v>17539.738040447999</v>
@@ -11079,68 +11861,68 @@
         <v>8000.1270648000009</v>
       </c>
       <c r="F18" s="5">
-        <v>6871.4604897120016</v>
+        <v>6871.4604897120007</v>
       </c>
       <c r="G18" s="5">
         <v>17539.73804044801</v>
       </c>
       <c r="H18" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>61</v>
       </c>
       <c r="B19" s="5">
-        <v>18397.048954283997</v>
+        <v>18504.077681231989</v>
       </c>
       <c r="C19" s="5">
-        <v>15831.602802287993</v>
+        <v>15831.602802287989</v>
       </c>
       <c r="D19" s="5">
-        <v>65229.144132671994</v>
+        <v>65229.144132672023</v>
       </c>
       <c r="E19" s="5">
-        <v>18333.264157415997</v>
+        <v>18333.26415741599</v>
       </c>
       <c r="F19" s="5">
-        <v>15831.602802287991</v>
+        <v>15831.602802287989</v>
       </c>
       <c r="G19" s="5">
-        <v>65229.144132672001</v>
+        <v>65229.144132672038</v>
       </c>
       <c r="H19" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>62</v>
       </c>
       <c r="B20" s="5">
-        <v>15644.572804692001</v>
+        <v>15506.19222843601</v>
       </c>
       <c r="C20" s="5">
-        <v>13145.073646068</v>
+        <v>13145.073646068009</v>
       </c>
       <c r="D20" s="5">
-        <v>38348.717194944031</v>
+        <v>38348.717194944024</v>
       </c>
       <c r="E20" s="5">
-        <v>15506.192228436003</v>
+        <v>15506.192228436001</v>
       </c>
       <c r="F20" s="5">
         <v>13145.073646068</v>
       </c>
       <c r="G20" s="5">
-        <v>38348.717194944031</v>
+        <v>38348.717194944024</v>
       </c>
       <c r="H20" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>63</v>
       </c>
@@ -11151,7 +11933,7 @@
         <v>1383.8057625599999</v>
       </c>
       <c r="D21" s="5">
-        <v>14581.853222975997</v>
+        <v>14581.853222976</v>
       </c>
       <c r="E21" s="5">
         <v>1383.8057625599999</v>
@@ -11160,310 +11942,310 @@
         <v>1383.8057625599999</v>
       </c>
       <c r="G21" s="5">
-        <v>14581.853222975993</v>
+        <v>14581.853222976</v>
       </c>
       <c r="H21" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>71</v>
       </c>
       <c r="B22" s="5">
-        <v>19506.255760836</v>
+        <v>19848.963906720001</v>
       </c>
       <c r="C22" s="5">
         <v>16947.296198352</v>
       </c>
       <c r="D22" s="5">
-        <v>102643.79243788809</v>
+        <v>102643.792437888</v>
       </c>
       <c r="E22" s="5">
-        <v>19848.96390671999</v>
+        <v>19848.963906720001</v>
       </c>
       <c r="F22" s="5">
-        <v>16947.296198351996</v>
+        <v>16947.296198352</v>
       </c>
       <c r="G22" s="5">
         <v>102643.792437888</v>
       </c>
       <c r="H22" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>72</v>
       </c>
       <c r="B23" s="5">
-        <v>11374.234709291999</v>
+        <v>11377.478004048</v>
       </c>
       <c r="C23" s="5">
         <v>9712.5866959680006</v>
       </c>
       <c r="D23" s="5">
-        <v>81827.245595627988</v>
+        <v>81827.245595627945</v>
       </c>
       <c r="E23" s="5">
         <v>11377.478004048</v>
       </c>
       <c r="F23" s="5">
-        <v>9712.5866959679988</v>
+        <v>9712.5866959680006</v>
       </c>
       <c r="G23" s="5">
-        <v>81827.245595627886</v>
+        <v>81827.245595627974</v>
       </c>
       <c r="H23" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>73</v>
       </c>
       <c r="B24" s="5">
-        <v>18376.508087496004</v>
+        <v>18450.022768631999</v>
       </c>
       <c r="C24" s="5">
-        <v>15755.925924648003</v>
+        <v>15755.925924648</v>
       </c>
       <c r="D24" s="5">
         <v>54532.758027384007</v>
       </c>
       <c r="E24" s="5">
-        <v>18450.022768631996</v>
+        <v>18450.022768631999</v>
       </c>
       <c r="F24" s="5">
-        <v>15755.925924648005</v>
+        <v>15755.925924648</v>
       </c>
       <c r="G24" s="5">
-        <v>54532.758027383999</v>
+        <v>54532.758027384007</v>
       </c>
       <c r="H24" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>81</v>
       </c>
       <c r="B25" s="5">
-        <v>2156.79101274</v>
+        <v>2300.577080256</v>
       </c>
       <c r="C25" s="5">
-        <v>1831.3804388879998</v>
+        <v>1831.3804388880001</v>
       </c>
       <c r="D25" s="5">
-        <v>28995.055118639993</v>
+        <v>28995.055118640012</v>
       </c>
       <c r="E25" s="5">
         <v>2184.899567292</v>
       </c>
       <c r="F25" s="5">
-        <v>1831.3804388880003</v>
+        <v>1831.3804388880001</v>
       </c>
       <c r="G25" s="5">
-        <v>28995.055118640008</v>
+        <v>28995.055118640012</v>
       </c>
       <c r="H25" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>82</v>
       </c>
       <c r="B26" s="5">
-        <v>4461.6924860039999</v>
+        <v>4775.2109790840004</v>
       </c>
       <c r="C26" s="5">
-        <v>4070.334918779999</v>
+        <v>4070.33491878</v>
       </c>
       <c r="D26" s="5">
         <v>37401.675126192007</v>
       </c>
       <c r="E26" s="5">
-        <v>4648.7224835999987</v>
+        <v>4648.7224835999996</v>
       </c>
       <c r="F26" s="5">
-        <v>4070.3349187799995</v>
+        <v>4070.33491878</v>
       </c>
       <c r="G26" s="5">
         <v>37401.675126192029</v>
       </c>
       <c r="H26" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>83</v>
       </c>
       <c r="B27" s="5">
-        <v>4550.3425426679996</v>
+        <v>4610.8840447799994</v>
       </c>
       <c r="C27" s="5">
-        <v>3863.8451526479998</v>
+        <v>3863.8451526479989</v>
       </c>
       <c r="D27" s="5">
-        <v>42759.598063104037</v>
+        <v>42759.598063104073</v>
       </c>
       <c r="E27" s="5">
-        <v>4496.287630068</v>
+        <v>4496.2876300679991</v>
       </c>
       <c r="F27" s="5">
-        <v>3863.8451526479994</v>
+        <v>3863.8451526479989</v>
       </c>
       <c r="G27" s="5">
-        <v>42759.598063104037</v>
+        <v>42759.598063104073</v>
       </c>
       <c r="H27" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>91</v>
       </c>
       <c r="B28" s="5">
-        <v>11382.883495307999</v>
+        <v>11382.883495308</v>
       </c>
       <c r="C28" s="5">
-        <v>9855.291665232</v>
+        <v>9855.2916652319982</v>
       </c>
       <c r="D28" s="5">
-        <v>53298.143823600025</v>
+        <v>53298.143823600047</v>
       </c>
       <c r="E28" s="5">
-        <v>11296.395635147997</v>
+        <v>11296.395635147999</v>
       </c>
       <c r="F28" s="5">
-        <v>9855.291665232</v>
+        <v>9855.2916652319982</v>
       </c>
       <c r="G28" s="5">
-        <v>53298.143823600003</v>
+        <v>53298.143823600047</v>
       </c>
       <c r="H28" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>92</v>
       </c>
       <c r="B29" s="5">
-        <v>14484.554380296</v>
+        <v>14476.986692531989</v>
       </c>
       <c r="C29" s="5">
         <v>12155.868745488</v>
       </c>
       <c r="D29" s="5">
-        <v>30603.729317615976</v>
+        <v>30603.72931761598</v>
       </c>
       <c r="E29" s="5">
-        <v>14476.986692531995</v>
+        <v>14476.986692531989</v>
       </c>
       <c r="F29" s="5">
-        <v>12155.868745487996</v>
+        <v>12155.868745488</v>
       </c>
       <c r="G29" s="5">
-        <v>30603.729317615973</v>
+        <v>30603.729317615958</v>
       </c>
       <c r="H29" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>93</v>
       </c>
       <c r="B30" s="5">
-        <v>1792.4609018159999</v>
+        <v>1796.7852948239999</v>
       </c>
       <c r="C30" s="5">
-        <v>1210.8300422399998</v>
+        <v>1210.83004224</v>
       </c>
       <c r="D30" s="5">
-        <v>14218.604210303998</v>
+        <v>14218.604210304</v>
       </c>
       <c r="E30" s="5">
-        <v>1596.7821182039997</v>
+        <v>1596.782118204</v>
       </c>
       <c r="F30" s="5">
-        <v>1210.8300422399998</v>
+        <v>1210.83004224</v>
       </c>
       <c r="G30" s="5">
-        <v>14218.604210303998</v>
+        <v>14218.604210304</v>
       </c>
       <c r="H30" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>101</v>
       </c>
       <c r="B31" s="5">
-        <v>12119.11140492</v>
+        <v>12313.709090279999</v>
       </c>
       <c r="C31" s="5">
         <v>10460.706686351999</v>
       </c>
       <c r="D31" s="5">
-        <v>38257.904941776003</v>
+        <v>38257.904941775989</v>
       </c>
       <c r="E31" s="5">
-        <v>12313.709090280003</v>
+        <v>12313.709090279999</v>
       </c>
       <c r="F31" s="5">
-        <v>10460.706686352001</v>
+        <v>10460.706686351999</v>
       </c>
       <c r="G31" s="5">
-        <v>38257.904941775989</v>
+        <v>38257.904941775967</v>
       </c>
       <c r="H31" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>102</v>
       </c>
       <c r="B32" s="5">
-        <v>21175.471461924004</v>
+        <v>21267.364813344011</v>
       </c>
       <c r="C32" s="5">
-        <v>18215.424447948004</v>
+        <v>18215.424447948</v>
       </c>
       <c r="D32" s="5">
         <v>35805.974106239977</v>
       </c>
       <c r="E32" s="5">
-        <v>21267.364813344011</v>
+        <v>21267.364813344</v>
       </c>
       <c r="F32" s="5">
-        <v>18215.424447948008</v>
+        <v>18215.424447948</v>
       </c>
       <c r="G32" s="5">
-        <v>35805.974106239963</v>
+        <v>35805.974106239977</v>
       </c>
       <c r="H32" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>103</v>
       </c>
       <c r="B33" s="5">
-        <v>8748.2470551839979</v>
+        <v>8690.9488478279982</v>
       </c>
       <c r="C33" s="5">
-        <v>7574.1743535119995</v>
+        <v>7574.1743535119986</v>
       </c>
       <c r="D33" s="5">
-        <v>13401.293931791997</v>
+        <v>13401.293931792001</v>
       </c>
       <c r="E33" s="5">
         <v>8690.9488478279982</v>
@@ -11472,65 +12254,65 @@
         <v>7574.1743535119986</v>
       </c>
       <c r="G33" s="5">
-        <v>13401.293931791997</v>
+        <v>13401.293931792001</v>
       </c>
       <c r="H33" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>111</v>
       </c>
       <c r="B34" s="5">
-        <v>4860.6177409920001</v>
+        <v>4677.9121364039993</v>
       </c>
       <c r="C34" s="5">
-        <v>3767.6274082200002</v>
+        <v>3767.6274082199998</v>
       </c>
       <c r="D34" s="5">
-        <v>42902.303032367956</v>
+        <v>42902.303032367978</v>
       </c>
       <c r="E34" s="5">
         <v>4677.9121364040002</v>
       </c>
       <c r="F34" s="5">
-        <v>3767.6274082200002</v>
+        <v>3767.6274082200011</v>
       </c>
       <c r="G34" s="5">
         <v>42902.30303236797</v>
       </c>
       <c r="H34" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>112</v>
       </c>
       <c r="B35" s="5">
-        <v>2809.7743569479999</v>
+        <v>2903.829904872</v>
       </c>
       <c r="C35" s="5">
-        <v>2363.2807788719997</v>
+        <v>2363.2807788720002</v>
       </c>
       <c r="D35" s="5">
-        <v>25103.101411440013</v>
+        <v>25103.10141144002</v>
       </c>
       <c r="E35" s="5">
-        <v>2903.8299048719996</v>
+        <v>2903.829904872</v>
       </c>
       <c r="F35" s="5">
         <v>2363.2807788720002</v>
       </c>
       <c r="G35" s="5">
-        <v>25103.101411440002</v>
+        <v>25103.10141144002</v>
       </c>
       <c r="H35" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>113</v>
       </c>
@@ -11550,200 +12332,200 @@
         <v>0</v>
       </c>
       <c r="G36" s="5">
-        <v>5824.9573817760001</v>
+        <v>5824.9573817759992</v>
       </c>
       <c r="H36" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>121</v>
       </c>
       <c r="B37" s="5">
-        <v>5506.0333974359983</v>
+        <v>5399.0046704880006</v>
       </c>
       <c r="C37" s="5">
-        <v>4683.3176276639988</v>
+        <v>4683.3176276640006</v>
       </c>
       <c r="D37" s="5">
-        <v>29254.518699120032</v>
+        <v>29254.51869912005</v>
       </c>
       <c r="E37" s="5">
         <v>5399.0046704880006</v>
       </c>
       <c r="F37" s="5">
-        <v>4683.3176276639988</v>
+        <v>4683.3176276640006</v>
       </c>
       <c r="G37" s="5">
-        <v>29254.518699120046</v>
+        <v>29254.518699120039</v>
       </c>
       <c r="H37" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>122</v>
       </c>
       <c r="B38" s="5">
-        <v>1374.075878292</v>
+        <v>1361.1026992679999</v>
       </c>
       <c r="C38" s="5">
-        <v>1139.4775576079999</v>
+        <v>1139.4775576080001</v>
       </c>
       <c r="D38" s="5">
-        <v>12019.650365735995</v>
+        <v>12019.65036573599</v>
       </c>
       <c r="E38" s="5">
-        <v>1361.1026992680002</v>
+        <v>1361.1026992679999</v>
       </c>
       <c r="F38" s="5">
         <v>1139.4775576080001</v>
       </c>
       <c r="G38" s="5">
-        <v>12019.650365735999</v>
+        <v>12019.65036573599</v>
       </c>
       <c r="H38" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>123</v>
       </c>
       <c r="B39" s="5">
-        <v>7476.8755108320011</v>
+        <v>7483.362100344003</v>
       </c>
       <c r="C39" s="5">
-        <v>6192.5307874560003</v>
+        <v>6192.5307874560021</v>
       </c>
       <c r="D39" s="5">
-        <v>20679.247364256003</v>
+        <v>20679.247364255989</v>
       </c>
       <c r="E39" s="5">
-        <v>7483.3621003440003</v>
+        <v>7483.3621003440021</v>
       </c>
       <c r="F39" s="5">
-        <v>6192.5307874559994</v>
+        <v>6192.5307874560012</v>
       </c>
       <c r="G39" s="5">
-        <v>20679.247364255989</v>
+        <v>20679.247364256</v>
       </c>
       <c r="H39" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>124</v>
       </c>
       <c r="B40" s="5">
-        <v>4202.2289055239999</v>
+        <v>4392.5021978759996</v>
       </c>
       <c r="C40" s="5">
-        <v>3630.3279302159995</v>
+        <v>3630.327930215999</v>
       </c>
       <c r="D40" s="5">
-        <v>8523.3786187679998</v>
+        <v>8523.3786187680016</v>
       </c>
       <c r="E40" s="5">
         <v>4251.9594251159997</v>
       </c>
       <c r="F40" s="5">
-        <v>3630.3279302159999</v>
+        <v>3630.327930215999</v>
       </c>
       <c r="G40" s="5">
-        <v>8523.3786187680016</v>
+        <v>8523.3786187679998</v>
       </c>
       <c r="H40" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>131</v>
       </c>
       <c r="B41" s="5">
-        <v>3469.2442906680012</v>
+        <v>3472.4875854240022</v>
       </c>
       <c r="C41" s="5">
-        <v>2953.5604244640003</v>
+        <v>2953.5604244639999</v>
       </c>
       <c r="D41" s="5">
-        <v>15775.385693183975</v>
+        <v>15775.385693183969</v>
       </c>
       <c r="E41" s="5">
         <v>3472.4875854240008</v>
       </c>
       <c r="F41" s="5">
-        <v>2953.5604244640003</v>
+        <v>2953.5604244640008</v>
       </c>
       <c r="G41" s="5">
-        <v>15775.385693183964</v>
+        <v>15775.385693183969</v>
       </c>
       <c r="H41" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>132</v>
       </c>
       <c r="B42" s="5">
-        <v>2646.5285208959995</v>
+        <v>2646.5285208959999</v>
       </c>
       <c r="C42" s="5">
-        <v>2646.5285208959995</v>
+        <v>2646.5285208959999</v>
       </c>
       <c r="D42" s="5">
-        <v>2646.5285208959995</v>
+        <v>2646.5285208959999</v>
       </c>
       <c r="E42" s="5">
-        <v>2646.5285208959986</v>
+        <v>2646.528520895999</v>
       </c>
       <c r="F42" s="5">
-        <v>2646.5285208959986</v>
+        <v>2646.528520895999</v>
       </c>
       <c r="G42" s="5">
-        <v>2646.5285208959986</v>
+        <v>2646.528520895999</v>
       </c>
       <c r="H42" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>133</v>
       </c>
       <c r="B43" s="5">
-        <v>3596.8138844039977</v>
+        <v>3614.1114564359982</v>
       </c>
       <c r="C43" s="5">
-        <v>3037.8860881199989</v>
+        <v>3037.886088119998</v>
       </c>
       <c r="D43" s="5">
-        <v>4761.1567018079977</v>
+        <v>4761.1567018079986</v>
       </c>
       <c r="E43" s="5">
-        <v>3614.1114564359978</v>
+        <v>3614.1114564359991</v>
       </c>
       <c r="F43" s="5">
         <v>3037.8860881199989</v>
       </c>
       <c r="G43" s="5">
-        <v>4761.1567018079968</v>
+        <v>4761.1567018080004</v>
       </c>
       <c r="H43" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>141</v>
       </c>
       <c r="B44" s="5">
-        <v>14305.092070463999</v>
+        <v>14326.714035503999</v>
       </c>
       <c r="C44" s="5">
         <v>12235.870016135999</v>
@@ -11752,30 +12534,30 @@
         <v>16203.500600976</v>
       </c>
       <c r="E44" s="5">
-        <v>14326.71403550399</v>
+        <v>14326.714035503999</v>
       </c>
       <c r="F44" s="5">
-        <v>12235.870016135992</v>
+        <v>12235.870016135999</v>
       </c>
       <c r="G44" s="5">
-        <v>16203.500600975989</v>
+        <v>16203.500600976</v>
       </c>
       <c r="H44" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>142</v>
       </c>
       <c r="B45" s="5">
-        <v>1224.884319516</v>
+        <v>1204.3434527280001</v>
       </c>
       <c r="C45" s="5">
         <v>1029.205535904</v>
       </c>
       <c r="D45" s="5">
-        <v>19330.036745759997</v>
+        <v>19330.036745760011</v>
       </c>
       <c r="E45" s="5">
         <v>1204.3434527280001</v>
@@ -11784,39 +12566,39 @@
         <v>1029.205535904</v>
       </c>
       <c r="G45" s="5">
-        <v>19330.036745760004</v>
+        <v>19330.036745760019</v>
       </c>
       <c r="H45" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>143</v>
       </c>
       <c r="B46" s="5">
-        <v>2001.1128644519999</v>
+        <v>2070.3031525800002</v>
       </c>
       <c r="C46" s="5">
         <v>1824.8938493759999</v>
       </c>
       <c r="D46" s="5">
-        <v>17007.837700464002</v>
+        <v>17007.837700463991</v>
       </c>
       <c r="E46" s="5">
         <v>2070.3031525800002</v>
       </c>
       <c r="F46" s="5">
-        <v>1824.8938493760002</v>
+        <v>1824.8938493759999</v>
       </c>
       <c r="G46" s="5">
         <v>17007.837700463991</v>
       </c>
       <c r="H46" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" s="5">
         <v>0</v>
@@ -11837,11 +12619,12 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11850,204 +12633,211 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B2" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" t="s">
         <v>100</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>101</v>
       </c>
-      <c r="C1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="5">
-        <v>1927.5981833160001</v>
+        <v>5906.039750676</v>
       </c>
       <c r="C2" s="5">
         <v>5790.362237712</v>
       </c>
       <c r="D2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="5">
-        <v>2675.7181736999996</v>
+        <v>9245.5522511039999</v>
       </c>
       <c r="C3" s="5">
         <v>9175.2808647239981</v>
       </c>
       <c r="D3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="5">
-        <v>3634.6523232240002</v>
+        <v>7097.4100243800003</v>
       </c>
       <c r="C4" s="5">
         <v>7097.4100243800003</v>
       </c>
       <c r="D4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="5">
-        <v>6534.157835087999</v>
+        <v>8519.0542257600027</v>
       </c>
       <c r="C5" s="5">
         <v>8087.6960232120009</v>
       </c>
       <c r="D5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="5">
-        <v>4271.4191936520001</v>
+        <v>5653.0627597079992</v>
       </c>
       <c r="C6" s="5">
         <v>5653.0627597079992</v>
       </c>
       <c r="D6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="5">
-        <v>6394.6961605800007</v>
+        <v>4900.6183763160016</v>
       </c>
       <c r="C7" s="5">
         <v>4697.3719049400006</v>
       </c>
       <c r="D7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="5">
-        <v>4502.7742195800001</v>
+        <v>7192.5466705559984</v>
       </c>
       <c r="C8" s="5">
         <v>6987.1380026759989</v>
       </c>
       <c r="D8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" s="5">
-        <v>9717.9921872279974</v>
+        <v>2259.4953466799998</v>
       </c>
       <c r="C9" s="5">
         <v>1924.3548885600001</v>
       </c>
       <c r="D9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" s="5">
-        <v>6857.4062124359989</v>
+        <v>2087.6007246119998</v>
       </c>
       <c r="C10" s="5">
-        <v>1325.4264569519999</v>
+        <v>1325.4264569520001</v>
       </c>
       <c r="D10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" s="5">
-        <v>7584.9853360320003</v>
+        <v>3477.8930766839999</v>
       </c>
       <c r="C11" s="5">
-        <v>3298.4307668519996</v>
+        <v>3298.430766852</v>
       </c>
       <c r="D11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:G21"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C1" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="D1" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E1" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="F1" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="G1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -12057,20 +12847,20 @@
       <c r="C2" s="5">
         <v>17258998.467498779</v>
       </c>
-      <c r="D2" s="34">
+      <c r="D2" s="5">
         <v>0.37875979999999998</v>
       </c>
       <c r="E2" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="F2" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="G2" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -12080,20 +12870,20 @@
       <c r="C3" s="5">
         <v>17258998.467498779</v>
       </c>
-      <c r="D3" s="34">
+      <c r="D3" s="5">
         <v>0.25930839999999999</v>
       </c>
       <c r="E3" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="F3" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="G3" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -12103,20 +12893,20 @@
       <c r="C4" s="5">
         <v>17258998.467498779</v>
       </c>
-      <c r="D4" s="34">
-        <v>0.38494498958556933</v>
+      <c r="D4" s="36">
+        <v>0.38494498958556927</v>
       </c>
       <c r="E4" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="F4" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="G4" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -12126,20 +12916,20 @@
       <c r="C5" s="5">
         <v>17258998.467498779</v>
       </c>
-      <c r="D5" s="34">
-        <v>0.11426561256283164</v>
+      <c r="D5" s="5">
+        <v>0.1142656125628316</v>
       </c>
       <c r="E5" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="F5" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="G5" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>1</v>
       </c>
@@ -12149,366 +12939,1968 @@
       <c r="C6" s="5">
         <v>17258998.467498779</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="5">
         <v>4.7372861166969538E-2</v>
       </c>
       <c r="E6" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="F6" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="G6" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C7" s="5">
         <v>17258998.467498779</v>
       </c>
-      <c r="D7" s="33">
-        <v>0.3780135</v>
+      <c r="D7" s="5">
+        <v>0.37846469999999999</v>
       </c>
       <c r="E7" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="F7" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="G7" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C8" s="5">
         <v>17258998.467498779</v>
       </c>
-      <c r="D8" s="33">
-        <v>0.25804270000000001</v>
+      <c r="D8" s="5">
+        <v>0.25894669999999997</v>
       </c>
       <c r="E8" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="F8" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="G8" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C9" s="5">
         <v>17258998.467498779</v>
       </c>
-      <c r="D9" s="33">
-        <v>0.38026242249038755</v>
+      <c r="D9" s="43">
+        <v>0.38424248549552131</v>
       </c>
       <c r="E9" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="F9" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="G9" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C10" s="5">
         <v>17258998.467498779</v>
       </c>
-      <c r="D10" s="33">
-        <v>0.1130252905970249</v>
+      <c r="D10" s="5">
+        <v>0.11382337146441759</v>
       </c>
       <c r="E10" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="F10" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="G10" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C11" s="5">
         <v>17258998.467498779</v>
       </c>
-      <c r="D11" s="33">
-        <v>4.68696751844003E-2</v>
+      <c r="D11" s="5">
+        <v>4.7132991612693798E-2</v>
       </c>
       <c r="E11" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="F11" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="G11" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C12" s="5">
         <v>17258998.467498779</v>
       </c>
-      <c r="D12" s="34">
+      <c r="D12" s="5">
         <v>0.37875979999999998</v>
       </c>
       <c r="E12" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="F12" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="G12" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C13" s="5">
         <v>17258998.467498779</v>
       </c>
-      <c r="D13" s="34">
+      <c r="D13" s="5">
         <v>0.25930839999999999</v>
       </c>
       <c r="E13" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="F13" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="G13" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C14" s="5">
         <v>17258998.467498779</v>
       </c>
-      <c r="D14" s="34">
-        <v>0.38494498958556933</v>
+      <c r="D14" s="43">
+        <v>0.38494498958556927</v>
+      </c>
+      <c r="E14" t="s">
+        <v>116</v>
+      </c>
+      <c r="F14" t="s">
+        <v>120</v>
+      </c>
+      <c r="G14" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="5">
+        <v>17258998.467498779</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0.1142656125628316</v>
+      </c>
+      <c r="E15" t="s">
+        <v>116</v>
+      </c>
+      <c r="F15" t="s">
+        <v>120</v>
+      </c>
+      <c r="G15" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="5">
+        <v>17258998.467498779</v>
+      </c>
+      <c r="D16" s="5">
+        <v>4.7372861166969538E-2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>116</v>
+      </c>
+      <c r="F16" t="s">
+        <v>120</v>
+      </c>
+      <c r="G16" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" s="5">
+        <v>17258998.467498779</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0.37846669999999999</v>
+      </c>
+      <c r="E17" t="s">
+        <v>117</v>
+      </c>
+      <c r="F17" t="s">
+        <v>119</v>
+      </c>
+      <c r="G17" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" s="5">
+        <v>17258998.467498779</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0.25895200000000002</v>
+      </c>
+      <c r="E18" t="s">
+        <v>117</v>
+      </c>
+      <c r="F18" t="s">
+        <v>119</v>
+      </c>
+      <c r="G18" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="5">
+        <v>17258998.467498779</v>
+      </c>
+      <c r="D19" s="43">
+        <v>0.38424248549552131</v>
+      </c>
+      <c r="E19" t="s">
+        <v>117</v>
+      </c>
+      <c r="F19" t="s">
+        <v>120</v>
+      </c>
+      <c r="G19" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" s="5">
+        <v>17258998.467498779</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0.11383077899164711</v>
+      </c>
+      <c r="E20" t="s">
+        <v>117</v>
+      </c>
+      <c r="F20" t="s">
+        <v>120</v>
+      </c>
+      <c r="G20" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" s="5">
+        <v>17258998.467498779</v>
+      </c>
+      <c r="D21" s="5">
+        <v>4.713592261593582E-2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>117</v>
+      </c>
+      <c r="F21" t="s">
+        <v>120</v>
+      </c>
+      <c r="G21" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D22" s="37"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D23" s="37"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G21" xr:uid="{00000000-0009-0000-0000-000005000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="fgt0"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:M15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L4" sqref="L4:M6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K1" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="L1" s="31" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="5">
+        <v>17258998.467498779</v>
+      </c>
+      <c r="D2" s="5">
+        <v>37.85107</v>
+      </c>
+      <c r="E2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" t="s">
+        <v>119</v>
+      </c>
+      <c r="K2" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="L2" t="s">
+        <v>106</v>
+      </c>
+      <c r="M2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="5">
+        <v>17258998.467498779</v>
+      </c>
+      <c r="D3" s="5">
+        <v>38.494498958556932</v>
+      </c>
+      <c r="E3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F3" t="s">
+        <v>120</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="L3" s="35">
+        <v>38.494498958556932</v>
+      </c>
+      <c r="M3" s="35">
+        <v>37.85107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="5">
+        <v>17258998.467498779</v>
+      </c>
+      <c r="D4" s="5">
+        <v>37.892769999999999</v>
+      </c>
+      <c r="E4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F4" t="s">
+        <v>119</v>
+      </c>
+      <c r="K4" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="L4" s="35">
+        <v>38.517863561477277</v>
+      </c>
+      <c r="M4" s="35">
+        <v>37.892769999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="5">
+        <v>17258998.467498779</v>
+      </c>
+      <c r="D5" s="5">
+        <v>38.517863561477277</v>
+      </c>
+      <c r="E5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5" t="s">
+        <v>120</v>
+      </c>
+      <c r="K5" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="L5" s="35">
+        <v>38.404654857811309</v>
+      </c>
+      <c r="M5" s="35">
+        <v>37.878869999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="5">
+        <v>17258998.467498779</v>
+      </c>
+      <c r="D6" s="5">
+        <v>37.878869999999999</v>
+      </c>
+      <c r="E6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F6" t="s">
+        <v>119</v>
+      </c>
+      <c r="K6" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="L6" s="35">
+        <v>38.387297399405682</v>
+      </c>
+      <c r="M6" s="35">
+        <v>37.838909999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="5">
+        <v>17258998.467498779</v>
+      </c>
+      <c r="D7" s="5">
+        <v>38.404654857811309</v>
+      </c>
+      <c r="E7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K7" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="L7" s="35">
+        <v>38.21461857300848</v>
+      </c>
+      <c r="M7" s="35">
+        <v>37.675579999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="5">
+        <v>17258998.467498779</v>
+      </c>
+      <c r="D8" s="5">
+        <v>37.838909999999998</v>
+      </c>
+      <c r="E8" t="s">
+        <v>129</v>
+      </c>
+      <c r="F8" t="s">
+        <v>119</v>
+      </c>
+      <c r="K8" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="L8" s="35">
+        <v>38.35563930121387</v>
+      </c>
+      <c r="M8" s="35">
+        <v>37.805140000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="5">
+        <v>17258998.467498779</v>
+      </c>
+      <c r="D9" s="5">
+        <v>38.387297399405682</v>
+      </c>
+      <c r="E9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F9" t="s">
+        <v>120</v>
+      </c>
+      <c r="K9" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="L9" s="35">
+        <v>38.091174541764062</v>
+      </c>
+      <c r="M9" s="35">
+        <v>37.590470000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="5">
+        <v>17258998.467498779</v>
+      </c>
+      <c r="D10" s="5">
+        <v>37.675579999999997</v>
+      </c>
+      <c r="E10" t="s">
+        <v>130</v>
+      </c>
+      <c r="F10" t="s">
+        <v>119</v>
+      </c>
+      <c r="K10" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="L10" s="32">
+        <v>268.46574719323758</v>
+      </c>
+      <c r="M10" s="32">
+        <v>264.53280999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="5">
+        <v>17258998.467498779</v>
+      </c>
+      <c r="D11" s="5">
+        <v>38.21461857300848</v>
+      </c>
+      <c r="E11" t="s">
+        <v>130</v>
+      </c>
+      <c r="F11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="5">
+        <v>17258998.467498779</v>
+      </c>
+      <c r="D12" s="5">
+        <v>37.805140000000002</v>
+      </c>
+      <c r="E12" t="s">
+        <v>131</v>
+      </c>
+      <c r="F12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="5">
+        <v>17258998.467498779</v>
+      </c>
+      <c r="D13" s="5">
+        <v>38.35563930121387</v>
+      </c>
+      <c r="E13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="5">
+        <v>17258998.467498779</v>
+      </c>
+      <c r="D14" s="5">
+        <v>37.590470000000003</v>
       </c>
       <c r="E14" t="s">
         <v>132</v>
       </c>
       <c r="F14" t="s">
-        <v>143</v>
-      </c>
-      <c r="G14" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="C15" s="5">
         <v>17258998.467498779</v>
       </c>
-      <c r="D15" s="34">
-        <v>0.11426561256283164</v>
+      <c r="D15" s="5">
+        <v>38.091174541764062</v>
       </c>
       <c r="E15" t="s">
         <v>132</v>
       </c>
       <c r="F15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:Z61"/>
+  <sheetViews>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="U5" sqref="U5:V14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="19" max="19" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="26" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="17" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="20.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="5">
+        <v>75.180653542331996</v>
+      </c>
+      <c r="D2" s="5">
+        <v>73.094133915972023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" s="5">
+        <v>75.180653542331996</v>
+      </c>
+      <c r="D3" s="5">
+        <v>2.8151798482079999</v>
+      </c>
+      <c r="S3" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="T3" s="31" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="5">
+        <v>75.180653542331996</v>
+      </c>
+      <c r="D4" s="5">
+        <v>10.487734142652</v>
+      </c>
+      <c r="S4" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="T4" t="s">
+        <v>135</v>
+      </c>
+      <c r="U4" t="s">
+        <v>136</v>
+      </c>
+      <c r="V4" t="s">
+        <v>137</v>
+      </c>
+      <c r="W4" t="s">
+        <v>138</v>
+      </c>
+      <c r="X4" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z4" t="s">
         <v>143</v>
       </c>
-      <c r="G15" s="5">
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="5">
+        <v>75.180653542331996</v>
+      </c>
+      <c r="D5" s="5">
+        <v>73.094133915972023</v>
+      </c>
+      <c r="S5" s="33">
+        <v>1</v>
+      </c>
+      <c r="T5" s="32">
+        <v>73.094133915972023</v>
+      </c>
+      <c r="U5" s="32">
+        <v>2.8151798482079999</v>
+      </c>
+      <c r="V5" s="32">
+        <v>10.487734142652</v>
+      </c>
+      <c r="W5" s="32">
+        <v>73.094133915972023</v>
+      </c>
+      <c r="X5" s="32">
+        <v>73.094133915972023</v>
+      </c>
+      <c r="Y5" s="32">
+        <v>73.094133915972023</v>
+      </c>
+      <c r="Z5" s="32">
+        <v>305.67944965474805</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" s="5">
+        <v>75.180653542331996</v>
+      </c>
+      <c r="D6" s="5">
+        <v>73.094133915972023</v>
+      </c>
+      <c r="S6" s="33">
+        <v>2</v>
+      </c>
+      <c r="T6" s="32">
+        <v>53.49598480371597</v>
+      </c>
+      <c r="U6" s="32">
+        <v>5.1535953672839998</v>
+      </c>
+      <c r="V6" s="32">
+        <v>16.828375390632001</v>
+      </c>
+      <c r="W6" s="32">
+        <v>53.49598480371597</v>
+      </c>
+      <c r="X6" s="32">
+        <v>53.49598480371597</v>
+      </c>
+      <c r="Y6" s="32">
+        <v>53.49598480371597</v>
+      </c>
+      <c r="Z6" s="32">
+        <v>235.96590997277988</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="5">
+        <v>75.180653542331996</v>
+      </c>
+      <c r="D7" s="5">
+        <v>73.094133915972023</v>
+      </c>
+      <c r="S7" s="33">
+        <v>3</v>
+      </c>
+      <c r="T7" s="32">
+        <v>49.53700300489205</v>
+      </c>
+      <c r="U7" s="32">
+        <v>5.6736036264959999</v>
+      </c>
+      <c r="V7" s="32">
+        <v>14.040222998723999</v>
+      </c>
+      <c r="W7" s="32">
+        <v>49.53700300489205</v>
+      </c>
+      <c r="X7" s="32">
+        <v>49.53700300489205</v>
+      </c>
+      <c r="Y7" s="32">
+        <v>49.53700300489205</v>
+      </c>
+      <c r="Z7" s="32">
+        <v>217.86183864478821</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="5">
+        <v>56.02899800815198</v>
+      </c>
+      <c r="D8" s="5">
+        <v>53.49598480371597</v>
+      </c>
+      <c r="S8" s="33">
+        <v>4</v>
+      </c>
+      <c r="T8" s="32">
+        <v>32.189700453299999</v>
+      </c>
+      <c r="U8" s="32">
+        <v>11.06504060922</v>
+      </c>
+      <c r="V8" s="32">
+        <v>13.571026357356001</v>
+      </c>
+      <c r="W8" s="32">
+        <v>32.189700453299999</v>
+      </c>
+      <c r="X8" s="32">
+        <v>32.189700453299999</v>
+      </c>
+      <c r="Y8" s="32">
+        <v>32.189700453299999</v>
+      </c>
+      <c r="Z8" s="32">
+        <v>153.39486877977598</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="5">
+        <v>56.02899800815198</v>
+      </c>
+      <c r="D9" s="5">
+        <v>5.1535953672839998</v>
+      </c>
+      <c r="S9" s="33">
+        <v>5</v>
+      </c>
+      <c r="T9" s="32">
+        <v>25.537702908743992</v>
+      </c>
+      <c r="U9" s="32">
+        <v>8.5633792540919984</v>
+      </c>
+      <c r="V9" s="32">
+        <v>11.05206743019599</v>
+      </c>
+      <c r="W9" s="32">
+        <v>25.537702908743992</v>
+      </c>
+      <c r="X9" s="32">
+        <v>25.537702908743992</v>
+      </c>
+      <c r="Y9" s="32">
+        <v>25.537702908743992</v>
+      </c>
+      <c r="Z9" s="32">
+        <v>121.76625831926397</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" s="5">
+        <v>56.02899800815198</v>
+      </c>
+      <c r="D10" s="5">
+        <v>16.828375390632001</v>
+      </c>
+      <c r="S10" s="33">
+        <v>6</v>
+      </c>
+      <c r="T10" s="32">
+        <v>21.637100415527989</v>
+      </c>
+      <c r="U10" s="32">
+        <v>11.505047597783999</v>
+      </c>
+      <c r="V10" s="32">
+        <v>8.4952700642160011</v>
+      </c>
+      <c r="W10" s="32">
+        <v>21.637100415527989</v>
+      </c>
+      <c r="X10" s="32">
+        <v>21.637100415527989</v>
+      </c>
+      <c r="Y10" s="32">
+        <v>21.637100415527989</v>
+      </c>
+      <c r="Z10" s="32">
+        <v>106.54871932411194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" s="5">
+        <v>56.02899800815198</v>
+      </c>
+      <c r="D11" s="5">
+        <v>53.49598480371597</v>
+      </c>
+      <c r="S11" s="33">
+        <v>7</v>
+      </c>
+      <c r="T11" s="32">
+        <v>16.759185102503999</v>
+      </c>
+      <c r="U11" s="32">
+        <v>11.113690030560001</v>
+      </c>
+      <c r="V11" s="32">
+        <v>12.354790823856</v>
+      </c>
+      <c r="W11" s="32">
+        <v>16.759185102503999</v>
+      </c>
+      <c r="X11" s="32">
+        <v>16.759185102503999</v>
+      </c>
+      <c r="Y11" s="32">
+        <v>16.759185102503999</v>
+      </c>
+      <c r="Z11" s="32">
+        <v>90.505221264432009</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="5">
+        <v>56.02899800815198</v>
+      </c>
+      <c r="D12" s="5">
+        <v>53.49598480371597</v>
+      </c>
+      <c r="S12" s="33">
+        <v>8</v>
+      </c>
+      <c r="T12" s="32">
+        <v>11.826133778628</v>
+      </c>
+      <c r="U12" s="32">
+        <v>16.199176207968002</v>
+      </c>
+      <c r="V12" s="32">
+        <v>4.2627704076359976</v>
+      </c>
+      <c r="W12" s="32">
+        <v>11.826133778628</v>
+      </c>
+      <c r="X12" s="32">
+        <v>11.826133778628</v>
+      </c>
+      <c r="Y12" s="32">
+        <v>11.826133778628</v>
+      </c>
+      <c r="Z12" s="32">
+        <v>67.766481730115999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13" s="5">
+        <v>56.02899800815198</v>
+      </c>
+      <c r="D13" s="5">
+        <v>53.49598480371597</v>
+      </c>
+      <c r="S13" s="33">
+        <v>9</v>
+      </c>
+      <c r="T13" s="32">
+        <v>10.542870153503999</v>
+      </c>
+      <c r="U13" s="32">
+        <v>12.147219959472</v>
+      </c>
+      <c r="V13" s="32">
+        <v>3.7405999519200002</v>
+      </c>
+      <c r="W13" s="32">
+        <v>10.542870153503999</v>
+      </c>
+      <c r="X13" s="32">
+        <v>10.542870153503999</v>
+      </c>
+      <c r="Y13" s="32">
+        <v>10.542870153503999</v>
+      </c>
+      <c r="Z13" s="32">
+        <v>58.059300525407998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" s="5">
+        <v>52.102449156888063</v>
+      </c>
+      <c r="D14" s="5">
+        <v>49.53700300489205</v>
+      </c>
+      <c r="S14" s="33">
+        <v>10</v>
+      </c>
+      <c r="T14" s="32">
+        <v>2.584905920532</v>
+      </c>
+      <c r="U14" s="32">
+        <v>14.819694838416</v>
+      </c>
+      <c r="V14" s="32">
+        <v>4.6184517325439991</v>
+      </c>
+      <c r="W14" s="32">
+        <v>2.584905920532</v>
+      </c>
+      <c r="X14" s="32">
+        <v>2.584905920532</v>
+      </c>
+      <c r="Y14" s="32">
+        <v>2.584905920532</v>
+      </c>
+      <c r="Z14" s="32">
+        <v>29.777770253088001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" s="5">
+        <v>52.102449156888063</v>
+      </c>
+      <c r="D15" s="5">
+        <v>5.6736036264959999</v>
+      </c>
+      <c r="S15" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="T15" s="32">
+        <v>297.20472045731998</v>
+      </c>
+      <c r="U15" s="32">
+        <v>99.055627339499992</v>
+      </c>
+      <c r="V15" s="32">
+        <v>99.451309299731989</v>
+      </c>
+      <c r="W15" s="32">
+        <v>297.20472045731998</v>
+      </c>
+      <c r="X15" s="32">
+        <v>297.20472045731998</v>
+      </c>
+      <c r="Y15" s="32">
+        <v>297.20472045731998</v>
+      </c>
+      <c r="Z15" s="32">
+        <v>1387.3258184685121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="C16" s="5">
-        <v>17258998.467498779</v>
-      </c>
-      <c r="D16" s="34">
-        <v>4.7372861166969538E-2</v>
-      </c>
-      <c r="E16" t="s">
-        <v>132</v>
-      </c>
-      <c r="F16" t="s">
-        <v>143</v>
-      </c>
-      <c r="G16" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>52.102449156888063</v>
+      </c>
+      <c r="D16" s="5">
+        <v>14.040222998723999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="C17" s="5">
-        <v>17258998.467498779</v>
-      </c>
-      <c r="D17" s="33">
-        <v>0.37611050000000001</v>
-      </c>
-      <c r="E17" t="s">
-        <v>133</v>
-      </c>
-      <c r="F17" t="s">
-        <v>144</v>
-      </c>
-      <c r="G17" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>52.102449156888063</v>
+      </c>
+      <c r="D17" s="5">
+        <v>49.53700300489205</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="C18" s="5">
-        <v>17258998.467498779</v>
-      </c>
-      <c r="D18" s="33">
-        <v>0.25597219999999998</v>
-      </c>
-      <c r="E18" t="s">
-        <v>133</v>
-      </c>
-      <c r="F18" t="s">
-        <v>145</v>
-      </c>
-      <c r="G18" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <v>52.102449156888063</v>
+      </c>
+      <c r="D18" s="5">
+        <v>49.53700300489205</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="C19" s="5">
-        <v>17258998.467498779</v>
-      </c>
-      <c r="D19" s="33">
-        <v>0.37684486382046378</v>
-      </c>
-      <c r="E19" t="s">
-        <v>133</v>
-      </c>
-      <c r="F19" t="s">
-        <v>146</v>
-      </c>
-      <c r="G19" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>52.102449156888063</v>
+      </c>
+      <c r="D19" s="5">
+        <v>49.53700300489205</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="C20" s="5">
-        <v>17258998.467498779</v>
-      </c>
-      <c r="D20" s="33">
-        <v>0.11067042156883028</v>
-      </c>
-      <c r="E20" t="s">
-        <v>133</v>
-      </c>
-      <c r="F20" t="s">
-        <v>146</v>
-      </c>
-      <c r="G20" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+        <v>34.595144063999982</v>
+      </c>
+      <c r="D20" s="5">
+        <v>32.189700453299999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="C21" s="5">
-        <v>17258998.467498779</v>
-      </c>
-      <c r="D21" s="33">
-        <v>4.5715251090862205E-2</v>
-      </c>
-      <c r="E21" t="s">
-        <v>133</v>
-      </c>
-      <c r="F21" t="s">
-        <v>146</v>
-      </c>
-      <c r="G21" s="5">
-        <v>1</v>
+        <v>34.595144063999982</v>
+      </c>
+      <c r="D21" s="5">
+        <v>11.06504060922</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" s="5">
+        <v>34.595144063999982</v>
+      </c>
+      <c r="D22" s="5">
+        <v>13.571026357356001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>138</v>
+      </c>
+      <c r="C23" s="5">
+        <v>34.595144063999982</v>
+      </c>
+      <c r="D23" s="5">
+        <v>32.189700453299999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>139</v>
+      </c>
+      <c r="C24" s="5">
+        <v>34.595144063999982</v>
+      </c>
+      <c r="D24" s="5">
+        <v>32.189700453299999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>140</v>
+      </c>
+      <c r="C25" s="5">
+        <v>34.595144063999982</v>
+      </c>
+      <c r="D25" s="5">
+        <v>32.189700453299999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>135</v>
+      </c>
+      <c r="C26" s="5">
+        <v>28.492344431460001</v>
+      </c>
+      <c r="D26" s="5">
+        <v>25.537702908743992</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>136</v>
+      </c>
+      <c r="C27" s="5">
+        <v>28.492344431460001</v>
+      </c>
+      <c r="D27" s="5">
+        <v>8.5633792540919984</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>137</v>
+      </c>
+      <c r="C28" s="5">
+        <v>28.492344431460001</v>
+      </c>
+      <c r="D28" s="5">
+        <v>11.05206743019599</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s">
+        <v>138</v>
+      </c>
+      <c r="C29" s="5">
+        <v>28.492344431460001</v>
+      </c>
+      <c r="D29" s="5">
+        <v>25.537702908743992</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s">
+        <v>139</v>
+      </c>
+      <c r="C30" s="5">
+        <v>28.492344431460001</v>
+      </c>
+      <c r="D30" s="5">
+        <v>25.537702908743992</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s">
+        <v>140</v>
+      </c>
+      <c r="C31" s="5">
+        <v>28.492344431460001</v>
+      </c>
+      <c r="D31" s="5">
+        <v>25.537702908743992</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>6</v>
+      </c>
+      <c r="B32" t="s">
+        <v>135</v>
+      </c>
+      <c r="C32" s="5">
+        <v>23.55713091107998</v>
+      </c>
+      <c r="D32" s="5">
+        <v>21.637100415527989</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>6</v>
+      </c>
+      <c r="B33" t="s">
+        <v>136</v>
+      </c>
+      <c r="C33" s="5">
+        <v>23.55713091107998</v>
+      </c>
+      <c r="D33" s="5">
+        <v>11.505047597783999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>6</v>
+      </c>
+      <c r="B34" t="s">
+        <v>137</v>
+      </c>
+      <c r="C34" s="5">
+        <v>23.55713091107998</v>
+      </c>
+      <c r="D34" s="5">
+        <v>8.4952700642160011</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>6</v>
+      </c>
+      <c r="B35" t="s">
+        <v>138</v>
+      </c>
+      <c r="C35" s="5">
+        <v>23.55713091107998</v>
+      </c>
+      <c r="D35" s="5">
+        <v>21.637100415527989</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>6</v>
+      </c>
+      <c r="B36" t="s">
+        <v>139</v>
+      </c>
+      <c r="C36" s="5">
+        <v>23.55713091107998</v>
+      </c>
+      <c r="D36" s="5">
+        <v>21.637100415527989</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>6</v>
+      </c>
+      <c r="B37" t="s">
+        <v>140</v>
+      </c>
+      <c r="C37" s="5">
+        <v>23.55713091107998</v>
+      </c>
+      <c r="D37" s="5">
+        <v>21.637100415527989</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>7</v>
+      </c>
+      <c r="B38" t="s">
+        <v>135</v>
+      </c>
+      <c r="C38" s="5">
+        <v>19.073816460035989</v>
+      </c>
+      <c r="D38" s="5">
+        <v>16.759185102503999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>7</v>
+      </c>
+      <c r="B39" t="s">
+        <v>136</v>
+      </c>
+      <c r="C39" s="5">
+        <v>19.073816460035989</v>
+      </c>
+      <c r="D39" s="5">
+        <v>11.113690030560001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>7</v>
+      </c>
+      <c r="B40" t="s">
+        <v>137</v>
+      </c>
+      <c r="C40" s="5">
+        <v>19.073816460035989</v>
+      </c>
+      <c r="D40" s="5">
+        <v>12.354790823856</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>7</v>
+      </c>
+      <c r="B41" t="s">
+        <v>138</v>
+      </c>
+      <c r="C41" s="5">
+        <v>19.073816460035989</v>
+      </c>
+      <c r="D41" s="5">
+        <v>16.759185102503999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <v>7</v>
+      </c>
+      <c r="B42" t="s">
+        <v>139</v>
+      </c>
+      <c r="C42" s="5">
+        <v>19.073816460035989</v>
+      </c>
+      <c r="D42" s="5">
+        <v>16.759185102503999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <v>7</v>
+      </c>
+      <c r="B43" t="s">
+        <v>140</v>
+      </c>
+      <c r="C43" s="5">
+        <v>19.073816460035989</v>
+      </c>
+      <c r="D43" s="5">
+        <v>16.759185102503999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
+        <v>8</v>
+      </c>
+      <c r="B44" t="s">
+        <v>135</v>
+      </c>
+      <c r="C44" s="5">
+        <v>12.214248051096</v>
+      </c>
+      <c r="D44" s="5">
+        <v>11.826133778628</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
+        <v>8</v>
+      </c>
+      <c r="B45" t="s">
+        <v>136</v>
+      </c>
+      <c r="C45" s="5">
+        <v>12.214248051096</v>
+      </c>
+      <c r="D45" s="5">
+        <v>16.199176207968002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
+        <v>8</v>
+      </c>
+      <c r="B46" t="s">
+        <v>137</v>
+      </c>
+      <c r="C46" s="5">
+        <v>12.214248051096</v>
+      </c>
+      <c r="D46" s="5">
+        <v>4.2627704076359976</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
+        <v>8</v>
+      </c>
+      <c r="B47" t="s">
+        <v>138</v>
+      </c>
+      <c r="C47" s="5">
+        <v>12.214248051096</v>
+      </c>
+      <c r="D47" s="5">
+        <v>11.826133778628</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
+        <v>8</v>
+      </c>
+      <c r="B48" t="s">
+        <v>139</v>
+      </c>
+      <c r="C48" s="5">
+        <v>12.214248051096</v>
+      </c>
+      <c r="D48" s="5">
+        <v>11.826133778628</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
+        <v>8</v>
+      </c>
+      <c r="B49" t="s">
+        <v>140</v>
+      </c>
+      <c r="C49" s="5">
+        <v>12.214248051096</v>
+      </c>
+      <c r="D49" s="5">
+        <v>11.826133778628</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
+        <v>9</v>
+      </c>
+      <c r="B50" t="s">
+        <v>135</v>
+      </c>
+      <c r="C50" s="5">
+        <v>11.907216147528001</v>
+      </c>
+      <c r="D50" s="5">
+        <v>10.542870153503999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
+        <v>9</v>
+      </c>
+      <c r="B51" t="s">
+        <v>136</v>
+      </c>
+      <c r="C51" s="5">
+        <v>11.907216147528001</v>
+      </c>
+      <c r="D51" s="5">
+        <v>12.147219959472</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
+        <v>9</v>
+      </c>
+      <c r="B52" t="s">
+        <v>137</v>
+      </c>
+      <c r="C52" s="5">
+        <v>11.907216147528001</v>
+      </c>
+      <c r="D52" s="5">
+        <v>3.7405999519200002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
+        <v>9</v>
+      </c>
+      <c r="B53" t="s">
+        <v>138</v>
+      </c>
+      <c r="C53" s="5">
+        <v>11.907216147528001</v>
+      </c>
+      <c r="D53" s="5">
+        <v>10.542870153503999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="5">
+        <v>9</v>
+      </c>
+      <c r="B54" t="s">
+        <v>139</v>
+      </c>
+      <c r="C54" s="5">
+        <v>11.907216147528001</v>
+      </c>
+      <c r="D54" s="5">
+        <v>10.542870153503999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="5">
+        <v>9</v>
+      </c>
+      <c r="B55" t="s">
+        <v>140</v>
+      </c>
+      <c r="C55" s="5">
+        <v>11.907216147528001</v>
+      </c>
+      <c r="D55" s="5">
+        <v>10.542870153503999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="5">
+        <v>10</v>
+      </c>
+      <c r="B56" t="s">
+        <v>135</v>
+      </c>
+      <c r="C56" s="5">
+        <v>3.2659978192920001</v>
+      </c>
+      <c r="D56" s="5">
+        <v>2.584905920532</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="5">
+        <v>10</v>
+      </c>
+      <c r="B57" t="s">
+        <v>136</v>
+      </c>
+      <c r="C57" s="5">
+        <v>3.2659978192920001</v>
+      </c>
+      <c r="D57" s="5">
+        <v>14.819694838416</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="5">
+        <v>10</v>
+      </c>
+      <c r="B58" t="s">
+        <v>137</v>
+      </c>
+      <c r="C58" s="5">
+        <v>3.2659978192920001</v>
+      </c>
+      <c r="D58" s="5">
+        <v>4.6184517325439991</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="5">
+        <v>10</v>
+      </c>
+      <c r="B59" t="s">
+        <v>138</v>
+      </c>
+      <c r="C59" s="5">
+        <v>3.2659978192920001</v>
+      </c>
+      <c r="D59" s="5">
+        <v>2.584905920532</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
+        <v>10</v>
+      </c>
+      <c r="B60" t="s">
+        <v>139</v>
+      </c>
+      <c r="C60" s="5">
+        <v>3.2659978192920001</v>
+      </c>
+      <c r="D60" s="5">
+        <v>2.584905920532</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="5">
+        <v>10</v>
+      </c>
+      <c r="B61" t="s">
+        <v>140</v>
+      </c>
+      <c r="C61" s="5">
+        <v>3.2659978192920001</v>
+      </c>
+      <c r="D61" s="5">
+        <v>2.584905920532</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/results/PNBSF_reform.xlsx
+++ b/results/PNBSF_reform.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Dropbox\Energy_Reform\SN-Energy-Reform-\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5E08E1-7179-4411-8F1E-E1555BA730DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DDF0BFF-8D9C-426F-B820-69AE05B014D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="738" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <definedName name="scenarios">[1]labels!$F$2:$F$5</definedName>
     <definedName name="Y_N">[1]labels!$AE$2:$AE$3</definedName>
   </definedNames>
-  <calcPr calcId="191029" fullCalcOnLoad="true"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="154">
   <si>
     <t>Baseline</t>
   </si>
@@ -359,274 +359,7 @@
     <t>Squared poverty gap</t>
   </si>
   <si>
-    <t>departement</t>
-  </si>
-  <si>
-    <t>benefs_0</t>
-  </si>
-  <si>
-    <t>benefs_1</t>
-  </si>
-  <si>
-    <t>benefs_2</t>
-  </si>
-  <si>
-    <t>benefs_3</t>
-  </si>
-  <si>
-    <t>benefs_4</t>
-  </si>
-  <si>
-    <t>benefs_5</t>
-  </si>
-  <si>
-    <t>benefs_6</t>
-  </si>
-  <si>
-    <t>benefs_7</t>
-  </si>
-  <si>
-    <t>benefs_8</t>
-  </si>
-  <si>
-    <t>am_BNSF_pc_0</t>
-  </si>
-  <si>
-    <t>am_BNSF_pc_1</t>
-  </si>
-  <si>
-    <t>am_BNSF_pc_2</t>
-  </si>
-  <si>
-    <t>am_BNSF_pc_3</t>
-  </si>
-  <si>
-    <t>am_BNSF_pc_4</t>
-  </si>
-  <si>
-    <t>am_BNSF_pc_5</t>
-  </si>
-  <si>
-    <t>am_BNSF_pc_6</t>
-  </si>
-  <si>
-    <t>am_BNSF_pc_7</t>
-  </si>
-  <si>
-    <t>am_BNSF_pc_8</t>
-  </si>
-  <si>
-    <t>yd_deciles_pc</t>
-  </si>
-  <si>
-    <t>benefs_0</t>
-  </si>
-  <si>
-    <t>benefs_1</t>
-  </si>
-  <si>
-    <t>benefs_2</t>
-  </si>
-  <si>
-    <t>benefs_3</t>
-  </si>
-  <si>
-    <t>benefs_4</t>
-  </si>
-  <si>
-    <t>benefs_5</t>
-  </si>
-  <si>
-    <t>benefs_6</t>
-  </si>
-  <si>
-    <t>benefs_7</t>
-  </si>
-  <si>
-    <t>benefs_8</t>
-  </si>
-  <si>
-    <t>new_benefs_1</t>
-  </si>
-  <si>
-    <t>new_benefs_2</t>
-  </si>
-  <si>
-    <t>new_benefs_3</t>
-  </si>
-  <si>
-    <t>new_benefs_4</t>
-  </si>
-  <si>
-    <t>new_benefs_5</t>
-  </si>
-  <si>
-    <t>new_benefs_6</t>
-  </si>
-  <si>
-    <t>new_benefs_7</t>
-  </si>
-  <si>
-    <t>new_benefs_8</t>
-  </si>
-  <si>
-    <t>variable</t>
-  </si>
-  <si>
-    <t>yd_pc_0</t>
-  </si>
-  <si>
-    <t>yd_pc_1</t>
-  </si>
-  <si>
-    <t>yd_pc_2</t>
-  </si>
-  <si>
-    <t>yd_pc_3</t>
-  </si>
-  <si>
-    <t>yd_pc_4</t>
-  </si>
-  <si>
-    <t>yd_pc_5</t>
-  </si>
-  <si>
-    <t>yd_pc_6</t>
-  </si>
-  <si>
-    <t>yd_pc_7</t>
-  </si>
-  <si>
-    <t>yd_pc_8</t>
-  </si>
-  <si>
-    <t>valuefgt0</t>
-  </si>
-  <si>
-    <t>valuefgt1</t>
-  </si>
-  <si>
-    <t>valuefgt2</t>
-  </si>
-  <si>
-    <t>valuegini</t>
-  </si>
-  <si>
-    <t>valuetheil</t>
-  </si>
-  <si>
     <t>Average transfer_pc per household</t>
-  </si>
-  <si>
-    <t>departement</t>
-  </si>
-  <si>
-    <t>benefs_0</t>
-  </si>
-  <si>
-    <t>benefs_1</t>
-  </si>
-  <si>
-    <t>benefs_2</t>
-  </si>
-  <si>
-    <t>benefs_3</t>
-  </si>
-  <si>
-    <t>benefs_4</t>
-  </si>
-  <si>
-    <t>benefs_5</t>
-  </si>
-  <si>
-    <t>benefs_6</t>
-  </si>
-  <si>
-    <t>benefs_7</t>
-  </si>
-  <si>
-    <t>benefs_8</t>
-  </si>
-  <si>
-    <t>am_BNSF_pc_0</t>
-  </si>
-  <si>
-    <t>am_BNSF_pc_1</t>
-  </si>
-  <si>
-    <t>am_BNSF_pc_2</t>
-  </si>
-  <si>
-    <t>am_BNSF_pc_3</t>
-  </si>
-  <si>
-    <t>am_BNSF_pc_4</t>
-  </si>
-  <si>
-    <t>am_BNSF_pc_5</t>
-  </si>
-  <si>
-    <t>am_BNSF_pc_6</t>
-  </si>
-  <si>
-    <t>am_BNSF_pc_7</t>
-  </si>
-  <si>
-    <t>am_BNSF_pc_8</t>
-  </si>
-  <si>
-    <t>yd_deciles_pc</t>
-  </si>
-  <si>
-    <t>benefs_0</t>
-  </si>
-  <si>
-    <t>benefs_1</t>
-  </si>
-  <si>
-    <t>benefs_2</t>
-  </si>
-  <si>
-    <t>benefs_3</t>
-  </si>
-  <si>
-    <t>benefs_4</t>
-  </si>
-  <si>
-    <t>benefs_5</t>
-  </si>
-  <si>
-    <t>benefs_6</t>
-  </si>
-  <si>
-    <t>benefs_7</t>
-  </si>
-  <si>
-    <t>benefs_8</t>
-  </si>
-  <si>
-    <t>new_benefs_1</t>
-  </si>
-  <si>
-    <t>new_benefs_2</t>
-  </si>
-  <si>
-    <t>new_benefs_3</t>
-  </si>
-  <si>
-    <t>new_benefs_4</t>
-  </si>
-  <si>
-    <t>new_benefs_5</t>
-  </si>
-  <si>
-    <t>new_benefs_6</t>
-  </si>
-  <si>
-    <t>new_benefs_7</t>
-  </si>
-  <si>
-    <t>new_benefs_8</t>
   </si>
   <si>
     <t>departement</t>
@@ -789,12 +522,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="0.000"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="0.0000"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -814,7 +548,7 @@
     <font>
       <b/>
       <sz val="16"/>
-      <color theme="8" tint="-0.49995422223579"/>
+      <color theme="8" tint="-0.49995422223578601"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -879,7 +613,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1061,254 +795,239 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyProtection="true">
-      <protection locked="false"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="false"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyProtection="true">
-      <protection locked="false"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-      <protection locked="false"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-      <protection locked="false"/>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-      <protection locked="false"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="false"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="false"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="false"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyProtection="true">
-      <protection locked="false"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyProtection="true">
-      <protection locked="false"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyProtection="true">
-      <protection locked="false"/>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyProtection="true">
-      <protection locked="false"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="37" fontId="4" fillId="2" borderId="4" xfId="2" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="false"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="false"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="false"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="false"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-      <protection locked="false"/>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-      <protection locked="false"/>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-      <protection locked="false"/>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="false"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true"/>
-    <xf numFmtId="37" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="37" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="true"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="true"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="false"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="17" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-      <protection locked="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="false"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1571,13 +1290,13 @@
                   <c:v>5.1535953672839998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.6736036264960008</c:v>
+                  <c:v>5.6736036264959999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.728819052848003</c:v>
+                  <c:v>10.728819052847999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.6444616229919973</c:v>
+                  <c:v>8.6444616229919991</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>11.881269789480001</c:v>
@@ -1586,13 +1305,13 @@
                   <c:v>11.685591005867998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.975388869803998</c:v>
+                  <c:v>15.975388869803997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.326682269304001</c:v>
+                  <c:v>12.326682269303999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14.819694838415998</c:v>
+                  <c:v>14.819694838416002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1810,25 +1529,25 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>10.799090439227999</c:v>
+                  <c:v>10.799090439228005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16.894322384004003</c:v>
+                  <c:v>16.894322384003992</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.300767677456005</c:v>
+                  <c:v>14.300767677456003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.449943353131996</c:v>
+                  <c:v>13.449943353131999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.495317713515998</c:v>
+                  <c:v>11.495317713515995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.4952700642159975</c:v>
+                  <c:v>8.4952700642160011</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.354790823855998</c:v>
+                  <c:v>12.354790823856002</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>4.2627704076359993</c:v>
@@ -12607,7 +12326,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -12625,7 +12344,7 @@
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
-            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2894BB0-8CB1-601E-966C-590ABF4E3FFF}"/>
             </a:ext>
           </a:extLst>
@@ -12661,7 +12380,7 @@
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="Gráfico 3">
           <a:extLst>
-            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01079B0E-460B-BCD3-5D2B-428732F49250}"/>
             </a:ext>
           </a:extLst>
@@ -12697,7 +12416,7 @@
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="5" name="Gráfico 4">
           <a:extLst>
-            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99CFC2F9-2177-4F03-A423-612958DE2601}"/>
             </a:ext>
           </a:extLst>
@@ -12735,7 +12454,7 @@
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="7" name="Gráfico 6">
           <a:extLst>
-            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F080F8B8-BBCE-4283-B8DA-76BF482B1C89}"/>
             </a:ext>
           </a:extLst>
@@ -12773,7 +12492,7 @@
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="8" name="Gráfico 7">
           <a:extLst>
-            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11A23F4B-4546-428B-95ED-5B9E8E865D09}"/>
             </a:ext>
           </a:extLst>
@@ -12811,7 +12530,7 @@
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="9" name="Gráfico 8">
           <a:extLst>
-            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53175F82-9BFA-435D-AB56-D46BC3184FCE}"/>
             </a:ext>
           </a:extLst>
@@ -12836,7 +12555,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -12854,7 +12573,7 @@
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
-            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3164A08-672B-F2D9-8BB7-9876B7129824}"/>
             </a:ext>
           </a:extLst>
@@ -12890,7 +12609,7 @@
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
-            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72E1719D-8C7A-5CB8-174F-BF5377535983}"/>
             </a:ext>
           </a:extLst>
@@ -12926,7 +12645,7 @@
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="Gráfico 3">
           <a:extLst>
-            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD6A51AE-5D89-4906-8717-F63542A5F990}"/>
             </a:ext>
           </a:extLst>
@@ -13593,23 +13312,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D94C01F2-7AD2-42D6-B650-F6FE26161B77}">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="true" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" style="24" customWidth="true"/>
+    <col min="1" max="1" width="28.33203125" style="24" customWidth="1"/>
     <col min="2" max="16384" width="10.88671875" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" x14ac:dyDescent="0.3">
-      <c r="F1" s="65" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F1" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="67"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="64"/>
     </row>
-    <row r="2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B2" s="44" t="s">
         <v>98</v>
       </c>
@@ -13635,7 +13356,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
         <v>0</v>
       </c>
@@ -13660,7 +13381,7 @@
       <c r="H3" s="31"/>
       <c r="I3" s="32"/>
     </row>
-    <row r="4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>97</v>
       </c>
@@ -13697,7 +13418,7 @@
         <v>-5.4669999999994445E-2</v>
       </c>
     </row>
-    <row r="5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>96</v>
       </c>
@@ -13734,7 +13455,7 @@
         <v>-1.4189999999999259E-2</v>
       </c>
     </row>
-    <row r="6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>84</v>
       </c>
@@ -13771,7 +13492,7 @@
         <v>-0.21719000000000221</v>
       </c>
     </row>
-    <row r="7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>85</v>
       </c>
@@ -13808,7 +13529,7 @@
         <v>-8.762999999999721E-2</v>
       </c>
     </row>
-    <row r="8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>86</v>
       </c>
@@ -13845,7 +13566,7 @@
         <v>-0.16344999999999743</v>
       </c>
     </row>
-    <row r="9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>87</v>
       </c>
@@ -13882,7 +13603,7 @@
         <v>-0.10680999999999585</v>
       </c>
     </row>
-    <row r="10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>88</v>
       </c>
@@ -13919,7 +13640,7 @@
         <v>-0.37842999999999449</v>
       </c>
     </row>
-    <row r="11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="38" t="s">
         <v>89</v>
       </c>
@@ -13956,23 +13677,23 @@
         <v>-0.32157000000000124</v>
       </c>
     </row>
-    <row r="14" x14ac:dyDescent="0.3">
-      <c r="B14" s="68" t="s">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B14" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="70"/>
-      <c r="L14" s="71" t="s">
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="67"/>
+      <c r="L14" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="M14" s="71"/>
+      <c r="M14" s="68"/>
     </row>
-    <row r="15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="48" t="s">
         <v>91</v>
       </c>
@@ -14007,13 +13728,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="49" t="s">
         <v>94</v>
       </c>
       <c r="B16" s="29">
         <f>benefs_by_decile!K2/1000</f>
-        <v>10.799090439227999</v>
+        <v>10.799090439228005</v>
       </c>
       <c r="C16" s="29">
         <f>benefs_by_decile!L2/1000</f>
@@ -14029,7 +13750,7 @@
       </c>
       <c r="F16" s="29">
         <f>benefs_by_decile!O2/1000</f>
-        <v>10.799090439227999</v>
+        <v>10.799090439228005</v>
       </c>
       <c r="G16" s="29">
         <f>benefs_by_decile!P2/1000</f>
@@ -14037,7 +13758,7 @@
       </c>
       <c r="H16" s="29">
         <f>benefs_by_decile!Q2/1000</f>
-        <v>10.799090439227999</v>
+        <v>10.799090439228005</v>
       </c>
       <c r="I16" s="50">
         <f>benefs_by_decile!R2/1000</f>
@@ -14055,13 +13776,13 @@
         <v>0.24668108108108111</v>
       </c>
     </row>
-    <row r="17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="51">
         <v>2</v>
       </c>
       <c r="B17" s="34">
         <f>benefs_by_decile!K3/1000</f>
-        <v>16.894322384004003</v>
+        <v>16.894322384003992</v>
       </c>
       <c r="C17" s="34">
         <f>benefs_by_decile!L3/1000</f>
@@ -14077,7 +13798,7 @@
       </c>
       <c r="F17" s="34">
         <f>benefs_by_decile!O3/1000</f>
-        <v>16.894322384004003</v>
+        <v>16.894322384003992</v>
       </c>
       <c r="G17" s="34">
         <f>benefs_by_decile!P3/1000</f>
@@ -14085,7 +13806,7 @@
       </c>
       <c r="H17" s="34">
         <f>benefs_by_decile!Q3/1000</f>
-        <v>16.894322384004003</v>
+        <v>16.894322384003992</v>
       </c>
       <c r="I17" s="52">
         <f>benefs_by_decile!R3/1000</f>
@@ -14096,24 +13817,24 @@
       </c>
       <c r="L17" s="39">
         <f>SUM(B16:B19)</f>
-        <v>55.444123853820003</v>
+        <v>55.444123853819995</v>
       </c>
       <c r="M17" s="54">
         <f>SUM(C16:C19)</f>
-        <v>24.668499914136003</v>
+        <v>24.668499914136</v>
       </c>
     </row>
-    <row r="18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="51">
         <v>3</v>
       </c>
       <c r="B18" s="34">
         <f>benefs_by_decile!K4/1000</f>
-        <v>14.300767677456005</v>
+        <v>14.300767677456003</v>
       </c>
       <c r="C18" s="34">
         <f>benefs_by_decile!L4/1000</f>
-        <v>5.6736036264960008</v>
+        <v>5.6736036264959999</v>
       </c>
       <c r="D18" s="34">
         <f>benefs_by_decile!M4/1000</f>
@@ -14125,32 +13846,32 @@
       </c>
       <c r="F18" s="34">
         <f>benefs_by_decile!O4/1000</f>
-        <v>14.300767677456005</v>
+        <v>14.300767677456003</v>
       </c>
       <c r="G18" s="34">
         <f>benefs_by_decile!P4/1000</f>
-        <v>5.6736036264960008</v>
+        <v>5.6736036264959999</v>
       </c>
       <c r="H18" s="34">
         <f>benefs_by_decile!Q4/1000</f>
-        <v>14.300767677456005</v>
+        <v>14.300767677456003</v>
       </c>
       <c r="I18" s="52">
         <f>benefs_by_decile!R4/1000</f>
-        <v>5.6736036264960008</v>
+        <v>5.6736036264959999</v>
       </c>
     </row>
-    <row r="19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="51">
         <v>4</v>
       </c>
       <c r="B19" s="34">
         <f>benefs_by_decile!K5/1000</f>
-        <v>13.449943353131996</v>
+        <v>13.449943353131999</v>
       </c>
       <c r="C19" s="34">
         <f>benefs_by_decile!L5/1000</f>
-        <v>10.728819052848003</v>
+        <v>10.728819052847999</v>
       </c>
       <c r="D19" s="34">
         <f>benefs_by_decile!M5/1000</f>
@@ -14162,32 +13883,32 @@
       </c>
       <c r="F19" s="34">
         <f>benefs_by_decile!O5/1000</f>
-        <v>13.449943353131996</v>
+        <v>13.449943353131999</v>
       </c>
       <c r="G19" s="34">
         <f>benefs_by_decile!P5/1000</f>
-        <v>10.728819052848003</v>
+        <v>10.728819052847999</v>
       </c>
       <c r="H19" s="34">
         <f>benefs_by_decile!Q5/1000</f>
-        <v>13.449943353131996</v>
+        <v>13.449943353131999</v>
       </c>
       <c r="I19" s="52">
         <f>benefs_by_decile!R5/1000</f>
-        <v>10.728819052848003</v>
+        <v>10.728819052847999</v>
       </c>
     </row>
-    <row r="20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="51">
         <v>5</v>
       </c>
       <c r="B20" s="34">
         <f>benefs_by_decile!K6/1000</f>
-        <v>11.495317713515998</v>
+        <v>11.495317713515995</v>
       </c>
       <c r="C20" s="34">
         <f>benefs_by_decile!L6/1000</f>
-        <v>8.6444616229919973</v>
+        <v>8.6444616229919991</v>
       </c>
       <c r="D20" s="34">
         <f>benefs_by_decile!M6/1000</f>
@@ -14199,28 +13920,28 @@
       </c>
       <c r="F20" s="34">
         <f>benefs_by_decile!O6/1000</f>
-        <v>11.495317713515998</v>
+        <v>11.495317713515995</v>
       </c>
       <c r="G20" s="34">
         <f>benefs_by_decile!P6/1000</f>
-        <v>8.6444616229919973</v>
+        <v>8.6444616229919991</v>
       </c>
       <c r="H20" s="34">
         <f>benefs_by_decile!Q6/1000</f>
-        <v>11.495317713515998</v>
+        <v>11.495317713515995</v>
       </c>
       <c r="I20" s="52">
         <f>benefs_by_decile!R6/1000</f>
-        <v>8.6444616229919973</v>
+        <v>8.6444616229919991</v>
       </c>
     </row>
-    <row r="21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="51">
         <v>6</v>
       </c>
       <c r="B21" s="34">
         <f>benefs_by_decile!K7/1000</f>
-        <v>8.4952700642159975</v>
+        <v>8.4952700642160011</v>
       </c>
       <c r="C21" s="34">
         <f>benefs_by_decile!L7/1000</f>
@@ -14236,7 +13957,7 @@
       </c>
       <c r="F21" s="34">
         <f>benefs_by_decile!O7/1000</f>
-        <v>8.4952700642159975</v>
+        <v>8.4952700642160011</v>
       </c>
       <c r="G21" s="34">
         <f>benefs_by_decile!P7/1000</f>
@@ -14244,20 +13965,20 @@
       </c>
       <c r="H21" s="34">
         <f>benefs_by_decile!Q7/1000</f>
-        <v>8.4952700642159975</v>
+        <v>8.4952700642160011</v>
       </c>
       <c r="I21" s="52">
         <f>benefs_by_decile!R7/1000</f>
         <v>11.881269789480001</v>
       </c>
     </row>
-    <row r="22" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="51">
         <v>7</v>
       </c>
       <c r="B22" s="34">
         <f>benefs_by_decile!K8/1000</f>
-        <v>12.354790823855998</v>
+        <v>12.354790823856002</v>
       </c>
       <c r="C22" s="34">
         <f>benefs_by_decile!L8/1000</f>
@@ -14273,7 +13994,7 @@
       </c>
       <c r="F22" s="34">
         <f>benefs_by_decile!O8/1000</f>
-        <v>12.354790823855998</v>
+        <v>12.354790823856002</v>
       </c>
       <c r="G22" s="34">
         <f>benefs_by_decile!P8/1000</f>
@@ -14281,14 +14002,14 @@
       </c>
       <c r="H22" s="34">
         <f>benefs_by_decile!Q8/1000</f>
-        <v>12.354790823855998</v>
+        <v>12.354790823856002</v>
       </c>
       <c r="I22" s="52">
         <f>benefs_by_decile!R8/1000</f>
         <v>11.685591005867998</v>
       </c>
     </row>
-    <row r="23" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="51">
         <v>8</v>
       </c>
@@ -14298,7 +14019,7 @@
       </c>
       <c r="C23" s="34">
         <f>benefs_by_decile!L9/1000</f>
-        <v>15.975388869803998</v>
+        <v>15.975388869803997</v>
       </c>
       <c r="D23" s="34">
         <f>benefs_by_decile!M9/1000</f>
@@ -14314,7 +14035,7 @@
       </c>
       <c r="G23" s="34">
         <f>benefs_by_decile!P9/1000</f>
-        <v>15.975388869803998</v>
+        <v>15.975388869803997</v>
       </c>
       <c r="H23" s="34">
         <f>benefs_by_decile!Q9/1000</f>
@@ -14322,10 +14043,10 @@
       </c>
       <c r="I23" s="52">
         <f>benefs_by_decile!R9/1000</f>
-        <v>15.975388869803998</v>
+        <v>15.975388869803997</v>
       </c>
     </row>
-    <row r="24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="51">
         <v>9</v>
       </c>
@@ -14335,7 +14056,7 @@
       </c>
       <c r="C24" s="34">
         <f>benefs_by_decile!L10/1000</f>
-        <v>12.326682269304001</v>
+        <v>12.326682269303999</v>
       </c>
       <c r="D24" s="34">
         <f>benefs_by_decile!M10/1000</f>
@@ -14351,7 +14072,7 @@
       </c>
       <c r="G24" s="34">
         <f>benefs_by_decile!P10/1000</f>
-        <v>12.326682269304001</v>
+        <v>12.326682269303999</v>
       </c>
       <c r="H24" s="34">
         <f>benefs_by_decile!Q10/1000</f>
@@ -14359,10 +14080,10 @@
       </c>
       <c r="I24" s="52">
         <f>benefs_by_decile!R10/1000</f>
-        <v>12.326682269304001</v>
+        <v>12.326682269303999</v>
       </c>
     </row>
-    <row r="25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="53" t="s">
         <v>95</v>
       </c>
@@ -14372,7 +14093,7 @@
       </c>
       <c r="C25" s="40">
         <f>benefs_by_decile!L11/1000</f>
-        <v>14.819694838415998</v>
+        <v>14.819694838416002</v>
       </c>
       <c r="D25" s="40">
         <f>benefs_by_decile!M11/1000</f>
@@ -14388,7 +14109,7 @@
       </c>
       <c r="G25" s="40">
         <f>benefs_by_decile!P11/1000</f>
-        <v>14.819694838415998</v>
+        <v>14.819694838416002</v>
       </c>
       <c r="H25" s="40">
         <f>benefs_by_decile!Q11/1000</f>
@@ -14396,17 +14117,17 @@
       </c>
       <c r="I25" s="54">
         <f>benefs_by_decile!R11/1000</f>
-        <v>14.819694838415998</v>
+        <v>14.819694838416002</v>
       </c>
     </row>
-    <row r="26" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B26" s="59">
         <f>SUM(B16:B25)</f>
         <v>100.494569112912</v>
       </c>
       <c r="C26" s="60">
         <f>SUM(C16:C25)</f>
-        <v>100.00158831</v>
+        <v>100.00158830999999</v>
       </c>
       <c r="D26" s="25"/>
       <c r="E26" s="25"/>
@@ -14415,7 +14136,7 @@
       <c r="H26" s="25"/>
       <c r="I26" s="25"/>
     </row>
-    <row r="27" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B27" s="26"/>
       <c r="C27" s="26"/>
     </row>
@@ -14441,41 +14162,41 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.6640625" customWidth="true"/>
-    <col min="2" max="2" width="29.44140625" bestFit="true" customWidth="true"/>
-    <col min="4" max="4" width="15" customWidth="true"/>
-    <col min="5" max="5" width="14.33203125" bestFit="true" customWidth="true"/>
-    <col min="6" max="6" width="22.21875" customWidth="true"/>
-    <col min="7" max="11" width="24.109375" customWidth="true"/>
+    <col min="1" max="1" width="1.6640625" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.21875" customWidth="1"/>
+    <col min="7" max="11" width="24.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="20.4" x14ac:dyDescent="0.35">
-      <c r="B2" s="72" t="s">
+    <row r="2" spans="2:12" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="B2" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
       <c r="F2" s="18"/>
     </row>
-    <row r="3" ht="15" thickBot="true" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
       <c r="D3" s="1"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="73" t="s">
+      <c r="G3" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="74"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="73" t="s">
+      <c r="H3" s="71"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="74"/>
-      <c r="L3" s="75"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="72"/>
     </row>
-    <row r="4" ht="28.2" thickTop="true" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" ht="42" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
@@ -14495,7 +14216,7 @@
         <v>80</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>153</v>
+        <v>101</v>
       </c>
       <c r="I4" s="22" t="s">
         <v>79</v>
@@ -14504,13 +14225,13 @@
         <v>80</v>
       </c>
       <c r="K4" s="21" t="s">
-        <v>153</v>
+        <v>101</v>
       </c>
       <c r="L4" s="22" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
@@ -14552,7 +14273,7 @@
         <v>8515.8109310040018</v>
       </c>
     </row>
-    <row r="6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
@@ -14594,7 +14315,7 @@
         <v>3390.3241182720012</v>
       </c>
     </row>
-    <row r="7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
@@ -14636,7 +14357,7 @@
         <v>1608.6741989760003</v>
       </c>
     </row>
-    <row r="8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
@@ -14678,7 +14399,7 @@
         <v>2000.0317662000007</v>
       </c>
     </row>
-    <row r="9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
         <v>14</v>
       </c>
@@ -14718,7 +14439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>15</v>
       </c>
@@ -14760,7 +14481,7 @@
         <v>3393.5674130279967</v>
       </c>
     </row>
-    <row r="11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>16</v>
       </c>
@@ -14802,7 +14523,7 @@
         <v>642.17236168800036</v>
       </c>
     </row>
-    <row r="12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>17</v>
       </c>
@@ -14844,7 +14565,7 @@
         <v>1432.4551838999987</v>
       </c>
     </row>
-    <row r="13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>18</v>
       </c>
@@ -14884,7 +14605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>19</v>
       </c>
@@ -14926,7 +14647,7 @@
         <v>638.9290669320003</v>
       </c>
     </row>
-    <row r="15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
         <v>20</v>
       </c>
@@ -14968,7 +14689,7 @@
         <v>1230.2898107760002</v>
       </c>
     </row>
-    <row r="16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>21</v>
       </c>
@@ -15010,7 +14731,7 @@
         <v>2470.3095058199997</v>
       </c>
     </row>
-    <row r="17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>22</v>
       </c>
@@ -15050,7 +14771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
         <v>23</v>
       </c>
@@ -15092,7 +14813,7 @@
         <v>2027.0592224999991</v>
       </c>
     </row>
-    <row r="19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
         <v>24</v>
       </c>
@@ -15134,7 +14855,7 @@
         <v>2436.7954600079993</v>
       </c>
     </row>
-    <row r="20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
         <v>25</v>
       </c>
@@ -15176,7 +14897,7 @@
         <v>830.28345753600001</v>
       </c>
     </row>
-    <row r="21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>26</v>
       </c>
@@ -15216,7 +14937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
         <v>27</v>
       </c>
@@ -15258,7 +14979,7 @@
         <v>303.78860881199989</v>
       </c>
     </row>
-    <row r="23" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
         <v>28</v>
       </c>
@@ -15300,7 +15021,7 @@
         <v>7888.7739448440043</v>
       </c>
     </row>
-    <row r="24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
         <v>29</v>
       </c>
@@ -15342,7 +15063,7 @@
         <v>314.59959133200005</v>
       </c>
     </row>
-    <row r="25" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
         <v>30</v>
       </c>
@@ -15384,7 +15105,7 @@
         <v>2183.8184690400003</v>
       </c>
     </row>
-    <row r="26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>31</v>
       </c>
@@ -15424,7 +15145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B27" s="3" t="s">
         <v>32</v>
       </c>
@@ -15466,7 +15187,7 @@
         <v>4954.6732889159921</v>
       </c>
     </row>
-    <row r="28" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
         <v>33</v>
       </c>
@@ -15508,7 +15229,7 @@
         <v>4060.605034512002</v>
       </c>
     </row>
-    <row r="29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B29" s="3" t="s">
         <v>34</v>
       </c>
@@ -15550,7 +15271,7 @@
         <v>442.16918506799993</v>
       </c>
     </row>
-    <row r="30" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>35</v>
       </c>
@@ -15590,7 +15311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
         <v>36</v>
       </c>
@@ -15632,7 +15353,7 @@
         <v>5180.622823583999</v>
       </c>
     </row>
-    <row r="32" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B32" s="3" t="s">
         <v>37</v>
       </c>
@@ -15674,7 +15395,7 @@
         <v>3197.8886294159984</v>
       </c>
     </row>
-    <row r="33" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B33" s="3" t="s">
         <v>38</v>
       </c>
@@ -15716,7 +15437,7 @@
         <v>5058.4587211079979</v>
       </c>
     </row>
-    <row r="34" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>39</v>
       </c>
@@ -15756,7 +15477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B35" s="3" t="s">
         <v>40</v>
       </c>
@@ -15798,7 +15519,7 @@
         <v>707.03825680799991</v>
       </c>
     </row>
-    <row r="36" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B36" s="3" t="s">
         <v>41</v>
       </c>
@@ -15840,7 +15561,7 @@
         <v>1660.5669150719996</v>
       </c>
     </row>
-    <row r="37" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B37" s="3" t="s">
         <v>42</v>
       </c>
@@ -15882,7 +15603,7 @@
         <v>1305.9666884160006</v>
       </c>
     </row>
-    <row r="38" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>43</v>
       </c>
@@ -15922,7 +15643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B39" s="3" t="s">
         <v>44</v>
       </c>
@@ -15964,7 +15685,7 @@
         <v>3198.9697276679981</v>
       </c>
     </row>
-    <row r="40" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B40" s="3" t="s">
         <v>45</v>
       </c>
@@ -16006,7 +15727,7 @@
         <v>3806.546945291997</v>
       </c>
     </row>
-    <row r="41" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B41" s="3" t="s">
         <v>46</v>
       </c>
@@ -16048,7 +15769,7 @@
         <v>372.97889694000014</v>
       </c>
     </row>
-    <row r="42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>47</v>
       </c>
@@ -16088,7 +15809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B43" s="3" t="s">
         <v>48</v>
       </c>
@@ -16130,7 +15851,7 @@
         <v>3101.6708849879979</v>
       </c>
     </row>
-    <row r="44" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B44" s="3" t="s">
         <v>49</v>
       </c>
@@ -16172,7 +15893,7 @@
         <v>5646.5761701959891</v>
       </c>
     </row>
-    <row r="45" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B45" s="3" t="s">
         <v>50</v>
       </c>
@@ -16214,7 +15935,7 @@
         <v>2502.7424533799986</v>
       </c>
     </row>
-    <row r="46" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>51</v>
       </c>
@@ -16254,7 +15975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B47" s="3" t="s">
         <v>52</v>
       </c>
@@ -16296,7 +16017,7 @@
         <v>1384.8868608119997</v>
       </c>
     </row>
-    <row r="48" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B48" s="3" t="s">
         <v>53</v>
       </c>
@@ -16338,7 +16059,7 @@
         <v>766.49866066799996</v>
       </c>
     </row>
-    <row r="49" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B49" s="3" t="s">
         <v>54</v>
       </c>
@@ -16380,7 +16101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>55</v>
       </c>
@@ -16420,7 +16141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B51" s="3" t="s">
         <v>56</v>
       </c>
@@ -16462,7 +16183,7 @@
         <v>1448.67165768</v>
       </c>
     </row>
-    <row r="52" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B52" s="3" t="s">
         <v>57</v>
       </c>
@@ -16504,7 +16225,7 @@
         <v>456.22346234400015</v>
       </c>
     </row>
-    <row r="53" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B53" s="3" t="s">
         <v>58</v>
       </c>
@@ -16546,7 +16267,7 @@
         <v>1945.976853600001</v>
       </c>
     </row>
-    <row r="54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B54" s="3" t="s">
         <v>59</v>
       </c>
@@ -16588,7 +16309,7 @@
         <v>1261.6416600839993</v>
       </c>
     </row>
-    <row r="55" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
         <v>60</v>
       </c>
@@ -16628,7 +16349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B56" s="3" t="s">
         <v>61</v>
       </c>
@@ -16670,7 +16391,7 @@
         <v>916.77131769600101</v>
       </c>
     </row>
-    <row r="57" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B57" s="3" t="s">
         <v>62</v>
       </c>
@@ -16712,7 +16433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B58" s="3" t="s">
         <v>63</v>
       </c>
@@ -16754,7 +16475,7 @@
         <v>989.20490057999859</v>
       </c>
     </row>
-    <row r="59" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
         <v>64</v>
       </c>
@@ -16794,7 +16515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B60" s="3" t="s">
         <v>65</v>
       </c>
@@ -16836,7 +16557,7 @@
         <v>3838.9798928519995</v>
       </c>
     </row>
-    <row r="61" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B61" s="3" t="s">
         <v>66</v>
       </c>
@@ -16878,7 +16599,7 @@
         <v>340.54594938000014</v>
       </c>
     </row>
-    <row r="62" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B62" s="3" t="s">
         <v>67</v>
       </c>
@@ -16920,7 +16641,7 @@
         <v>640.01016518399956</v>
       </c>
     </row>
-    <row r="63" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B63" s="11" t="s">
         <v>68</v>
       </c>
@@ -16957,7 +16678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B64" s="13" t="s">
         <v>69</v>
       </c>
@@ -17015,15 +16736,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="12.88671875" bestFit="true" customWidth="true"/>
-    <col min="4" max="6" width="6.109375" bestFit="true" customWidth="true"/>
-    <col min="7" max="7" width="12" bestFit="true" customWidth="true"/>
-    <col min="8" max="8" width="6.88671875" bestFit="true" customWidth="true"/>
-    <col min="9" max="9" width="19.77734375" bestFit="true" customWidth="true"/>
-    <col min="10" max="10" width="21.6640625" bestFit="true" customWidth="true"/>
+    <col min="1" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>70</v>
       </c>
@@ -17055,7 +16776,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="17">
         <v>1.0269999999999999</v>
       </c>
@@ -17097,75 +16818,77 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:S46"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" bestFit="true" customWidth="true"/>
-    <col min="2" max="10" width="8.6640625" customWidth="true"/>
-    <col min="11" max="19" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="8.6640625" customWidth="1"/>
+    <col min="11" max="19" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>191</v>
+        <v>102</v>
       </c>
       <c r="B1" t="s">
-        <v>192</v>
+        <v>103</v>
       </c>
       <c r="C1" t="s">
-        <v>193</v>
+        <v>104</v>
       </c>
       <c r="D1" t="s">
-        <v>194</v>
+        <v>105</v>
       </c>
       <c r="E1" t="s">
-        <v>195</v>
+        <v>106</v>
       </c>
       <c r="F1" t="s">
-        <v>196</v>
+        <v>107</v>
       </c>
       <c r="G1" t="s">
-        <v>197</v>
+        <v>108</v>
       </c>
       <c r="H1" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="I1" t="s">
-        <v>199</v>
+        <v>110</v>
       </c>
       <c r="J1" t="s">
-        <v>200</v>
+        <v>111</v>
       </c>
       <c r="K1" t="s">
-        <v>201</v>
+        <v>112</v>
       </c>
       <c r="L1" t="s">
-        <v>202</v>
+        <v>113</v>
       </c>
       <c r="M1" t="s">
-        <v>203</v>
+        <v>114</v>
       </c>
       <c r="N1" t="s">
-        <v>204</v>
+        <v>115</v>
       </c>
       <c r="O1" t="s">
-        <v>205</v>
+        <v>116</v>
       </c>
       <c r="P1" t="s">
-        <v>206</v>
+        <v>117</v>
       </c>
       <c r="Q1" t="s">
-        <v>207</v>
+        <v>118</v>
       </c>
       <c r="R1" t="s">
-        <v>208</v>
+        <v>119</v>
       </c>
       <c r="S1" t="s">
-        <v>209</v>
+        <v>120</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>11</v>
       </c>
@@ -17224,7 +16947,7 @@
         <v>43870.930466091224</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>12</v>
       </c>
@@ -17283,7 +17006,7 @@
         <v>21006.187611311125</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>13</v>
       </c>
@@ -17342,7 +17065,7 @@
         <v>19851.744836795864</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>14</v>
       </c>
@@ -17401,7 +17124,7 @@
         <v>23254.242170975234</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>21</v>
       </c>
@@ -17460,7 +17183,7 @@
         <v>25563.578317271058</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>22</v>
       </c>
@@ -17519,7 +17242,7 @@
         <v>46684.897959183654</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>23</v>
       </c>
@@ -17578,7 +17301,7 @@
         <v>24750.232612623422</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>31</v>
       </c>
@@ -17637,7 +17360,7 @@
         <v>21978.751035498142</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>32</v>
       </c>
@@ -17696,7 +17419,7 @@
         <v>13428.966366270439</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>33</v>
       </c>
@@ -17755,7 +17478,7 @@
         <v>18473.774449255507</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>41</v>
       </c>
@@ -17814,7 +17537,7 @@
         <v>26602.624039291448</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>42</v>
       </c>
@@ -17873,7 +17596,7 @@
         <v>20951.790575714997</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>43</v>
       </c>
@@ -17932,7 +17655,7 @@
         <v>18358.29130507951</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>51</v>
       </c>
@@ -17991,7 +17714,7 @@
         <v>28210.989368674229</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>52</v>
       </c>
@@ -18050,7 +17773,7 @@
         <v>29357.156013784788</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>53</v>
       </c>
@@ -18109,7 +17832,7 @@
         <v>13532.819926598879</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>54</v>
       </c>
@@ -18168,7 +17891,7 @@
         <v>22676.415758920142</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>61</v>
       </c>
@@ -18227,7 +17950,7 @@
         <v>23389.030168929992</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>62</v>
       </c>
@@ -18286,7 +18009,7 @@
         <v>16841.687979494105</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>63</v>
       </c>
@@ -18345,7 +18068,7 @@
         <v>20996.347855043503</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>71</v>
       </c>
@@ -18404,7 +18127,7 @@
         <v>26037.16849370992</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>72</v>
       </c>
@@ -18463,7 +18186,7 @@
         <v>18272.593384402964</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>73</v>
       </c>
@@ -18522,7 +18245,7 @@
         <v>20724.325012388799</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>81</v>
       </c>
@@ -18581,7 +18304,7 @@
         <v>9955.8262247760031</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>82</v>
       </c>
@@ -18640,7 +18363,7 @@
         <v>19159.273726192198</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>83</v>
       </c>
@@ -18699,7 +18422,7 @@
         <v>18500.069968705204</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>91</v>
       </c>
@@ -18758,7 +18481,7 @@
         <v>20924.067347322161</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>92</v>
       </c>
@@ -18817,7 +18540,7 @@
         <v>21135.602496874941</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>93</v>
       </c>
@@ -18876,7 +18599,7 @@
         <v>21774.863989241392</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>101</v>
       </c>
@@ -18935,7 +18658,7 @@
         <v>18675.772481180102</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>102</v>
       </c>
@@ -18994,7 +18717,7 @@
         <v>30721.393252434045</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>103</v>
       </c>
@@ -19053,7 +18776,7 @@
         <v>23828.611626787068</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>111</v>
       </c>
@@ -19112,7 +18835,7 @@
         <v>24922.183789772407</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>112</v>
       </c>
@@ -19171,7 +18894,7 @@
         <v>13018.920494908558</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>113</v>
       </c>
@@ -19230,7 +18953,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>121</v>
       </c>
@@ -19289,7 +19012,7 @@
         <v>17312.631731603684</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>122</v>
       </c>
@@ -19348,7 +19071,7 @@
         <v>14923.389580505846</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>123</v>
       </c>
@@ -19407,7 +19130,7 @@
         <v>21432.763597984005</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>124</v>
       </c>
@@ -19466,7 +19189,7 @@
         <v>21787.341658752608</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>131</v>
       </c>
@@ -19525,7 +19248,7 @@
         <v>29194.991441977927</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>132</v>
       </c>
@@ -19584,7 +19307,7 @@
         <v>43635.747556435941</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>133</v>
       </c>
@@ -19643,7 +19366,7 @@
         <v>23035.378358596983</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>141</v>
       </c>
@@ -19702,7 +19425,7 @@
         <v>29416.418557880843</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>142</v>
       </c>
@@ -19761,7 +19484,7 @@
         <v>14002.081368876874</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>143</v>
       </c>
@@ -19830,68 +19553,68 @@
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>210</v>
+        <v>121</v>
       </c>
       <c r="B1" t="s">
-        <v>211</v>
+        <v>122</v>
       </c>
       <c r="C1" t="s">
-        <v>212</v>
+        <v>123</v>
       </c>
       <c r="D1" t="s">
-        <v>213</v>
+        <v>124</v>
       </c>
       <c r="E1" t="s">
-        <v>214</v>
+        <v>125</v>
       </c>
       <c r="F1" t="s">
-        <v>215</v>
+        <v>126</v>
       </c>
       <c r="G1" t="s">
-        <v>216</v>
+        <v>127</v>
       </c>
       <c r="H1" t="s">
-        <v>217</v>
+        <v>128</v>
       </c>
       <c r="I1" t="s">
-        <v>218</v>
+        <v>129</v>
       </c>
       <c r="J1" t="s">
-        <v>219</v>
+        <v>130</v>
       </c>
       <c r="K1" t="s">
-        <v>220</v>
+        <v>131</v>
       </c>
       <c r="L1" t="s">
-        <v>221</v>
+        <v>132</v>
       </c>
       <c r="M1" t="s">
-        <v>222</v>
+        <v>133</v>
       </c>
       <c r="N1" t="s">
-        <v>223</v>
+        <v>134</v>
       </c>
       <c r="O1" t="s">
-        <v>224</v>
+        <v>135</v>
       </c>
       <c r="P1" t="s">
-        <v>225</v>
+        <v>136</v>
       </c>
       <c r="Q1" t="s">
-        <v>226</v>
+        <v>137</v>
       </c>
       <c r="R1" t="s">
-        <v>227</v>
+        <v>138</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -19947,7 +19670,7 @@
         <v>3112.4818675079996</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -20003,7 +19726,7 @@
         <v>5153.5953672839996</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -20059,7 +19782,7 @@
         <v>5673.6036264960003</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -20115,7 +19838,7 @@
         <v>10728.819052847999</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -20171,7 +19894,7 @@
         <v>8644.4616229919993</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -20227,7 +19950,7 @@
         <v>11881.26978948</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -20283,7 +20006,7 @@
         <v>11685.591005867998</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -20339,7 +20062,7 @@
         <v>15975.388869803997</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -20395,7 +20118,7 @@
         <v>12326.682269303999</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -20461,208 +20184,208 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>228</v>
+        <v>139</v>
       </c>
       <c r="B1" t="s">
-        <v>238</v>
+        <v>149</v>
       </c>
       <c r="C1" t="s">
-        <v>239</v>
+        <v>150</v>
       </c>
       <c r="D1" t="s">
-        <v>240</v>
+        <v>151</v>
       </c>
       <c r="E1" t="s">
-        <v>241</v>
+        <v>152</v>
       </c>
       <c r="F1" t="s">
-        <v>242</v>
+        <v>153</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>229</v>
-      </c>
-      <c r="B2" s="5">
+        <v>140</v>
+      </c>
+      <c r="B2" s="73">
         <v>0.38517863561477284</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="73">
         <v>0.1142376654385979</v>
       </c>
-      <c r="D2" s="5">
-        <v>0.047356928719404057</v>
-      </c>
-      <c r="E2" s="5">
+      <c r="D2" s="73">
+        <v>4.7356928719404057E-2</v>
+      </c>
+      <c r="E2" s="73">
         <v>0.37892769999999998</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="73">
         <v>0.25951669999999999</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>230</v>
-      </c>
-      <c r="B3" s="5">
+        <v>141</v>
+      </c>
+      <c r="B3" s="73">
         <v>0.38326261287145019</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="73">
         <v>0.11343513085113884</v>
       </c>
-      <c r="D3" s="5">
-        <v>0.046915897758705451</v>
-      </c>
-      <c r="E3" s="5">
+      <c r="D3" s="73">
+        <v>4.6915897758705451E-2</v>
+      </c>
+      <c r="E3" s="73">
         <v>0.37838100000000002</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="73">
         <v>0.25885419999999998</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>231</v>
-      </c>
-      <c r="B4" s="5">
+        <v>142</v>
+      </c>
+      <c r="B4" s="73">
         <v>0.38407811898100652</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="73">
         <v>0.11390582425114691</v>
       </c>
-      <c r="D4" s="5">
-        <v>0.047211932511799073</v>
-      </c>
-      <c r="E4" s="5">
+      <c r="D4" s="73">
+        <v>4.7211932511799073E-2</v>
+      </c>
+      <c r="E4" s="73">
         <v>0.37878580000000001</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="73">
         <v>0.25928580000000001</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>232</v>
-      </c>
-      <c r="B5" s="5">
+        <v>143</v>
+      </c>
+      <c r="B5" s="73">
         <v>0.3821461857300848</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="73">
         <v>0.11112791479434732</v>
       </c>
-      <c r="D5" s="5">
-        <v>0.045261723745303357</v>
-      </c>
-      <c r="E5" s="5">
+      <c r="D5" s="73">
+        <v>4.5261723745303357E-2</v>
+      </c>
+      <c r="E5" s="73">
         <v>0.37675579999999997</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="73">
         <v>0.25691829999999999</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>233</v>
-      </c>
-      <c r="B6" s="5">
+        <v>144</v>
+      </c>
+      <c r="B6" s="73">
         <v>0.38355639301213873</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="73">
         <v>0.11298528505814093</v>
       </c>
-      <c r="D6" s="5">
-        <v>0.046502120124530776</v>
-      </c>
-      <c r="E6" s="5">
+      <c r="D6" s="73">
+        <v>4.6502120124530776E-2</v>
+      </c>
+      <c r="E6" s="73">
         <v>0.37805139999999998</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="73">
         <v>0.25846560000000002</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>234</v>
-      </c>
-      <c r="B7" s="5">
+        <v>145</v>
+      </c>
+      <c r="B7" s="73">
         <v>0.38060186690383974</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="73">
         <v>0.11187571967694834</v>
       </c>
-      <c r="D7" s="5">
-        <v>0.04589769174208836</v>
-      </c>
-      <c r="E7" s="5">
+      <c r="D7" s="73">
+        <v>4.589769174208836E-2</v>
+      </c>
+      <c r="E7" s="73">
         <v>0.3772932</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="73">
         <v>0.2575482</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>235</v>
-      </c>
-      <c r="B8" s="5">
+        <v>146</v>
+      </c>
+      <c r="B8" s="73">
         <v>0.3815575606284427</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="73">
         <v>0.11253308843817889</v>
       </c>
-      <c r="D8" s="5">
-        <v>0.046304701079309424</v>
-      </c>
-      <c r="E8" s="5">
+      <c r="D8" s="73">
+        <v>4.6304701079309424E-2</v>
+      </c>
+      <c r="E8" s="73">
         <v>0.37785960000000002</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="73">
         <v>0.2581504</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>236</v>
-      </c>
-      <c r="B9" s="5">
+        <v>147</v>
+      </c>
+      <c r="B9" s="73">
         <v>0.37795721930934162</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="73">
         <v>0.10879660095460358</v>
       </c>
-      <c r="D9" s="5">
-        <v>0.043857703704660599</v>
-      </c>
-      <c r="E9" s="5">
+      <c r="D9" s="73">
+        <v>4.3857703704660599E-2</v>
+      </c>
+      <c r="E9" s="73">
         <v>0.37514340000000002</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="73">
         <v>0.25499070000000001</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>237</v>
-      </c>
-      <c r="B10" s="5">
+        <v>148</v>
+      </c>
+      <c r="B10" s="73">
         <v>0.37891291303394453</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="73">
         <v>0.10945396971583413</v>
       </c>
-      <c r="D10" s="5">
-        <v>0.044264713041881662</v>
-      </c>
-      <c r="E10" s="5">
+      <c r="D10" s="73">
+        <v>4.4264713041881662E-2</v>
+      </c>
+      <c r="E10" s="73">
         <v>0.37571199999999999</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="73">
         <v>0.25559120000000002</v>
       </c>
     </row>
@@ -20672,23 +20395,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="d153cf4f-cfcf-4653-a06f-c074833c30a6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010091370013B154E642925D45278B95D32F" ma:contentTypeVersion="13" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="ffd84a345361e3e18d0b2ba68697ba03">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="d153cf4f-cfcf-4653-a06f-c074833c30a6" xmlns:ns4="95ea303f-39b1-42ca-beac-952387addeab" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cfe509448c78a396748808649184feb5" ns3:_="" ns4:_="">
     <xsd:import namespace="d153cf4f-cfcf-4653-a06f-c074833c30a6"/>
@@ -20911,32 +20617,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8A17114-B3C2-4B74-A225-37A69C2AE0D0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="95ea303f-39b1-42ca-beac-952387addeab"/>
-    <ds:schemaRef ds:uri="d153cf4f-cfcf-4653-a06f-c074833c30a6"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1AAFBE09-4DD3-45D1-8B80-C71B9897198E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="d153cf4f-cfcf-4653-a06f-c074833c30a6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CED9B7D-094C-407E-B9FC-1BDDB28FFEEF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20953,4 +20651,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1AAFBE09-4DD3-45D1-8B80-C71B9897198E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8A17114-B3C2-4B74-A225-37A69C2AE0D0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="95ea303f-39b1-42ca-beac-952387addeab"/>
+    <ds:schemaRef ds:uri="d153cf4f-cfcf-4653-a06f-c074833c30a6"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>